--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -3232,11 +3235,11 @@
   <dimension ref="A1:AJ477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8:AJ11"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3597,7 +3600,9 @@
       <c r="K6" s="19">
         <v>0.0584</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -3610,8 +3615,12 @@
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="V6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X6" s="11">
         <v>2</v>
       </c>
@@ -3680,7 +3689,9 @@
         <f>(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -3693,8 +3704,12 @@
         <f>IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="V7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X7" s="11">
         <v>2</v>
       </c>
@@ -3777,8 +3792,12 @@
         <f>IF(B8&lt;G8,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="V8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X8" s="11">
         <v>2</v>
       </c>
@@ -3861,8 +3880,12 @@
         <f>IF(B9&lt;G9,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="V9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X9" s="11">
         <v>2</v>
       </c>
@@ -3934,9 +3957,15 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="19">
+        <f>COUNTIF(K6:K10,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="19">
+        <f>COUNTIF(J6:J10,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -3945,8 +3974,12 @@
         <f>IF(B10&lt;G10,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="V10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X10" s="11">
         <v>2</v>
       </c>
@@ -4029,8 +4062,12 @@
         <f>IF(B11&lt;G11,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="V11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X11" s="11">
         <v>2</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -977,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,11 +3238,11 @@
   <dimension ref="A1:AJ477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3327,13 +3330,13 @@
       <c r="AG1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3371,8 +3374,8 @@
       <c r="AE2" s="25"/>
       <c r="AF2" s="25"/>
       <c r="AG2" s="21"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="39"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="40"/>
       <c r="AJ2" s="18"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:36">
@@ -3445,8 +3448,8 @@
       </c>
       <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="39"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="40"/>
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
@@ -3505,8 +3508,8 @@
         <v>37</v>
       </c>
       <c r="AG4" s="21"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="39"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="40"/>
       <c r="AJ4" s="18"/>
     </row>
     <row r="5" ht="53" spans="1:36">
@@ -3561,8 +3564,8 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="39"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="40"/>
       <c r="AJ5" s="18"/>
     </row>
     <row r="6" spans="1:36">
@@ -3631,14 +3634,14 @@
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="11">
+      <c r="AC6" s="36">
         <f>D6-E6</f>
         <v>5.73</v>
       </c>
       <c r="AD6" s="33"/>
       <c r="AE6" s="33"/>
       <c r="AF6" s="33"/>
-      <c r="AG6" s="40">
+      <c r="AG6" s="41">
         <v>59.29</v>
       </c>
       <c r="AH6" s="4">
@@ -3720,14 +3723,14 @@
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="11">
+      <c r="AC7" s="36">
         <f>D7-E7</f>
         <v>5.92</v>
       </c>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
       <c r="AF7" s="33"/>
-      <c r="AG7" s="40">
+      <c r="AG7" s="41">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
         <v>59.29</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
-      <c r="AG8" s="40">
+      <c r="AG8" s="41">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
         <v>59.29</v>
       </c>
@@ -3903,7 +3906,7 @@
       <c r="AD9" s="33"/>
       <c r="AE9" s="33"/>
       <c r="AF9" s="33"/>
-      <c r="AG9" s="40">
+      <c r="AG9" s="41">
         <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
         <v>59.29</v>
       </c>
@@ -3997,7 +4000,7 @@
       <c r="AD10" s="33"/>
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
-      <c r="AG10" s="40">
+      <c r="AG10" s="41">
         <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
         <v>59.29</v>
       </c>
@@ -4085,7 +4088,7 @@
       <c r="AD11" s="33"/>
       <c r="AE11" s="33"/>
       <c r="AF11" s="33"/>
-      <c r="AG11" s="40">
+      <c r="AG11" s="41">
         <f>IF(AND(H11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,H11&gt;H10),H11,AG10)</f>
         <v>59.29</v>
       </c>
@@ -4136,7 +4139,7 @@
       <c r="AD12" s="33"/>
       <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
-      <c r="AG12" s="40"/>
+      <c r="AG12" s="41"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="11"/>
     </row>
@@ -4175,7 +4178,7 @@
       <c r="AD13" s="33"/>
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
-      <c r="AG13" s="40"/>
+      <c r="AG13" s="41"/>
       <c r="AI13" s="20"/>
       <c r="AJ13" s="11"/>
     </row>
@@ -4214,7 +4217,7 @@
       <c r="AD14" s="33"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
-      <c r="AG14" s="40"/>
+      <c r="AG14" s="41"/>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="11"/>
     </row>
@@ -4253,7 +4256,7 @@
       <c r="AD15" s="33"/>
       <c r="AE15" s="33"/>
       <c r="AF15" s="33"/>
-      <c r="AG15" s="40"/>
+      <c r="AG15" s="41"/>
       <c r="AI15" s="20"/>
       <c r="AJ15" s="11"/>
     </row>
@@ -4292,7 +4295,7 @@
       <c r="AD16" s="33"/>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
-      <c r="AG16" s="40"/>
+      <c r="AG16" s="41"/>
       <c r="AI16" s="20"/>
       <c r="AJ16" s="11"/>
     </row>
@@ -4331,7 +4334,7 @@
       <c r="AD17" s="33"/>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
-      <c r="AG17" s="40"/>
+      <c r="AG17" s="41"/>
       <c r="AI17" s="20"/>
       <c r="AJ17" s="11"/>
     </row>
@@ -4370,7 +4373,7 @@
       <c r="AD18" s="33"/>
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
-      <c r="AG18" s="40"/>
+      <c r="AG18" s="41"/>
       <c r="AI18" s="20"/>
       <c r="AJ18" s="11"/>
     </row>
@@ -4409,7 +4412,7 @@
       <c r="AD19" s="33"/>
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
-      <c r="AG19" s="40"/>
+      <c r="AG19" s="41"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="11"/>
     </row>
@@ -4448,7 +4451,7 @@
       <c r="AD20" s="33"/>
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
-      <c r="AG20" s="40"/>
+      <c r="AG20" s="41"/>
       <c r="AI20" s="20"/>
       <c r="AJ20" s="11"/>
     </row>
@@ -4487,7 +4490,7 @@
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
-      <c r="AG21" s="40"/>
+      <c r="AG21" s="41"/>
       <c r="AI21" s="20"/>
       <c r="AJ21" s="11"/>
     </row>
@@ -4526,7 +4529,7 @@
       <c r="AD22" s="33"/>
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
-      <c r="AG22" s="40"/>
+      <c r="AG22" s="41"/>
       <c r="AI22" s="20"/>
       <c r="AJ22" s="11"/>
     </row>
@@ -4565,7 +4568,7 @@
       <c r="AD23" s="33"/>
       <c r="AE23" s="33"/>
       <c r="AF23" s="33"/>
-      <c r="AG23" s="40"/>
+      <c r="AG23" s="41"/>
       <c r="AI23" s="20"/>
       <c r="AJ23" s="11"/>
     </row>
@@ -4604,7 +4607,7 @@
       <c r="AD24" s="33"/>
       <c r="AE24" s="33"/>
       <c r="AF24" s="33"/>
-      <c r="AG24" s="40"/>
+      <c r="AG24" s="41"/>
       <c r="AI24" s="20"/>
       <c r="AJ24" s="11"/>
     </row>
@@ -4643,7 +4646,7 @@
       <c r="AD25" s="33"/>
       <c r="AE25" s="33"/>
       <c r="AF25" s="33"/>
-      <c r="AG25" s="40"/>
+      <c r="AG25" s="41"/>
       <c r="AI25" s="20"/>
       <c r="AJ25" s="11"/>
     </row>
@@ -4682,7 +4685,7 @@
       <c r="AD26" s="33"/>
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
-      <c r="AG26" s="40"/>
+      <c r="AG26" s="41"/>
       <c r="AI26" s="20"/>
       <c r="AJ26" s="11"/>
     </row>
@@ -4721,7 +4724,7 @@
       <c r="AD27" s="33"/>
       <c r="AE27" s="33"/>
       <c r="AF27" s="33"/>
-      <c r="AG27" s="40"/>
+      <c r="AG27" s="41"/>
       <c r="AI27" s="20"/>
       <c r="AJ27" s="11"/>
     </row>
@@ -4760,7 +4763,7 @@
       <c r="AD28" s="33"/>
       <c r="AE28" s="33"/>
       <c r="AF28" s="33"/>
-      <c r="AG28" s="40"/>
+      <c r="AG28" s="41"/>
       <c r="AI28" s="20"/>
       <c r="AJ28" s="11"/>
     </row>
@@ -4799,7 +4802,7 @@
       <c r="AD29" s="33"/>
       <c r="AE29" s="33"/>
       <c r="AF29" s="33"/>
-      <c r="AG29" s="40"/>
+      <c r="AG29" s="41"/>
       <c r="AI29" s="20"/>
       <c r="AJ29" s="11"/>
     </row>
@@ -4838,7 +4841,7 @@
       <c r="AD30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="33"/>
-      <c r="AG30" s="40"/>
+      <c r="AG30" s="41"/>
       <c r="AI30" s="20"/>
       <c r="AJ30" s="11"/>
     </row>
@@ -4877,7 +4880,7 @@
       <c r="AD31" s="33"/>
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
-      <c r="AG31" s="40"/>
+      <c r="AG31" s="41"/>
       <c r="AI31" s="20"/>
       <c r="AJ31" s="11"/>
     </row>
@@ -4916,7 +4919,7 @@
       <c r="AD32" s="33"/>
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
-      <c r="AG32" s="40"/>
+      <c r="AG32" s="41"/>
       <c r="AI32" s="20"/>
       <c r="AJ32" s="11"/>
     </row>
@@ -4955,7 +4958,7 @@
       <c r="AD33" s="33"/>
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
-      <c r="AG33" s="40"/>
+      <c r="AG33" s="41"/>
       <c r="AI33" s="20"/>
       <c r="AJ33" s="11"/>
     </row>
@@ -4994,7 +4997,7 @@
       <c r="AD34" s="33"/>
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
-      <c r="AG34" s="40"/>
+      <c r="AG34" s="41"/>
       <c r="AI34" s="20"/>
       <c r="AJ34" s="11"/>
     </row>
@@ -5033,7 +5036,7 @@
       <c r="AD35" s="33"/>
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
-      <c r="AG35" s="40"/>
+      <c r="AG35" s="41"/>
       <c r="AI35" s="20"/>
       <c r="AJ35" s="11"/>
     </row>
@@ -5072,7 +5075,7 @@
       <c r="AD36" s="33"/>
       <c r="AE36" s="33"/>
       <c r="AF36" s="33"/>
-      <c r="AG36" s="40"/>
+      <c r="AG36" s="41"/>
       <c r="AI36" s="20"/>
       <c r="AJ36" s="11"/>
     </row>
@@ -5111,7 +5114,7 @@
       <c r="AD37" s="33"/>
       <c r="AE37" s="33"/>
       <c r="AF37" s="33"/>
-      <c r="AG37" s="40"/>
+      <c r="AG37" s="41"/>
       <c r="AI37" s="20"/>
       <c r="AJ37" s="11"/>
     </row>
@@ -5150,7 +5153,7 @@
       <c r="AD38" s="33"/>
       <c r="AE38" s="33"/>
       <c r="AF38" s="33"/>
-      <c r="AG38" s="40"/>
+      <c r="AG38" s="41"/>
       <c r="AI38" s="20"/>
       <c r="AJ38" s="11"/>
     </row>
@@ -5189,7 +5192,7 @@
       <c r="AD39" s="33"/>
       <c r="AE39" s="33"/>
       <c r="AF39" s="33"/>
-      <c r="AG39" s="40"/>
+      <c r="AG39" s="41"/>
       <c r="AI39" s="20"/>
       <c r="AJ39" s="11"/>
     </row>
@@ -5228,7 +5231,7 @@
       <c r="AD40" s="33"/>
       <c r="AE40" s="33"/>
       <c r="AF40" s="33"/>
-      <c r="AG40" s="40"/>
+      <c r="AG40" s="41"/>
       <c r="AI40" s="20"/>
       <c r="AJ40" s="11"/>
     </row>
@@ -5267,7 +5270,7 @@
       <c r="AD41" s="33"/>
       <c r="AE41" s="33"/>
       <c r="AF41" s="33"/>
-      <c r="AG41" s="40"/>
+      <c r="AG41" s="41"/>
       <c r="AI41" s="20"/>
       <c r="AJ41" s="11"/>
     </row>
@@ -5306,7 +5309,7 @@
       <c r="AD42" s="33"/>
       <c r="AE42" s="33"/>
       <c r="AF42" s="33"/>
-      <c r="AG42" s="40"/>
+      <c r="AG42" s="41"/>
       <c r="AI42" s="20"/>
       <c r="AJ42" s="11"/>
     </row>
@@ -5345,7 +5348,7 @@
       <c r="AD43" s="33"/>
       <c r="AE43" s="33"/>
       <c r="AF43" s="33"/>
-      <c r="AG43" s="40"/>
+      <c r="AG43" s="41"/>
       <c r="AI43" s="20"/>
       <c r="AJ43" s="11"/>
     </row>
@@ -5384,7 +5387,7 @@
       <c r="AD44" s="33"/>
       <c r="AE44" s="33"/>
       <c r="AF44" s="33"/>
-      <c r="AG44" s="40"/>
+      <c r="AG44" s="41"/>
       <c r="AI44" s="20"/>
       <c r="AJ44" s="11"/>
     </row>
@@ -5423,7 +5426,7 @@
       <c r="AD45" s="33"/>
       <c r="AE45" s="33"/>
       <c r="AF45" s="33"/>
-      <c r="AG45" s="40"/>
+      <c r="AG45" s="41"/>
       <c r="AI45" s="20"/>
       <c r="AJ45" s="11"/>
     </row>
@@ -5462,7 +5465,7 @@
       <c r="AD46" s="33"/>
       <c r="AE46" s="33"/>
       <c r="AF46" s="33"/>
-      <c r="AG46" s="40"/>
+      <c r="AG46" s="41"/>
       <c r="AI46" s="20"/>
       <c r="AJ46" s="11"/>
     </row>
@@ -5501,7 +5504,7 @@
       <c r="AD47" s="33"/>
       <c r="AE47" s="33"/>
       <c r="AF47" s="33"/>
-      <c r="AG47" s="40"/>
+      <c r="AG47" s="41"/>
       <c r="AI47" s="20"/>
       <c r="AJ47" s="11"/>
     </row>
@@ -5540,7 +5543,7 @@
       <c r="AD48" s="33"/>
       <c r="AE48" s="33"/>
       <c r="AF48" s="33"/>
-      <c r="AG48" s="40"/>
+      <c r="AG48" s="41"/>
       <c r="AI48" s="20"/>
       <c r="AJ48" s="11"/>
     </row>
@@ -5579,7 +5582,7 @@
       <c r="AD49" s="33"/>
       <c r="AE49" s="33"/>
       <c r="AF49" s="33"/>
-      <c r="AG49" s="40"/>
+      <c r="AG49" s="41"/>
       <c r="AI49" s="20"/>
       <c r="AJ49" s="11"/>
     </row>
@@ -5618,7 +5621,7 @@
       <c r="AD50" s="33"/>
       <c r="AE50" s="33"/>
       <c r="AF50" s="33"/>
-      <c r="AG50" s="40"/>
+      <c r="AG50" s="41"/>
       <c r="AI50" s="20"/>
       <c r="AJ50" s="11"/>
     </row>
@@ -5657,7 +5660,7 @@
       <c r="AD51" s="33"/>
       <c r="AE51" s="33"/>
       <c r="AF51" s="33"/>
-      <c r="AG51" s="40"/>
+      <c r="AG51" s="41"/>
       <c r="AI51" s="20"/>
       <c r="AJ51" s="11"/>
     </row>
@@ -5696,7 +5699,7 @@
       <c r="AD52" s="33"/>
       <c r="AE52" s="33"/>
       <c r="AF52" s="33"/>
-      <c r="AG52" s="40"/>
+      <c r="AG52" s="41"/>
       <c r="AI52" s="20"/>
       <c r="AJ52" s="11"/>
     </row>
@@ -5735,7 +5738,7 @@
       <c r="AD53" s="33"/>
       <c r="AE53" s="33"/>
       <c r="AF53" s="33"/>
-      <c r="AG53" s="40"/>
+      <c r="AG53" s="41"/>
       <c r="AI53" s="20"/>
       <c r="AJ53" s="11"/>
     </row>
@@ -5774,7 +5777,7 @@
       <c r="AD54" s="33"/>
       <c r="AE54" s="33"/>
       <c r="AF54" s="33"/>
-      <c r="AG54" s="40"/>
+      <c r="AG54" s="41"/>
       <c r="AI54" s="20"/>
       <c r="AJ54" s="11"/>
     </row>
@@ -5813,7 +5816,7 @@
       <c r="AD55" s="33"/>
       <c r="AE55" s="33"/>
       <c r="AF55" s="33"/>
-      <c r="AG55" s="40"/>
+      <c r="AG55" s="41"/>
       <c r="AI55" s="20"/>
       <c r="AJ55" s="11"/>
     </row>
@@ -5852,7 +5855,7 @@
       <c r="AD56" s="33"/>
       <c r="AE56" s="33"/>
       <c r="AF56" s="33"/>
-      <c r="AG56" s="40"/>
+      <c r="AG56" s="41"/>
       <c r="AI56" s="20"/>
       <c r="AJ56" s="11"/>
     </row>
@@ -5891,7 +5894,7 @@
       <c r="AD57" s="33"/>
       <c r="AE57" s="33"/>
       <c r="AF57" s="33"/>
-      <c r="AG57" s="40"/>
+      <c r="AG57" s="41"/>
       <c r="AI57" s="20"/>
       <c r="AJ57" s="11"/>
     </row>
@@ -5930,7 +5933,7 @@
       <c r="AD58" s="33"/>
       <c r="AE58" s="33"/>
       <c r="AF58" s="33"/>
-      <c r="AG58" s="40"/>
+      <c r="AG58" s="41"/>
       <c r="AI58" s="20"/>
       <c r="AJ58" s="11"/>
     </row>
@@ -5969,7 +5972,7 @@
       <c r="AD59" s="33"/>
       <c r="AE59" s="33"/>
       <c r="AF59" s="33"/>
-      <c r="AG59" s="40"/>
+      <c r="AG59" s="41"/>
       <c r="AI59" s="20"/>
       <c r="AJ59" s="11"/>
     </row>
@@ -6008,7 +6011,7 @@
       <c r="AD60" s="33"/>
       <c r="AE60" s="33"/>
       <c r="AF60" s="33"/>
-      <c r="AG60" s="40"/>
+      <c r="AG60" s="41"/>
       <c r="AI60" s="20"/>
       <c r="AJ60" s="11"/>
     </row>
@@ -6047,7 +6050,7 @@
       <c r="AD61" s="33"/>
       <c r="AE61" s="33"/>
       <c r="AF61" s="33"/>
-      <c r="AG61" s="40"/>
+      <c r="AG61" s="41"/>
       <c r="AI61" s="20"/>
       <c r="AJ61" s="11"/>
     </row>
@@ -6086,7 +6089,7 @@
       <c r="AD62" s="33"/>
       <c r="AE62" s="33"/>
       <c r="AF62" s="33"/>
-      <c r="AG62" s="40"/>
+      <c r="AG62" s="41"/>
       <c r="AI62" s="20"/>
       <c r="AJ62" s="11"/>
     </row>
@@ -6125,7 +6128,7 @@
       <c r="AD63" s="33"/>
       <c r="AE63" s="33"/>
       <c r="AF63" s="33"/>
-      <c r="AG63" s="40"/>
+      <c r="AG63" s="41"/>
       <c r="AI63" s="20"/>
       <c r="AJ63" s="11"/>
     </row>
@@ -6164,7 +6167,7 @@
       <c r="AD64" s="33"/>
       <c r="AE64" s="33"/>
       <c r="AF64" s="33"/>
-      <c r="AG64" s="40"/>
+      <c r="AG64" s="41"/>
       <c r="AI64" s="20"/>
       <c r="AJ64" s="11"/>
     </row>
@@ -6203,7 +6206,7 @@
       <c r="AD65" s="33"/>
       <c r="AE65" s="33"/>
       <c r="AF65" s="33"/>
-      <c r="AG65" s="40"/>
+      <c r="AG65" s="41"/>
       <c r="AI65" s="20"/>
       <c r="AJ65" s="11"/>
     </row>
@@ -6242,7 +6245,7 @@
       <c r="AD66" s="33"/>
       <c r="AE66" s="33"/>
       <c r="AF66" s="33"/>
-      <c r="AG66" s="40"/>
+      <c r="AG66" s="41"/>
       <c r="AI66" s="20"/>
       <c r="AJ66" s="11"/>
     </row>
@@ -6281,7 +6284,7 @@
       <c r="AD67" s="33"/>
       <c r="AE67" s="33"/>
       <c r="AF67" s="33"/>
-      <c r="AG67" s="40"/>
+      <c r="AG67" s="41"/>
       <c r="AI67" s="20"/>
       <c r="AJ67" s="11"/>
     </row>
@@ -6320,7 +6323,7 @@
       <c r="AD68" s="33"/>
       <c r="AE68" s="33"/>
       <c r="AF68" s="33"/>
-      <c r="AG68" s="40"/>
+      <c r="AG68" s="41"/>
       <c r="AI68" s="20"/>
       <c r="AJ68" s="11"/>
     </row>
@@ -6359,7 +6362,7 @@
       <c r="AD69" s="33"/>
       <c r="AE69" s="33"/>
       <c r="AF69" s="33"/>
-      <c r="AG69" s="40"/>
+      <c r="AG69" s="41"/>
       <c r="AI69" s="20"/>
       <c r="AJ69" s="11"/>
     </row>
@@ -6398,7 +6401,7 @@
       <c r="AD70" s="33"/>
       <c r="AE70" s="33"/>
       <c r="AF70" s="33"/>
-      <c r="AG70" s="40"/>
+      <c r="AG70" s="41"/>
       <c r="AI70" s="20"/>
       <c r="AJ70" s="11"/>
     </row>
@@ -6437,7 +6440,7 @@
       <c r="AD71" s="33"/>
       <c r="AE71" s="33"/>
       <c r="AF71" s="33"/>
-      <c r="AG71" s="40"/>
+      <c r="AG71" s="41"/>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="11"/>
     </row>
@@ -6476,7 +6479,7 @@
       <c r="AD72" s="33"/>
       <c r="AE72" s="33"/>
       <c r="AF72" s="33"/>
-      <c r="AG72" s="40"/>
+      <c r="AG72" s="41"/>
       <c r="AI72" s="20"/>
       <c r="AJ72" s="11"/>
     </row>
@@ -6515,7 +6518,7 @@
       <c r="AD73" s="33"/>
       <c r="AE73" s="33"/>
       <c r="AF73" s="33"/>
-      <c r="AG73" s="40"/>
+      <c r="AG73" s="41"/>
       <c r="AI73" s="20"/>
       <c r="AJ73" s="11"/>
     </row>
@@ -6554,7 +6557,7 @@
       <c r="AD74" s="33"/>
       <c r="AE74" s="33"/>
       <c r="AF74" s="33"/>
-      <c r="AG74" s="40"/>
+      <c r="AG74" s="41"/>
       <c r="AI74" s="20"/>
       <c r="AJ74" s="11"/>
     </row>
@@ -6593,7 +6596,7 @@
       <c r="AD75" s="33"/>
       <c r="AE75" s="33"/>
       <c r="AF75" s="33"/>
-      <c r="AG75" s="40"/>
+      <c r="AG75" s="41"/>
       <c r="AI75" s="20"/>
       <c r="AJ75" s="11"/>
     </row>
@@ -6632,7 +6635,7 @@
       <c r="AD76" s="33"/>
       <c r="AE76" s="33"/>
       <c r="AF76" s="33"/>
-      <c r="AG76" s="40"/>
+      <c r="AG76" s="41"/>
       <c r="AI76" s="20"/>
       <c r="AJ76" s="11"/>
     </row>
@@ -6671,7 +6674,7 @@
       <c r="AD77" s="33"/>
       <c r="AE77" s="33"/>
       <c r="AF77" s="33"/>
-      <c r="AG77" s="40"/>
+      <c r="AG77" s="41"/>
       <c r="AI77" s="20"/>
       <c r="AJ77" s="11"/>
     </row>
@@ -6710,7 +6713,7 @@
       <c r="AD78" s="33"/>
       <c r="AE78" s="33"/>
       <c r="AF78" s="33"/>
-      <c r="AG78" s="40"/>
+      <c r="AG78" s="41"/>
       <c r="AI78" s="20"/>
       <c r="AJ78" s="11"/>
     </row>
@@ -6749,7 +6752,7 @@
       <c r="AD79" s="33"/>
       <c r="AE79" s="33"/>
       <c r="AF79" s="33"/>
-      <c r="AG79" s="40"/>
+      <c r="AG79" s="41"/>
       <c r="AI79" s="20"/>
       <c r="AJ79" s="11"/>
     </row>
@@ -6788,7 +6791,7 @@
       <c r="AD80" s="33"/>
       <c r="AE80" s="33"/>
       <c r="AF80" s="33"/>
-      <c r="AG80" s="40"/>
+      <c r="AG80" s="41"/>
       <c r="AI80" s="20"/>
       <c r="AJ80" s="11"/>
     </row>
@@ -6827,7 +6830,7 @@
       <c r="AD81" s="33"/>
       <c r="AE81" s="33"/>
       <c r="AF81" s="33"/>
-      <c r="AG81" s="40"/>
+      <c r="AG81" s="41"/>
       <c r="AI81" s="20"/>
       <c r="AJ81" s="11"/>
     </row>
@@ -6866,7 +6869,7 @@
       <c r="AD82" s="33"/>
       <c r="AE82" s="33"/>
       <c r="AF82" s="33"/>
-      <c r="AG82" s="40"/>
+      <c r="AG82" s="41"/>
       <c r="AI82" s="20"/>
       <c r="AJ82" s="11"/>
     </row>
@@ -6905,7 +6908,7 @@
       <c r="AD83" s="33"/>
       <c r="AE83" s="33"/>
       <c r="AF83" s="33"/>
-      <c r="AG83" s="40"/>
+      <c r="AG83" s="41"/>
       <c r="AI83" s="20"/>
       <c r="AJ83" s="11"/>
     </row>
@@ -6944,7 +6947,7 @@
       <c r="AD84" s="33"/>
       <c r="AE84" s="33"/>
       <c r="AF84" s="33"/>
-      <c r="AG84" s="40"/>
+      <c r="AG84" s="41"/>
       <c r="AI84" s="20"/>
       <c r="AJ84" s="11"/>
     </row>
@@ -6983,7 +6986,7 @@
       <c r="AD85" s="33"/>
       <c r="AE85" s="33"/>
       <c r="AF85" s="33"/>
-      <c r="AG85" s="40"/>
+      <c r="AG85" s="41"/>
       <c r="AI85" s="20"/>
       <c r="AJ85" s="11"/>
     </row>
@@ -7022,7 +7025,7 @@
       <c r="AD86" s="33"/>
       <c r="AE86" s="33"/>
       <c r="AF86" s="33"/>
-      <c r="AG86" s="40"/>
+      <c r="AG86" s="41"/>
       <c r="AI86" s="20"/>
       <c r="AJ86" s="11"/>
     </row>
@@ -7061,7 +7064,7 @@
       <c r="AD87" s="33"/>
       <c r="AE87" s="33"/>
       <c r="AF87" s="33"/>
-      <c r="AG87" s="40"/>
+      <c r="AG87" s="41"/>
       <c r="AI87" s="20"/>
       <c r="AJ87" s="11"/>
     </row>
@@ -7100,7 +7103,7 @@
       <c r="AD88" s="33"/>
       <c r="AE88" s="33"/>
       <c r="AF88" s="33"/>
-      <c r="AG88" s="40"/>
+      <c r="AG88" s="41"/>
       <c r="AI88" s="20"/>
       <c r="AJ88" s="11"/>
     </row>
@@ -7139,7 +7142,7 @@
       <c r="AD89" s="33"/>
       <c r="AE89" s="33"/>
       <c r="AF89" s="33"/>
-      <c r="AG89" s="40"/>
+      <c r="AG89" s="41"/>
       <c r="AI89" s="20"/>
       <c r="AJ89" s="11"/>
     </row>
@@ -7178,7 +7181,7 @@
       <c r="AD90" s="33"/>
       <c r="AE90" s="33"/>
       <c r="AF90" s="33"/>
-      <c r="AG90" s="40"/>
+      <c r="AG90" s="41"/>
       <c r="AI90" s="20"/>
       <c r="AJ90" s="11"/>
     </row>
@@ -7217,7 +7220,7 @@
       <c r="AD91" s="33"/>
       <c r="AE91" s="33"/>
       <c r="AF91" s="33"/>
-      <c r="AG91" s="40"/>
+      <c r="AG91" s="41"/>
       <c r="AI91" s="20"/>
       <c r="AJ91" s="11"/>
     </row>
@@ -7256,7 +7259,7 @@
       <c r="AD92" s="33"/>
       <c r="AE92" s="33"/>
       <c r="AF92" s="33"/>
-      <c r="AG92" s="40"/>
+      <c r="AG92" s="41"/>
       <c r="AI92" s="20"/>
       <c r="AJ92" s="11"/>
     </row>
@@ -7295,7 +7298,7 @@
       <c r="AD93" s="33"/>
       <c r="AE93" s="33"/>
       <c r="AF93" s="33"/>
-      <c r="AG93" s="40"/>
+      <c r="AG93" s="41"/>
       <c r="AI93" s="20"/>
       <c r="AJ93" s="11"/>
     </row>
@@ -7334,7 +7337,7 @@
       <c r="AD94" s="33"/>
       <c r="AE94" s="33"/>
       <c r="AF94" s="33"/>
-      <c r="AG94" s="40"/>
+      <c r="AG94" s="41"/>
       <c r="AI94" s="20"/>
       <c r="AJ94" s="11"/>
     </row>
@@ -7373,7 +7376,7 @@
       <c r="AD95" s="33"/>
       <c r="AE95" s="33"/>
       <c r="AF95" s="33"/>
-      <c r="AG95" s="40"/>
+      <c r="AG95" s="41"/>
       <c r="AI95" s="20"/>
       <c r="AJ95" s="11"/>
     </row>
@@ -7412,7 +7415,7 @@
       <c r="AD96" s="33"/>
       <c r="AE96" s="33"/>
       <c r="AF96" s="33"/>
-      <c r="AG96" s="40"/>
+      <c r="AG96" s="41"/>
       <c r="AI96" s="20"/>
       <c r="AJ96" s="11"/>
     </row>
@@ -7451,7 +7454,7 @@
       <c r="AD97" s="33"/>
       <c r="AE97" s="33"/>
       <c r="AF97" s="33"/>
-      <c r="AG97" s="40"/>
+      <c r="AG97" s="41"/>
       <c r="AI97" s="20"/>
       <c r="AJ97" s="11"/>
     </row>
@@ -7490,7 +7493,7 @@
       <c r="AD98" s="33"/>
       <c r="AE98" s="33"/>
       <c r="AF98" s="33"/>
-      <c r="AG98" s="40"/>
+      <c r="AG98" s="41"/>
       <c r="AI98" s="20"/>
       <c r="AJ98" s="11"/>
     </row>
@@ -7529,7 +7532,7 @@
       <c r="AD99" s="33"/>
       <c r="AE99" s="33"/>
       <c r="AF99" s="33"/>
-      <c r="AG99" s="40"/>
+      <c r="AG99" s="41"/>
       <c r="AI99" s="20"/>
       <c r="AJ99" s="11"/>
     </row>
@@ -7568,7 +7571,7 @@
       <c r="AD100" s="33"/>
       <c r="AE100" s="33"/>
       <c r="AF100" s="33"/>
-      <c r="AG100" s="40"/>
+      <c r="AG100" s="41"/>
       <c r="AI100" s="20"/>
       <c r="AJ100" s="11"/>
     </row>
@@ -7607,7 +7610,7 @@
       <c r="AD101" s="33"/>
       <c r="AE101" s="33"/>
       <c r="AF101" s="33"/>
-      <c r="AG101" s="40"/>
+      <c r="AG101" s="41"/>
       <c r="AI101" s="20"/>
       <c r="AJ101" s="11"/>
     </row>
@@ -7646,7 +7649,7 @@
       <c r="AD102" s="33"/>
       <c r="AE102" s="33"/>
       <c r="AF102" s="33"/>
-      <c r="AG102" s="40"/>
+      <c r="AG102" s="41"/>
       <c r="AI102" s="20"/>
       <c r="AJ102" s="11"/>
     </row>
@@ -7685,7 +7688,7 @@
       <c r="AD103" s="33"/>
       <c r="AE103" s="33"/>
       <c r="AF103" s="33"/>
-      <c r="AG103" s="40"/>
+      <c r="AG103" s="41"/>
       <c r="AI103" s="20"/>
       <c r="AJ103" s="11"/>
     </row>
@@ -7724,7 +7727,7 @@
       <c r="AD104" s="33"/>
       <c r="AE104" s="33"/>
       <c r="AF104" s="33"/>
-      <c r="AG104" s="40"/>
+      <c r="AG104" s="41"/>
       <c r="AI104" s="20"/>
       <c r="AJ104" s="11"/>
     </row>
@@ -7763,7 +7766,7 @@
       <c r="AD105" s="33"/>
       <c r="AE105" s="33"/>
       <c r="AF105" s="33"/>
-      <c r="AG105" s="40"/>
+      <c r="AG105" s="41"/>
       <c r="AI105" s="20"/>
       <c r="AJ105" s="11"/>
     </row>
@@ -7802,7 +7805,7 @@
       <c r="AD106" s="33"/>
       <c r="AE106" s="33"/>
       <c r="AF106" s="33"/>
-      <c r="AG106" s="40"/>
+      <c r="AG106" s="41"/>
       <c r="AI106" s="20"/>
       <c r="AJ106" s="11"/>
     </row>
@@ -7827,7 +7830,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="AH107" s="41"/>
+      <c r="AH107" s="42"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -239,11 +239,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -977,11 +978,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1014,7 +1015,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1112,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3238,11 +3251,11 @@
   <dimension ref="A1:AJ477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3294,49 +3307,49 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="22" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="25" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="21" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3346,37 +3359,37 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="21"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:36">
       <c r="A3" s="6"/>
@@ -3392,7 +3405,7 @@
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3401,56 +3414,56 @@
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="26" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="21" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="18"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="21"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
       <c r="A4" s="6"/>
@@ -3458,59 +3471,59 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="28" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31" t="s">
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AD4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="18"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="21"/>
     </row>
     <row r="5" ht="53" spans="1:36">
       <c r="A5" s="6"/>
@@ -3518,55 +3531,55 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="31" t="s">
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="18"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="21"/>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="9">
@@ -3584,7 +3597,7 @@
       <c r="E6" s="10">
         <v>60.17</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>5.9116</v>
       </c>
       <c r="G6" s="10">
@@ -3596,14 +3609,14 @@
       <c r="I6" s="11">
         <v>33.78</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="21">
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="22">
         <v>0.0584</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="11"/>
@@ -3627,32 +3640,32 @@
       <c r="X6" s="11">
         <v>2</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="35">
         <f>$I6/$I$6</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="36">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="39">
         <f>D6-E6</f>
         <v>5.73</v>
       </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="41">
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="44">
         <v>59.29</v>
       </c>
       <c r="AH6" s="4">
         <f>($AG6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="23">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.00447876447876458</v>
       </c>
-      <c r="AJ6" s="18" t="s">
+      <c r="AJ6" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3672,7 +3685,7 @@
       <c r="E7" s="10">
         <v>65.62</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>8.8553</v>
       </c>
       <c r="G7" s="10">
@@ -3684,15 +3697,15 @@
       <c r="I7" s="11">
         <v>35.75</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="21">
         <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="22">
         <f>(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="11"/>
@@ -3716,21 +3729,21 @@
       <c r="X7" s="11">
         <v>2</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="35">
         <f>$I7/$I$6</f>
         <v>1.05831853167555</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="36">
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="39">
         <f>D7-E7</f>
         <v>5.92</v>
       </c>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="41">
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="44">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
         <v>59.29</v>
       </c>
@@ -3738,11 +3751,11 @@
         <f>($AG7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI7" s="20">
+      <c r="AI7" s="23">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.0949806949806951</v>
       </c>
-      <c r="AJ7" s="18" t="s">
+      <c r="AJ7" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3762,7 +3775,7 @@
       <c r="E8" s="10">
         <v>68</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>5.9013</v>
       </c>
       <c r="G8" s="10">
@@ -3774,11 +3787,11 @@
       <c r="I8" s="11">
         <v>38.97</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="21">
         <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="23">
         <f>(B8-B7)/B7</f>
         <v>0.0166431593794075</v>
       </c>
@@ -3804,21 +3817,21 @@
       <c r="X8" s="11">
         <v>2</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="35">
         <f>$I8/$I$6</f>
         <v>1.15364120781528</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="11">
         <f>D8-E8</f>
         <v>4.08</v>
       </c>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="41">
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="44">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
         <v>59.29</v>
       </c>
@@ -3826,11 +3839,11 @@
         <f>($AG8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI8" s="20">
+      <c r="AI8" s="23">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.113204633204633</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AJ8" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3850,7 +3863,7 @@
       <c r="E9" s="10">
         <v>69.85</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="15">
         <v>5.4515</v>
       </c>
       <c r="G9" s="10">
@@ -3862,11 +3875,11 @@
       <c r="I9" s="11">
         <v>39.62</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="21">
         <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="23">
         <f>(B9-B8)/B8</f>
         <v>0.00360710321864602</v>
       </c>
@@ -3892,21 +3905,21 @@
       <c r="X9" s="11">
         <v>2</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="35">
         <f>$I9/$I$6</f>
         <v>1.17288336293665</v>
       </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
       <c r="AC9" s="11">
         <f>D9-E9</f>
         <v>3.62</v>
       </c>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="41">
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="44">
         <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
         <v>59.29</v>
       </c>
@@ -3914,11 +3927,11 @@
         <f>($AG9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI9" s="20">
+      <c r="AI9" s="23">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.117220077220077</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AJ9" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3938,7 +3951,7 @@
       <c r="E10" s="10">
         <v>70.3</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="15">
         <v>3.6118</v>
       </c>
       <c r="G10" s="10">
@@ -3950,22 +3963,22 @@
       <c r="I10" s="11">
         <v>39.76</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="21">
         <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="23">
         <f>(B10-B9)/B9</f>
         <v>0.00248824993088184</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="19">
+      <c r="N10" s="22">
         <f>COUNTIF(K6:K10,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="19">
+      <c r="P10" s="22">
         <f>COUNTIF(J6:J10,"&gt;0")/5</f>
         <v>1</v>
       </c>
@@ -3986,21 +3999,21 @@
       <c r="X10" s="11">
         <v>2</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="35">
         <f>$I10/$I$6</f>
         <v>1.17702782711664</v>
       </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="11">
         <f>D10-E10</f>
         <v>4</v>
       </c>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="41">
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="44">
         <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
         <v>59.29</v>
       </c>
@@ -4008,11 +4021,11 @@
         <f>($AG10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AI10" s="23">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.12</v>
       </c>
-      <c r="AJ10" s="18" t="s">
+      <c r="AJ10" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4032,7 +4045,7 @@
       <c r="E11" s="10">
         <v>72.07</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="15">
         <v>7.4967</v>
       </c>
       <c r="G11" s="10">
@@ -4044,11 +4057,11 @@
       <c r="I11" s="11">
         <v>39.86</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="24">
         <f>IF(B11&gt;(D11-(D11-E11)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="23">
         <f>(B11-B10)/B10</f>
         <v>0.0300606729178159</v>
       </c>
@@ -4074,21 +4087,21 @@
       <c r="X11" s="11">
         <v>2</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="35">
         <f>$I11/$I$6</f>
         <v>1.17998815867377</v>
       </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="21">
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="24">
         <f>D11-E11</f>
         <v>6.53</v>
       </c>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="41">
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="44">
         <f>IF(AND(H11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,H11&gt;H10),H11,AG10)</f>
         <v>59.29</v>
       </c>
@@ -4096,11 +4109,11 @@
         <f>($AG11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,7,FALSE)</f>
         <v>-546</v>
       </c>
-      <c r="AI11" s="20">
+      <c r="AI11" s="23">
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.153667953667954</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AJ11" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4112,12 +4125,12 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -4132,15 +4145,15 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="41"/>
-      <c r="AI12" s="20"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="44"/>
+      <c r="AI12" s="23"/>
       <c r="AJ12" s="11"/>
     </row>
     <row r="13" spans="1:36">
@@ -4151,12 +4164,12 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4171,15 +4184,15 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="41"/>
-      <c r="AI13" s="20"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="44"/>
+      <c r="AI13" s="23"/>
       <c r="AJ13" s="11"/>
     </row>
     <row r="14" spans="1:36">
@@ -4190,12 +4203,12 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4210,15 +4223,15 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
       <c r="AC14" s="11"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="41"/>
-      <c r="AI14" s="20"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="44"/>
+      <c r="AI14" s="23"/>
       <c r="AJ14" s="11"/>
     </row>
     <row r="15" spans="1:36">
@@ -4229,12 +4242,12 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -4249,15 +4262,15 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="11"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="41"/>
-      <c r="AI15" s="20"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="44"/>
+      <c r="AI15" s="23"/>
       <c r="AJ15" s="11"/>
     </row>
     <row r="16" spans="1:36">
@@ -4268,12 +4281,12 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -4288,15 +4301,15 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="41"/>
-      <c r="AI16" s="20"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="44"/>
+      <c r="AI16" s="23"/>
       <c r="AJ16" s="11"/>
     </row>
     <row r="17" spans="1:36">
@@ -4307,12 +4320,12 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -4327,15 +4340,15 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="41"/>
-      <c r="AI17" s="20"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="44"/>
+      <c r="AI17" s="23"/>
       <c r="AJ17" s="11"/>
     </row>
     <row r="18" spans="1:36">
@@ -4346,12 +4359,12 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -4366,15 +4379,15 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="41"/>
-      <c r="AI18" s="20"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="44"/>
+      <c r="AI18" s="23"/>
       <c r="AJ18" s="11"/>
     </row>
     <row r="19" spans="1:36">
@@ -4385,12 +4398,12 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4405,15 +4418,15 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="41"/>
-      <c r="AI19" s="20"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="44"/>
+      <c r="AI19" s="23"/>
       <c r="AJ19" s="11"/>
     </row>
     <row r="20" spans="1:36">
@@ -4424,12 +4437,12 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -4444,15 +4457,15 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="41"/>
-      <c r="AI20" s="20"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="44"/>
+      <c r="AI20" s="23"/>
       <c r="AJ20" s="11"/>
     </row>
     <row r="21" spans="1:36">
@@ -4463,12 +4476,12 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4483,15 +4496,15 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
       <c r="AC21" s="11"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="41"/>
-      <c r="AI21" s="20"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="44"/>
+      <c r="AI21" s="23"/>
       <c r="AJ21" s="11"/>
     </row>
     <row r="22" spans="1:36">
@@ -4502,12 +4515,12 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -4522,15 +4535,15 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="41"/>
-      <c r="AI22" s="20"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="44"/>
+      <c r="AI22" s="23"/>
       <c r="AJ22" s="11"/>
     </row>
     <row r="23" spans="1:36">
@@ -4541,12 +4554,12 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -4561,15 +4574,15 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="41"/>
-      <c r="AI23" s="20"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="44"/>
+      <c r="AI23" s="23"/>
       <c r="AJ23" s="11"/>
     </row>
     <row r="24" spans="1:36">
@@ -4580,12 +4593,12 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -4600,15 +4613,15 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="41"/>
-      <c r="AI24" s="20"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="44"/>
+      <c r="AI24" s="23"/>
       <c r="AJ24" s="11"/>
     </row>
     <row r="25" spans="1:36">
@@ -4619,12 +4632,12 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -4639,15 +4652,15 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
       <c r="AC25" s="11"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="41"/>
-      <c r="AI25" s="20"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="44"/>
+      <c r="AI25" s="23"/>
       <c r="AJ25" s="11"/>
     </row>
     <row r="26" spans="1:36">
@@ -4658,12 +4671,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -4678,15 +4691,15 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="41"/>
-      <c r="AI26" s="20"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="44"/>
+      <c r="AI26" s="23"/>
       <c r="AJ26" s="11"/>
     </row>
     <row r="27" spans="1:36">
@@ -4697,12 +4710,12 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -4717,15 +4730,15 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
       <c r="AC27" s="11"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="41"/>
-      <c r="AI27" s="20"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="44"/>
+      <c r="AI27" s="23"/>
       <c r="AJ27" s="11"/>
     </row>
     <row r="28" spans="1:36">
@@ -4736,12 +4749,12 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -4756,15 +4769,15 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="41"/>
-      <c r="AI28" s="20"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="44"/>
+      <c r="AI28" s="23"/>
       <c r="AJ28" s="11"/>
     </row>
     <row r="29" spans="1:36">
@@ -4775,12 +4788,12 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -4795,15 +4808,15 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
       <c r="AC29" s="11"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="41"/>
-      <c r="AI29" s="20"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="44"/>
+      <c r="AI29" s="23"/>
       <c r="AJ29" s="11"/>
     </row>
     <row r="30" spans="1:36">
@@ -4814,12 +4827,12 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -4834,15 +4847,15 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
       <c r="AC30" s="11"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="41"/>
-      <c r="AI30" s="20"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="44"/>
+      <c r="AI30" s="23"/>
       <c r="AJ30" s="11"/>
     </row>
     <row r="31" spans="1:36">
@@ -4853,12 +4866,12 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -4873,15 +4886,15 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
       <c r="AC31" s="11"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="41"/>
-      <c r="AI31" s="20"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="44"/>
+      <c r="AI31" s="23"/>
       <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:36">
@@ -4892,12 +4905,12 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -4912,15 +4925,15 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
       <c r="AC32" s="11"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="41"/>
-      <c r="AI32" s="20"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="44"/>
+      <c r="AI32" s="23"/>
       <c r="AJ32" s="11"/>
     </row>
     <row r="33" spans="1:36">
@@ -4931,12 +4944,12 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -4951,15 +4964,15 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
       <c r="AC33" s="11"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="41"/>
-      <c r="AI33" s="20"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="44"/>
+      <c r="AI33" s="23"/>
       <c r="AJ33" s="11"/>
     </row>
     <row r="34" spans="1:36">
@@ -4970,12 +4983,12 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -4990,15 +5003,15 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
       <c r="AC34" s="11"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="41"/>
-      <c r="AI34" s="20"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="44"/>
+      <c r="AI34" s="23"/>
       <c r="AJ34" s="11"/>
     </row>
     <row r="35" spans="1:36">
@@ -5009,12 +5022,12 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -5029,15 +5042,15 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
       <c r="AC35" s="11"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="41"/>
-      <c r="AI35" s="20"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="44"/>
+      <c r="AI35" s="23"/>
       <c r="AJ35" s="11"/>
     </row>
     <row r="36" spans="1:36">
@@ -5048,12 +5061,12 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -5068,15 +5081,15 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
       <c r="AC36" s="11"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="41"/>
-      <c r="AI36" s="20"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="44"/>
+      <c r="AI36" s="23"/>
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="1:36">
@@ -5087,12 +5100,12 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -5107,15 +5120,15 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
       <c r="AC37" s="11"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="41"/>
-      <c r="AI37" s="20"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="44"/>
+      <c r="AI37" s="23"/>
       <c r="AJ37" s="11"/>
     </row>
     <row r="38" spans="1:36">
@@ -5126,12 +5139,12 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -5146,15 +5159,15 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
       <c r="AC38" s="11"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="41"/>
-      <c r="AI38" s="20"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="44"/>
+      <c r="AI38" s="23"/>
       <c r="AJ38" s="11"/>
     </row>
     <row r="39" spans="1:36">
@@ -5165,12 +5178,12 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -5185,15 +5198,15 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
       <c r="AC39" s="11"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="41"/>
-      <c r="AI39" s="20"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="44"/>
+      <c r="AI39" s="23"/>
       <c r="AJ39" s="11"/>
     </row>
     <row r="40" spans="1:36">
@@ -5204,12 +5217,12 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -5224,15 +5237,15 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="41"/>
-      <c r="AI40" s="20"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="44"/>
+      <c r="AI40" s="23"/>
       <c r="AJ40" s="11"/>
     </row>
     <row r="41" spans="1:36">
@@ -5243,12 +5256,12 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -5263,15 +5276,15 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
       <c r="AC41" s="11"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="41"/>
-      <c r="AI41" s="20"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="44"/>
+      <c r="AI41" s="23"/>
       <c r="AJ41" s="11"/>
     </row>
     <row r="42" spans="1:36">
@@ -5282,12 +5295,12 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -5302,15 +5315,15 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
       <c r="AC42" s="11"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="41"/>
-      <c r="AI42" s="20"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="44"/>
+      <c r="AI42" s="23"/>
       <c r="AJ42" s="11"/>
     </row>
     <row r="43" spans="1:36">
@@ -5321,12 +5334,12 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -5341,15 +5354,15 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
       <c r="AC43" s="11"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="41"/>
-      <c r="AI43" s="20"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="44"/>
+      <c r="AI43" s="23"/>
       <c r="AJ43" s="11"/>
     </row>
     <row r="44" spans="1:36">
@@ -5360,12 +5373,12 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -5380,15 +5393,15 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
       <c r="AC44" s="11"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="41"/>
-      <c r="AI44" s="20"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="44"/>
+      <c r="AI44" s="23"/>
       <c r="AJ44" s="11"/>
     </row>
     <row r="45" spans="1:36">
@@ -5399,12 +5412,12 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -5419,15 +5432,15 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
       <c r="AC45" s="11"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
-      <c r="AG45" s="41"/>
-      <c r="AI45" s="20"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="44"/>
+      <c r="AI45" s="23"/>
       <c r="AJ45" s="11"/>
     </row>
     <row r="46" spans="1:36">
@@ -5438,12 +5451,12 @@
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -5458,15 +5471,15 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
       <c r="AC46" s="11"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="41"/>
-      <c r="AI46" s="20"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="44"/>
+      <c r="AI46" s="23"/>
       <c r="AJ46" s="11"/>
     </row>
     <row r="47" spans="1:36">
@@ -5477,12 +5490,12 @@
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -5497,15 +5510,15 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="41"/>
-      <c r="AI47" s="20"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="44"/>
+      <c r="AI47" s="23"/>
       <c r="AJ47" s="11"/>
     </row>
     <row r="48" spans="1:36">
@@ -5516,12 +5529,12 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -5536,15 +5549,15 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="41"/>
-      <c r="AI48" s="20"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="44"/>
+      <c r="AI48" s="23"/>
       <c r="AJ48" s="11"/>
     </row>
     <row r="49" spans="1:36">
@@ -5555,12 +5568,12 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -5575,15 +5588,15 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="41"/>
-      <c r="AI49" s="20"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="44"/>
+      <c r="AI49" s="23"/>
       <c r="AJ49" s="11"/>
     </row>
     <row r="50" spans="1:36">
@@ -5594,12 +5607,12 @@
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -5614,15 +5627,15 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="36"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="41"/>
-      <c r="AI50" s="20"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="44"/>
+      <c r="AI50" s="23"/>
       <c r="AJ50" s="11"/>
     </row>
     <row r="51" spans="1:36">
@@ -5633,12 +5646,12 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -5653,15 +5666,15 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
       <c r="AC51" s="11"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="41"/>
-      <c r="AI51" s="20"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="44"/>
+      <c r="AI51" s="23"/>
       <c r="AJ51" s="11"/>
     </row>
     <row r="52" spans="1:36">
@@ -5672,12 +5685,12 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -5692,15 +5705,15 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
       <c r="AC52" s="11"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="41"/>
-      <c r="AI52" s="20"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="44"/>
+      <c r="AI52" s="23"/>
       <c r="AJ52" s="11"/>
     </row>
     <row r="53" spans="1:36">
@@ -5711,12 +5724,12 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -5731,15 +5744,15 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
       <c r="AC53" s="11"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="41"/>
-      <c r="AI53" s="20"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="44"/>
+      <c r="AI53" s="23"/>
       <c r="AJ53" s="11"/>
     </row>
     <row r="54" spans="1:36">
@@ -5750,12 +5763,12 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -5770,15 +5783,15 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
       <c r="AC54" s="11"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="41"/>
-      <c r="AI54" s="20"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="44"/>
+      <c r="AI54" s="23"/>
       <c r="AJ54" s="11"/>
     </row>
     <row r="55" spans="1:36">
@@ -5789,12 +5802,12 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5809,15 +5822,15 @@
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
       <c r="AC55" s="11"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="41"/>
-      <c r="AI55" s="20"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="44"/>
+      <c r="AI55" s="23"/>
       <c r="AJ55" s="11"/>
     </row>
     <row r="56" spans="1:36">
@@ -5828,12 +5841,12 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5848,15 +5861,15 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
       <c r="AC56" s="11"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="41"/>
-      <c r="AI56" s="20"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="44"/>
+      <c r="AI56" s="23"/>
       <c r="AJ56" s="11"/>
     </row>
     <row r="57" spans="1:36">
@@ -5867,12 +5880,12 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -5887,15 +5900,15 @@
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
       <c r="AC57" s="11"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="41"/>
-      <c r="AI57" s="20"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="44"/>
+      <c r="AI57" s="23"/>
       <c r="AJ57" s="11"/>
     </row>
     <row r="58" spans="1:36">
@@ -5906,12 +5919,12 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -5926,15 +5939,15 @@
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
       <c r="AC58" s="11"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="41"/>
-      <c r="AI58" s="20"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="44"/>
+      <c r="AI58" s="23"/>
       <c r="AJ58" s="11"/>
     </row>
     <row r="59" spans="1:36">
@@ -5945,12 +5958,12 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -5965,15 +5978,15 @@
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
+      <c r="Z59" s="36"/>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
       <c r="AC59" s="11"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="41"/>
-      <c r="AI59" s="20"/>
+      <c r="AD59" s="36"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="44"/>
+      <c r="AI59" s="23"/>
       <c r="AJ59" s="11"/>
     </row>
     <row r="60" spans="1:36">
@@ -5984,12 +5997,12 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -6004,15 +6017,15 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
       <c r="AC60" s="11"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="41"/>
-      <c r="AI60" s="20"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="44"/>
+      <c r="AI60" s="23"/>
       <c r="AJ60" s="11"/>
     </row>
     <row r="61" spans="1:36">
@@ -6023,12 +6036,12 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="23"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -6043,15 +6056,15 @@
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
       <c r="AC61" s="11"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="41"/>
-      <c r="AI61" s="20"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="44"/>
+      <c r="AI61" s="23"/>
       <c r="AJ61" s="11"/>
     </row>
     <row r="62" spans="1:36">
@@ -6062,12 +6075,12 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
@@ -6082,15 +6095,15 @@
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
       <c r="AC62" s="11"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="41"/>
-      <c r="AI62" s="20"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="44"/>
+      <c r="AI62" s="23"/>
       <c r="AJ62" s="11"/>
     </row>
     <row r="63" spans="1:36">
@@ -6101,12 +6114,12 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -6121,15 +6134,15 @@
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="36"/>
+      <c r="AB63" s="36"/>
       <c r="AC63" s="11"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="41"/>
-      <c r="AI63" s="20"/>
+      <c r="AD63" s="36"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="36"/>
+      <c r="AG63" s="44"/>
+      <c r="AI63" s="23"/>
       <c r="AJ63" s="11"/>
     </row>
     <row r="64" spans="1:36">
@@ -6140,12 +6153,12 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -6160,15 +6173,15 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
       <c r="AC64" s="11"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="41"/>
-      <c r="AI64" s="20"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="44"/>
+      <c r="AI64" s="23"/>
       <c r="AJ64" s="11"/>
     </row>
     <row r="65" spans="1:36">
@@ -6179,12 +6192,12 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="23"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -6199,15 +6212,15 @@
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
       <c r="AC65" s="11"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="41"/>
-      <c r="AI65" s="20"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="44"/>
+      <c r="AI65" s="23"/>
       <c r="AJ65" s="11"/>
     </row>
     <row r="66" spans="1:36">
@@ -6218,12 +6231,12 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="23"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -6238,15 +6251,15 @@
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
       <c r="AC66" s="11"/>
-      <c r="AD66" s="33"/>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="41"/>
-      <c r="AI66" s="20"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="44"/>
+      <c r="AI66" s="23"/>
       <c r="AJ66" s="11"/>
     </row>
     <row r="67" spans="1:36">
@@ -6257,12 +6270,12 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="23"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -6277,15 +6290,15 @@
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
+      <c r="Z67" s="36"/>
+      <c r="AA67" s="36"/>
+      <c r="AB67" s="36"/>
       <c r="AC67" s="11"/>
-      <c r="AD67" s="33"/>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="41"/>
-      <c r="AI67" s="20"/>
+      <c r="AD67" s="36"/>
+      <c r="AE67" s="36"/>
+      <c r="AF67" s="36"/>
+      <c r="AG67" s="44"/>
+      <c r="AI67" s="23"/>
       <c r="AJ67" s="11"/>
     </row>
     <row r="68" spans="1:36">
@@ -6296,12 +6309,12 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -6316,15 +6329,15 @@
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
       <c r="AC68" s="11"/>
-      <c r="AD68" s="33"/>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="33"/>
-      <c r="AG68" s="41"/>
-      <c r="AI68" s="20"/>
+      <c r="AD68" s="36"/>
+      <c r="AE68" s="36"/>
+      <c r="AF68" s="36"/>
+      <c r="AG68" s="44"/>
+      <c r="AI68" s="23"/>
       <c r="AJ68" s="11"/>
     </row>
     <row r="69" spans="1:36">
@@ -6335,12 +6348,12 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="15"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="23"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -6355,15 +6368,15 @@
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
       <c r="AC69" s="11"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="33"/>
-      <c r="AG69" s="41"/>
-      <c r="AI69" s="20"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="44"/>
+      <c r="AI69" s="23"/>
       <c r="AJ69" s="11"/>
     </row>
     <row r="70" spans="1:36">
@@ -6374,12 +6387,12 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -6394,15 +6407,15 @@
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
       <c r="AC70" s="11"/>
-      <c r="AD70" s="33"/>
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="33"/>
-      <c r="AG70" s="41"/>
-      <c r="AI70" s="20"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="36"/>
+      <c r="AG70" s="44"/>
+      <c r="AI70" s="23"/>
       <c r="AJ70" s="11"/>
     </row>
     <row r="71" spans="1:36">
@@ -6413,12 +6426,12 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="23"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -6433,15 +6446,15 @@
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="36"/>
       <c r="AC71" s="11"/>
-      <c r="AD71" s="33"/>
-      <c r="AE71" s="33"/>
-      <c r="AF71" s="33"/>
-      <c r="AG71" s="41"/>
-      <c r="AI71" s="20"/>
+      <c r="AD71" s="36"/>
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="36"/>
+      <c r="AG71" s="44"/>
+      <c r="AI71" s="23"/>
       <c r="AJ71" s="11"/>
     </row>
     <row r="72" spans="1:36">
@@ -6452,12 +6465,12 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="15"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -6472,15 +6485,15 @@
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
       <c r="AC72" s="11"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="33"/>
-      <c r="AG72" s="41"/>
-      <c r="AI72" s="20"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="44"/>
+      <c r="AI72" s="23"/>
       <c r="AJ72" s="11"/>
     </row>
     <row r="73" spans="1:36">
@@ -6491,12 +6504,12 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="15"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -6511,15 +6524,15 @@
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="33"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
       <c r="AC73" s="11"/>
-      <c r="AD73" s="33"/>
-      <c r="AE73" s="33"/>
-      <c r="AF73" s="33"/>
-      <c r="AG73" s="41"/>
-      <c r="AI73" s="20"/>
+      <c r="AD73" s="36"/>
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="36"/>
+      <c r="AG73" s="44"/>
+      <c r="AI73" s="23"/>
       <c r="AJ73" s="11"/>
     </row>
     <row r="74" spans="1:36">
@@ -6530,12 +6543,12 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="23"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -6550,15 +6563,15 @@
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
-      <c r="AB74" s="33"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="36"/>
+      <c r="AB74" s="36"/>
       <c r="AC74" s="11"/>
-      <c r="AD74" s="33"/>
-      <c r="AE74" s="33"/>
-      <c r="AF74" s="33"/>
-      <c r="AG74" s="41"/>
-      <c r="AI74" s="20"/>
+      <c r="AD74" s="36"/>
+      <c r="AE74" s="36"/>
+      <c r="AF74" s="36"/>
+      <c r="AG74" s="44"/>
+      <c r="AI74" s="23"/>
       <c r="AJ74" s="11"/>
     </row>
     <row r="75" spans="1:36">
@@ -6569,12 +6582,12 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="23"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -6589,15 +6602,15 @@
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
-      <c r="AB75" s="33"/>
+      <c r="Z75" s="36"/>
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="36"/>
       <c r="AC75" s="11"/>
-      <c r="AD75" s="33"/>
-      <c r="AE75" s="33"/>
-      <c r="AF75" s="33"/>
-      <c r="AG75" s="41"/>
-      <c r="AI75" s="20"/>
+      <c r="AD75" s="36"/>
+      <c r="AE75" s="36"/>
+      <c r="AF75" s="36"/>
+      <c r="AG75" s="44"/>
+      <c r="AI75" s="23"/>
       <c r="AJ75" s="11"/>
     </row>
     <row r="76" spans="1:36">
@@ -6608,12 +6621,12 @@
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="23"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -6628,15 +6641,15 @@
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="33"/>
+      <c r="Z76" s="36"/>
+      <c r="AA76" s="36"/>
+      <c r="AB76" s="36"/>
       <c r="AC76" s="11"/>
-      <c r="AD76" s="33"/>
-      <c r="AE76" s="33"/>
-      <c r="AF76" s="33"/>
-      <c r="AG76" s="41"/>
-      <c r="AI76" s="20"/>
+      <c r="AD76" s="36"/>
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="36"/>
+      <c r="AG76" s="44"/>
+      <c r="AI76" s="23"/>
       <c r="AJ76" s="11"/>
     </row>
     <row r="77" spans="1:36">
@@ -6647,12 +6660,12 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+      <c r="F77" s="15"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="23"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -6667,15 +6680,15 @@
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="33"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
       <c r="AC77" s="11"/>
-      <c r="AD77" s="33"/>
-      <c r="AE77" s="33"/>
-      <c r="AF77" s="33"/>
-      <c r="AG77" s="41"/>
-      <c r="AI77" s="20"/>
+      <c r="AD77" s="36"/>
+      <c r="AE77" s="36"/>
+      <c r="AF77" s="36"/>
+      <c r="AG77" s="44"/>
+      <c r="AI77" s="23"/>
       <c r="AJ77" s="11"/>
     </row>
     <row r="78" spans="1:36">
@@ -6686,12 +6699,12 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="15"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="23"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -6706,15 +6719,15 @@
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
       <c r="AC78" s="11"/>
-      <c r="AD78" s="33"/>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="33"/>
-      <c r="AG78" s="41"/>
-      <c r="AI78" s="20"/>
+      <c r="AD78" s="36"/>
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="36"/>
+      <c r="AG78" s="44"/>
+      <c r="AI78" s="23"/>
       <c r="AJ78" s="11"/>
     </row>
     <row r="79" spans="1:36">
@@ -6725,12 +6738,12 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="23"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -6745,15 +6758,15 @@
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
-      <c r="AB79" s="33"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
       <c r="AC79" s="11"/>
-      <c r="AD79" s="33"/>
-      <c r="AE79" s="33"/>
-      <c r="AF79" s="33"/>
-      <c r="AG79" s="41"/>
-      <c r="AI79" s="20"/>
+      <c r="AD79" s="36"/>
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="36"/>
+      <c r="AG79" s="44"/>
+      <c r="AI79" s="23"/>
       <c r="AJ79" s="11"/>
     </row>
     <row r="80" spans="1:36">
@@ -6764,12 +6777,12 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="23"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -6784,15 +6797,15 @@
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
-      <c r="AB80" s="33"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
       <c r="AC80" s="11"/>
-      <c r="AD80" s="33"/>
-      <c r="AE80" s="33"/>
-      <c r="AF80" s="33"/>
-      <c r="AG80" s="41"/>
-      <c r="AI80" s="20"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="36"/>
+      <c r="AG80" s="44"/>
+      <c r="AI80" s="23"/>
       <c r="AJ80" s="11"/>
     </row>
     <row r="81" spans="1:36">
@@ -6803,12 +6816,12 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="15"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="23"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6823,15 +6836,15 @@
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
-      <c r="AB81" s="33"/>
+      <c r="Z81" s="36"/>
+      <c r="AA81" s="36"/>
+      <c r="AB81" s="36"/>
       <c r="AC81" s="11"/>
-      <c r="AD81" s="33"/>
-      <c r="AE81" s="33"/>
-      <c r="AF81" s="33"/>
-      <c r="AG81" s="41"/>
-      <c r="AI81" s="20"/>
+      <c r="AD81" s="36"/>
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="36"/>
+      <c r="AG81" s="44"/>
+      <c r="AI81" s="23"/>
       <c r="AJ81" s="11"/>
     </row>
     <row r="82" spans="1:36">
@@ -6842,12 +6855,12 @@
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="15"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="23"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6862,15 +6875,15 @@
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
-      <c r="AB82" s="33"/>
+      <c r="Z82" s="36"/>
+      <c r="AA82" s="36"/>
+      <c r="AB82" s="36"/>
       <c r="AC82" s="11"/>
-      <c r="AD82" s="33"/>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="33"/>
-      <c r="AG82" s="41"/>
-      <c r="AI82" s="20"/>
+      <c r="AD82" s="36"/>
+      <c r="AE82" s="36"/>
+      <c r="AF82" s="36"/>
+      <c r="AG82" s="44"/>
+      <c r="AI82" s="23"/>
       <c r="AJ82" s="11"/>
     </row>
     <row r="83" spans="1:36">
@@ -6881,12 +6894,12 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="15"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="23"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6901,15 +6914,15 @@
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
       <c r="AC83" s="11"/>
-      <c r="AD83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="33"/>
-      <c r="AG83" s="41"/>
-      <c r="AI83" s="20"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
+      <c r="AG83" s="44"/>
+      <c r="AI83" s="23"/>
       <c r="AJ83" s="11"/>
     </row>
     <row r="84" spans="1:36">
@@ -6920,12 +6933,12 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="15"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="23"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6940,15 +6953,15 @@
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
+      <c r="Z84" s="36"/>
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
       <c r="AC84" s="11"/>
-      <c r="AD84" s="33"/>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="41"/>
-      <c r="AI84" s="20"/>
+      <c r="AD84" s="36"/>
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="44"/>
+      <c r="AI84" s="23"/>
       <c r="AJ84" s="11"/>
     </row>
     <row r="85" spans="1:36">
@@ -6959,12 +6972,12 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="15"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="23"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6979,15 +6992,15 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
+      <c r="Z85" s="36"/>
+      <c r="AA85" s="36"/>
+      <c r="AB85" s="36"/>
       <c r="AC85" s="11"/>
-      <c r="AD85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="33"/>
-      <c r="AG85" s="41"/>
-      <c r="AI85" s="20"/>
+      <c r="AD85" s="36"/>
+      <c r="AE85" s="36"/>
+      <c r="AF85" s="36"/>
+      <c r="AG85" s="44"/>
+      <c r="AI85" s="23"/>
       <c r="AJ85" s="11"/>
     </row>
     <row r="86" spans="1:36">
@@ -6998,12 +7011,12 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="23"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -7018,15 +7031,15 @@
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
       <c r="AC86" s="11"/>
-      <c r="AD86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="33"/>
-      <c r="AG86" s="41"/>
-      <c r="AI86" s="20"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
+      <c r="AG86" s="44"/>
+      <c r="AI86" s="23"/>
       <c r="AJ86" s="11"/>
     </row>
     <row r="87" spans="1:36">
@@ -7037,12 +7050,12 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="23"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -7057,15 +7070,15 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
       <c r="AC87" s="11"/>
-      <c r="AD87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="33"/>
-      <c r="AG87" s="41"/>
-      <c r="AI87" s="20"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="44"/>
+      <c r="AI87" s="23"/>
       <c r="AJ87" s="11"/>
     </row>
     <row r="88" spans="1:36">
@@ -7076,12 +7089,12 @@
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="15"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="23"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -7096,15 +7109,15 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="36"/>
+      <c r="AB88" s="36"/>
       <c r="AC88" s="11"/>
-      <c r="AD88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="33"/>
-      <c r="AG88" s="41"/>
-      <c r="AI88" s="20"/>
+      <c r="AD88" s="36"/>
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="36"/>
+      <c r="AG88" s="44"/>
+      <c r="AI88" s="23"/>
       <c r="AJ88" s="11"/>
     </row>
     <row r="89" spans="1:36">
@@ -7115,12 +7128,12 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="23"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -7135,15 +7148,15 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
       <c r="AC89" s="11"/>
-      <c r="AD89" s="33"/>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="33"/>
-      <c r="AG89" s="41"/>
-      <c r="AI89" s="20"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="44"/>
+      <c r="AI89" s="23"/>
       <c r="AJ89" s="11"/>
     </row>
     <row r="90" spans="1:36">
@@ -7154,12 +7167,12 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="23"/>
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
@@ -7174,15 +7187,15 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
       <c r="AC90" s="11"/>
-      <c r="AD90" s="33"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="33"/>
-      <c r="AG90" s="41"/>
-      <c r="AI90" s="20"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="44"/>
+      <c r="AI90" s="23"/>
       <c r="AJ90" s="11"/>
     </row>
     <row r="91" spans="1:36">
@@ -7193,12 +7206,12 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="15"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="23"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -7213,15 +7226,15 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
-      <c r="AB91" s="33"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="36"/>
       <c r="AC91" s="11"/>
-      <c r="AD91" s="33"/>
-      <c r="AE91" s="33"/>
-      <c r="AF91" s="33"/>
-      <c r="AG91" s="41"/>
-      <c r="AI91" s="20"/>
+      <c r="AD91" s="36"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="44"/>
+      <c r="AI91" s="23"/>
       <c r="AJ91" s="11"/>
     </row>
     <row r="92" spans="1:36">
@@ -7232,12 +7245,12 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="15"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="23"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -7252,15 +7265,15 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
-      <c r="AB92" s="33"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
       <c r="AC92" s="11"/>
-      <c r="AD92" s="33"/>
-      <c r="AE92" s="33"/>
-      <c r="AF92" s="33"/>
-      <c r="AG92" s="41"/>
-      <c r="AI92" s="20"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="44"/>
+      <c r="AI92" s="23"/>
       <c r="AJ92" s="11"/>
     </row>
     <row r="93" spans="1:36">
@@ -7271,12 +7284,12 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="15"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="23"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -7291,15 +7304,15 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
-      <c r="AB93" s="33"/>
+      <c r="Z93" s="36"/>
+      <c r="AA93" s="36"/>
+      <c r="AB93" s="36"/>
       <c r="AC93" s="11"/>
-      <c r="AD93" s="33"/>
-      <c r="AE93" s="33"/>
-      <c r="AF93" s="33"/>
-      <c r="AG93" s="41"/>
-      <c r="AI93" s="20"/>
+      <c r="AD93" s="36"/>
+      <c r="AE93" s="36"/>
+      <c r="AF93" s="36"/>
+      <c r="AG93" s="44"/>
+      <c r="AI93" s="23"/>
       <c r="AJ93" s="11"/>
     </row>
     <row r="94" spans="1:36">
@@ -7310,12 +7323,12 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="15"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="23"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
@@ -7330,15 +7343,15 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
-      <c r="AB94" s="33"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
       <c r="AC94" s="11"/>
-      <c r="AD94" s="33"/>
-      <c r="AE94" s="33"/>
-      <c r="AF94" s="33"/>
-      <c r="AG94" s="41"/>
-      <c r="AI94" s="20"/>
+      <c r="AD94" s="36"/>
+      <c r="AE94" s="36"/>
+      <c r="AF94" s="36"/>
+      <c r="AG94" s="44"/>
+      <c r="AI94" s="23"/>
       <c r="AJ94" s="11"/>
     </row>
     <row r="95" spans="1:36">
@@ -7349,12 +7362,12 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="23"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -7369,15 +7382,15 @@
       <c r="W95" s="11"/>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
-      <c r="AB95" s="33"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="36"/>
       <c r="AC95" s="11"/>
-      <c r="AD95" s="33"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="33"/>
-      <c r="AG95" s="41"/>
-      <c r="AI95" s="20"/>
+      <c r="AD95" s="36"/>
+      <c r="AE95" s="36"/>
+      <c r="AF95" s="36"/>
+      <c r="AG95" s="44"/>
+      <c r="AI95" s="23"/>
       <c r="AJ95" s="11"/>
     </row>
     <row r="96" spans="1:36">
@@ -7388,12 +7401,12 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="23"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -7408,15 +7421,15 @@
       <c r="W96" s="11"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
-      <c r="Z96" s="33"/>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
       <c r="AC96" s="11"/>
-      <c r="AD96" s="33"/>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
-      <c r="AG96" s="41"/>
-      <c r="AI96" s="20"/>
+      <c r="AD96" s="36"/>
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="44"/>
+      <c r="AI96" s="23"/>
       <c r="AJ96" s="11"/>
     </row>
     <row r="97" spans="1:36">
@@ -7427,12 +7440,12 @@
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="23"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -7447,15 +7460,15 @@
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
-      <c r="Z97" s="33"/>
-      <c r="AA97" s="33"/>
-      <c r="AB97" s="33"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="36"/>
+      <c r="AB97" s="36"/>
       <c r="AC97" s="11"/>
-      <c r="AD97" s="33"/>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="33"/>
-      <c r="AG97" s="41"/>
-      <c r="AI97" s="20"/>
+      <c r="AD97" s="36"/>
+      <c r="AE97" s="36"/>
+      <c r="AF97" s="36"/>
+      <c r="AG97" s="44"/>
+      <c r="AI97" s="23"/>
       <c r="AJ97" s="11"/>
     </row>
     <row r="98" spans="1:36">
@@ -7466,12 +7479,12 @@
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="23"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -7486,15 +7499,15 @@
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
-      <c r="Z98" s="33"/>
-      <c r="AA98" s="33"/>
-      <c r="AB98" s="33"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
       <c r="AC98" s="11"/>
-      <c r="AD98" s="33"/>
-      <c r="AE98" s="33"/>
-      <c r="AF98" s="33"/>
-      <c r="AG98" s="41"/>
-      <c r="AI98" s="20"/>
+      <c r="AD98" s="36"/>
+      <c r="AE98" s="36"/>
+      <c r="AF98" s="36"/>
+      <c r="AG98" s="44"/>
+      <c r="AI98" s="23"/>
       <c r="AJ98" s="11"/>
     </row>
     <row r="99" spans="1:36">
@@ -7505,12 +7518,12 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="15"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="23"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -7525,15 +7538,15 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
-      <c r="Z99" s="33"/>
-      <c r="AA99" s="33"/>
-      <c r="AB99" s="33"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
       <c r="AC99" s="11"/>
-      <c r="AD99" s="33"/>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="33"/>
-      <c r="AG99" s="41"/>
-      <c r="AI99" s="20"/>
+      <c r="AD99" s="36"/>
+      <c r="AE99" s="36"/>
+      <c r="AF99" s="36"/>
+      <c r="AG99" s="44"/>
+      <c r="AI99" s="23"/>
       <c r="AJ99" s="11"/>
     </row>
     <row r="100" spans="1:36">
@@ -7544,12 +7557,12 @@
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="23"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -7564,15 +7577,15 @@
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
-      <c r="Z100" s="33"/>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
       <c r="AC100" s="11"/>
-      <c r="AD100" s="33"/>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
-      <c r="AG100" s="41"/>
-      <c r="AI100" s="20"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100" s="36"/>
+      <c r="AF100" s="36"/>
+      <c r="AG100" s="44"/>
+      <c r="AI100" s="23"/>
       <c r="AJ100" s="11"/>
     </row>
     <row r="101" spans="1:36">
@@ -7583,12 +7596,12 @@
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
+      <c r="F101" s="15"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="23"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -7603,15 +7616,15 @@
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
-      <c r="Z101" s="33"/>
-      <c r="AA101" s="33"/>
-      <c r="AB101" s="33"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
       <c r="AC101" s="11"/>
-      <c r="AD101" s="33"/>
-      <c r="AE101" s="33"/>
-      <c r="AF101" s="33"/>
-      <c r="AG101" s="41"/>
-      <c r="AI101" s="20"/>
+      <c r="AD101" s="36"/>
+      <c r="AE101" s="36"/>
+      <c r="AF101" s="36"/>
+      <c r="AG101" s="44"/>
+      <c r="AI101" s="23"/>
       <c r="AJ101" s="11"/>
     </row>
     <row r="102" spans="1:36">
@@ -7622,12 +7635,12 @@
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+      <c r="F102" s="15"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="23"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -7642,15 +7655,15 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
-      <c r="Z102" s="33"/>
-      <c r="AA102" s="33"/>
-      <c r="AB102" s="33"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
       <c r="AC102" s="11"/>
-      <c r="AD102" s="33"/>
-      <c r="AE102" s="33"/>
-      <c r="AF102" s="33"/>
-      <c r="AG102" s="41"/>
-      <c r="AI102" s="20"/>
+      <c r="AD102" s="36"/>
+      <c r="AE102" s="36"/>
+      <c r="AF102" s="36"/>
+      <c r="AG102" s="44"/>
+      <c r="AI102" s="23"/>
       <c r="AJ102" s="11"/>
     </row>
     <row r="103" spans="1:36">
@@ -7661,12 +7674,12 @@
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="F103" s="15"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="23"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -7681,15 +7694,15 @@
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
-      <c r="Z103" s="33"/>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
       <c r="AC103" s="11"/>
-      <c r="AD103" s="33"/>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
-      <c r="AG103" s="41"/>
-      <c r="AI103" s="20"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="44"/>
+      <c r="AI103" s="23"/>
       <c r="AJ103" s="11"/>
     </row>
     <row r="104" spans="1:36">
@@ -7700,12 +7713,12 @@
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="23"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -7720,15 +7733,15 @@
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
-      <c r="Z104" s="33"/>
-      <c r="AA104" s="33"/>
-      <c r="AB104" s="33"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
       <c r="AC104" s="11"/>
-      <c r="AD104" s="33"/>
-      <c r="AE104" s="33"/>
-      <c r="AF104" s="33"/>
-      <c r="AG104" s="41"/>
-      <c r="AI104" s="20"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="44"/>
+      <c r="AI104" s="23"/>
       <c r="AJ104" s="11"/>
     </row>
     <row r="105" spans="1:36">
@@ -7739,12 +7752,12 @@
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="23"/>
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
@@ -7759,15 +7772,15 @@
       <c r="W105" s="11"/>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
-      <c r="Z105" s="33"/>
-      <c r="AA105" s="33"/>
-      <c r="AB105" s="33"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
       <c r="AC105" s="11"/>
-      <c r="AD105" s="33"/>
-      <c r="AE105" s="33"/>
-      <c r="AF105" s="33"/>
-      <c r="AG105" s="41"/>
-      <c r="AI105" s="20"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="44"/>
+      <c r="AI105" s="23"/>
       <c r="AJ105" s="11"/>
     </row>
     <row r="106" spans="1:36">
@@ -7778,12 +7791,12 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="23"/>
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -7798,15 +7811,15 @@
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="33"/>
-      <c r="AB106" s="33"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
       <c r="AC106" s="11"/>
-      <c r="AD106" s="33"/>
-      <c r="AE106" s="33"/>
-      <c r="AF106" s="33"/>
-      <c r="AG106" s="41"/>
-      <c r="AI106" s="20"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106" s="36"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="44"/>
+      <c r="AI106" s="23"/>
       <c r="AJ106" s="11"/>
     </row>
     <row r="107" spans="1:34">
@@ -7815,7 +7828,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="J107" s="2"/>
@@ -7830,7 +7843,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="AH107" s="42"/>
+      <c r="AH107" s="46"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>
@@ -7838,7 +7851,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="J108" s="2"/>
@@ -7860,7 +7873,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="J109" s="2"/>
@@ -7882,7 +7895,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="J110" s="2"/>
@@ -7904,7 +7917,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="F111" s="45"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="J111" s="2"/>
@@ -7926,7 +7939,7 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="J112" s="2"/>
@@ -7948,7 +7961,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="J113" s="2"/>
@@ -7970,7 +7983,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="45"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="J114" s="2"/>
@@ -7992,7 +8005,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="F115" s="45"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="J115" s="2"/>
@@ -8014,7 +8027,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="F116" s="45"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="J116" s="2"/>
@@ -8036,7 +8049,7 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="J117" s="2"/>
@@ -8058,7 +8071,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="F118" s="45"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="J118" s="2"/>
@@ -8080,7 +8093,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="J119" s="2"/>
@@ -8102,7 +8115,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="45"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="J120" s="2"/>
@@ -8124,7 +8137,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="J121" s="2"/>
@@ -8146,7 +8159,7 @@
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="F122" s="45"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="J122" s="2"/>
@@ -8168,7 +8181,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="45"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="J123" s="2"/>
@@ -8190,7 +8203,7 @@
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="45"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="J124" s="2"/>
@@ -8212,7 +8225,7 @@
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="45"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="J125" s="2"/>
@@ -8234,7 +8247,7 @@
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="F126" s="45"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
@@ -8256,7 +8269,7 @@
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="J127" s="2"/>
@@ -8278,7 +8291,7 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="J128" s="2"/>
@@ -8300,7 +8313,7 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="J129" s="2"/>
@@ -8322,7 +8335,7 @@
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="J130" s="2"/>
@@ -8344,7 +8357,7 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="J131" s="2"/>
@@ -8366,7 +8379,7 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="J132" s="2"/>
@@ -8388,7 +8401,7 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="J133" s="2"/>
@@ -8410,7 +8423,7 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="J134" s="2"/>
@@ -8432,7 +8445,7 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="J135" s="2"/>
@@ -8454,7 +8467,7 @@
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="J136" s="2"/>
@@ -8476,7 +8489,7 @@
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="2"/>
@@ -8498,7 +8511,7 @@
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
@@ -8520,7 +8533,7 @@
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="J139" s="2"/>
@@ -8542,7 +8555,7 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2"/>
@@ -8564,7 +8577,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="F141" s="45"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2"/>
@@ -8586,7 +8599,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="J142" s="2"/>
@@ -8608,7 +8621,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="J143" s="2"/>
@@ -8630,7 +8643,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="J144" s="2"/>
@@ -8652,7 +8665,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
+      <c r="F145" s="45"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="J145" s="2"/>
@@ -8674,7 +8687,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="J146" s="2"/>
@@ -8696,7 +8709,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="J147" s="2"/>
@@ -8718,7 +8731,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
@@ -8740,7 +8753,7 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
@@ -8762,7 +8775,7 @@
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
@@ -8784,7 +8797,7 @@
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="F151" s="45"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
@@ -8806,7 +8819,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="F152" s="45"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
@@ -8828,7 +8841,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="F153" s="45"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
@@ -8850,7 +8863,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
@@ -8872,7 +8885,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
@@ -8894,7 +8907,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
@@ -8916,7 +8929,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
@@ -8938,7 +8951,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
@@ -8960,7 +8973,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
@@ -8982,7 +8995,7 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="F160" s="45"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
@@ -9004,7 +9017,7 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
@@ -9026,7 +9039,7 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+      <c r="F162" s="45"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="J162" s="2"/>
@@ -9048,7 +9061,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="F163" s="45"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="J163" s="2"/>
@@ -9070,7 +9083,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="F164" s="45"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="J164" s="2"/>
@@ -9092,7 +9105,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="J165" s="2"/>
@@ -9114,7 +9127,7 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
@@ -9136,7 +9149,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
+      <c r="F167" s="45"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
@@ -9158,7 +9171,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
@@ -9180,7 +9193,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="F169" s="45"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="J169" s="2"/>
@@ -9202,7 +9215,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
@@ -9224,7 +9237,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="F171" s="45"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
@@ -9246,7 +9259,7 @@
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="F172" s="45"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
@@ -9268,7 +9281,7 @@
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
@@ -9290,7 +9303,7 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="F174" s="45"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
@@ -9312,7 +9325,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
+      <c r="F175" s="45"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
@@ -9334,7 +9347,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="J176" s="2"/>
@@ -9356,7 +9369,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="F177" s="45"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="J177" s="2"/>
@@ -9378,7 +9391,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="F178" s="45"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
@@ -9400,7 +9413,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="F179" s="45"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
@@ -9422,7 +9435,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="F180" s="45"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
@@ -9444,7 +9457,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
@@ -9466,7 +9479,7 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="F182" s="45"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
@@ -9488,7 +9501,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
+      <c r="F183" s="45"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
@@ -9510,7 +9523,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+      <c r="F184" s="45"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
@@ -9532,7 +9545,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
+      <c r="F185" s="45"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
@@ -9554,7 +9567,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
+      <c r="F186" s="45"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
@@ -9576,7 +9589,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
@@ -9598,7 +9611,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
+      <c r="F188" s="45"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
@@ -9620,7 +9633,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
@@ -9642,7 +9655,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
@@ -9664,7 +9677,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="F191" s="45"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
@@ -9686,7 +9699,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
+      <c r="F192" s="45"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
@@ -9708,7 +9721,7 @@
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
+      <c r="F193" s="45"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
@@ -9730,7 +9743,7 @@
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
+      <c r="F194" s="45"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
@@ -9752,7 +9765,7 @@
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
+      <c r="F195" s="45"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="J195" s="2"/>
@@ -9774,7 +9787,7 @@
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
+      <c r="F196" s="45"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
@@ -9796,7 +9809,7 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
+      <c r="F197" s="45"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
@@ -9818,7 +9831,7 @@
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
+      <c r="F198" s="45"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
@@ -9840,7 +9853,7 @@
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
+      <c r="F199" s="45"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
@@ -9862,7 +9875,7 @@
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
+      <c r="F200" s="45"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="J200" s="2"/>
@@ -9884,7 +9897,7 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
+      <c r="F201" s="45"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="J201" s="2"/>
@@ -9906,7 +9919,7 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
+      <c r="F202" s="45"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
@@ -9928,7 +9941,7 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
+      <c r="F203" s="45"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
@@ -9950,7 +9963,7 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="F204" s="45"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
@@ -9972,7 +9985,7 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="F205" s="45"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
@@ -9994,7 +10007,7 @@
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
+      <c r="F206" s="45"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="J206" s="2"/>
@@ -10016,7 +10029,7 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
+      <c r="F207" s="45"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="J207" s="2"/>
@@ -10038,7 +10051,7 @@
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="J208" s="2"/>
@@ -10060,7 +10073,7 @@
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
+      <c r="F209" s="45"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
@@ -10082,7 +10095,7 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
+      <c r="F210" s="45"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
@@ -10104,7 +10117,7 @@
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
+      <c r="F211" s="45"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
@@ -10126,7 +10139,7 @@
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
+      <c r="F212" s="45"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="J212" s="2"/>
@@ -10148,7 +10161,7 @@
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="F213" s="45"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="J213" s="2"/>
@@ -10170,7 +10183,7 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
+      <c r="F214" s="45"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="J214" s="2"/>
@@ -10192,7 +10205,7 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
+      <c r="F215" s="45"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
@@ -10214,7 +10227,7 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
+      <c r="F216" s="45"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
@@ -10236,7 +10249,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
+      <c r="F217" s="45"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
@@ -10258,7 +10271,7 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
+      <c r="F218" s="45"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="J218" s="2"/>
@@ -10280,7 +10293,7 @@
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
+      <c r="F219" s="45"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="J219" s="2"/>
@@ -10302,7 +10315,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
+      <c r="F220" s="45"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="J220" s="2"/>
@@ -10324,7 +10337,7 @@
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="F221" s="45"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
@@ -10346,7 +10359,7 @@
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="F222" s="45"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
@@ -10368,7 +10381,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="F223" s="45"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
@@ -10390,7 +10403,7 @@
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="F224" s="45"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="J224" s="2"/>
@@ -10412,7 +10425,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
+      <c r="F225" s="45"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="J225" s="2"/>
@@ -10434,7 +10447,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="F226" s="45"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="J226" s="2"/>
@@ -10456,7 +10469,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
+      <c r="F227" s="45"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
@@ -10478,7 +10491,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="F228" s="45"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
@@ -10500,7 +10513,7 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
+      <c r="F229" s="45"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
@@ -10522,7 +10535,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
+      <c r="F230" s="45"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="J230" s="2"/>
@@ -10544,7 +10557,7 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="F231" s="45"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
@@ -10566,7 +10579,7 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="F232" s="45"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="J232" s="2"/>
@@ -10588,7 +10601,7 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="F233" s="45"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
@@ -10610,7 +10623,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="F234" s="45"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="J234" s="2"/>
@@ -10632,7 +10645,7 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="F235" s="45"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
@@ -10654,7 +10667,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="F236" s="45"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="J236" s="2"/>
@@ -10676,7 +10689,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
+      <c r="F237" s="45"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
@@ -10698,7 +10711,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="F238" s="45"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="J238" s="2"/>
@@ -10720,7 +10733,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="F239" s="45"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="J239" s="2"/>
@@ -10742,7 +10755,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
+      <c r="F240" s="45"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="J240" s="2"/>
@@ -10764,7 +10777,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
+      <c r="F241" s="45"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="J241" s="2"/>
@@ -10786,7 +10799,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
+      <c r="F242" s="45"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="J242" s="2"/>
@@ -10808,7 +10821,7 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="F243" s="45"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -10830,7 +10843,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="F244" s="45"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="J244" s="2"/>
@@ -10852,7 +10865,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
+      <c r="F245" s="45"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="J245" s="2"/>
@@ -10874,7 +10887,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
+      <c r="F246" s="45"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="J246" s="2"/>
@@ -10896,7 +10909,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
+      <c r="F247" s="45"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="J247" s="2"/>
@@ -10918,7 +10931,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
+      <c r="F248" s="45"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="J248" s="2"/>
@@ -10940,7 +10953,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
+      <c r="F249" s="45"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="J249" s="2"/>
@@ -10962,7 +10975,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
+      <c r="F250" s="45"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="J250" s="2"/>
@@ -10984,7 +10997,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
+      <c r="F251" s="45"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="J251" s="2"/>
@@ -11006,7 +11019,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
+      <c r="F252" s="45"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="J252" s="2"/>
@@ -11028,7 +11041,7 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
+      <c r="F253" s="45"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="J253" s="2"/>
@@ -11050,7 +11063,7 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
+      <c r="F254" s="45"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="J254" s="2"/>
@@ -11072,7 +11085,7 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
+      <c r="F255" s="45"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="J255" s="2"/>
@@ -11094,7 +11107,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
+      <c r="F256" s="45"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="J256" s="2"/>
@@ -11116,7 +11129,7 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
+      <c r="F257" s="45"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="J257" s="2"/>
@@ -11138,7 +11151,7 @@
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
+      <c r="F258" s="45"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="J258" s="2"/>
@@ -11160,7 +11173,7 @@
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
+      <c r="F259" s="45"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="J259" s="2"/>
@@ -11182,7 +11195,7 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
+      <c r="F260" s="45"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="J260" s="2"/>
@@ -11204,7 +11217,7 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
+      <c r="F261" s="45"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="J261" s="2"/>
@@ -11226,7 +11239,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
+      <c r="F262" s="45"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
@@ -11248,7 +11261,7 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
+      <c r="F263" s="45"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
@@ -11270,7 +11283,7 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
+      <c r="F264" s="45"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="J264" s="2"/>
@@ -11292,7 +11305,7 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
+      <c r="F265" s="45"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="J265" s="2"/>
@@ -11314,7 +11327,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
+      <c r="F266" s="45"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="J266" s="2"/>
@@ -11336,7 +11349,7 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
+      <c r="F267" s="45"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="J267" s="2"/>
@@ -11358,7 +11371,7 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
+      <c r="F268" s="45"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="J268" s="2"/>
@@ -11380,7 +11393,7 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
+      <c r="F269" s="45"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="J269" s="2"/>
@@ -11402,7 +11415,7 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
+      <c r="F270" s="45"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="J270" s="2"/>
@@ -11424,7 +11437,7 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
+      <c r="F271" s="45"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="J271" s="2"/>
@@ -11446,7 +11459,7 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+      <c r="F272" s="45"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="J272" s="2"/>
@@ -11468,7 +11481,7 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
+      <c r="F273" s="45"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -11490,7 +11503,7 @@
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+      <c r="F274" s="45"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -11512,7 +11525,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
+      <c r="F275" s="45"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="J275" s="2"/>
@@ -11534,7 +11547,7 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
+      <c r="F276" s="45"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="J276" s="2"/>
@@ -11556,7 +11569,7 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
+      <c r="F277" s="45"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="J277" s="2"/>
@@ -11578,7 +11591,7 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
+      <c r="F278" s="45"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="J278" s="2"/>
@@ -11600,7 +11613,7 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
+      <c r="F279" s="45"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="J279" s="2"/>
@@ -11622,7 +11635,7 @@
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
+      <c r="F280" s="45"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="J280" s="2"/>
@@ -11644,7 +11657,7 @@
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
+      <c r="F281" s="45"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="J281" s="2"/>
@@ -11666,7 +11679,7 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
+      <c r="F282" s="45"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="J282" s="2"/>
@@ -11688,7 +11701,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
+      <c r="F283" s="45"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="J283" s="2"/>
@@ -11710,7 +11723,7 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
+      <c r="F284" s="45"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="J284" s="2"/>
@@ -11732,7 +11745,7 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
+      <c r="F285" s="45"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="J285" s="2"/>
@@ -11754,7 +11767,7 @@
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
+      <c r="F286" s="45"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="J286" s="2"/>
@@ -11776,7 +11789,7 @@
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
+      <c r="F287" s="45"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2"/>
@@ -11798,7 +11811,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
+      <c r="F288" s="45"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="J288" s="2"/>
@@ -11820,7 +11833,7 @@
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
+      <c r="F289" s="45"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="J289" s="2"/>
@@ -11842,7 +11855,7 @@
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
+      <c r="F290" s="45"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="J290" s="2"/>
@@ -11864,7 +11877,7 @@
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
+      <c r="F291" s="45"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2"/>
@@ -11886,7 +11899,7 @@
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
+      <c r="F292" s="45"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
@@ -11908,7 +11921,7 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
+      <c r="F293" s="45"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="J293" s="2"/>
@@ -11930,7 +11943,7 @@
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
+      <c r="F294" s="45"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="J294" s="2"/>
@@ -11952,7 +11965,7 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
+      <c r="F295" s="45"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="J295" s="2"/>
@@ -11974,7 +11987,7 @@
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
+      <c r="F296" s="45"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="J296" s="2"/>
@@ -11996,7 +12009,7 @@
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
+      <c r="F297" s="45"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="J297" s="2"/>
@@ -12018,7 +12031,7 @@
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
+      <c r="F298" s="45"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
@@ -12040,7 +12053,7 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
+      <c r="F299" s="45"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="J299" s="2"/>
@@ -12062,7 +12075,7 @@
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
+      <c r="F300" s="45"/>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
@@ -12084,7 +12097,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="F301" s="45"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="J301" s="2"/>
@@ -12106,7 +12119,7 @@
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="F302" s="45"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="J302" s="2"/>
@@ -12128,7 +12141,7 @@
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
+      <c r="F303" s="45"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="J303" s="2"/>
@@ -12150,7 +12163,7 @@
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
+      <c r="F304" s="45"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="J304" s="2"/>
@@ -12172,7 +12185,7 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
+      <c r="F305" s="45"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2"/>
@@ -12194,7 +12207,7 @@
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
+      <c r="F306" s="45"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="J306" s="2"/>
@@ -12216,7 +12229,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
+      <c r="F307" s="45"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="J307" s="2"/>
@@ -12238,7 +12251,7 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
+      <c r="F308" s="45"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="J308" s="2"/>
@@ -12260,7 +12273,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
+      <c r="F309" s="45"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2"/>
@@ -12282,7 +12295,7 @@
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
+      <c r="F310" s="45"/>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="J310" s="2"/>
@@ -12304,7 +12317,7 @@
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
+      <c r="F311" s="45"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="J311" s="2"/>
@@ -12326,7 +12339,7 @@
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
+      <c r="F312" s="45"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
@@ -12348,7 +12361,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
+      <c r="F313" s="45"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="J313" s="2"/>
@@ -12370,7 +12383,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
+      <c r="F314" s="45"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="J314" s="2"/>
@@ -12392,7 +12405,7 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
+      <c r="F315" s="45"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="J315" s="2"/>
@@ -12414,7 +12427,7 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
+      <c r="F316" s="45"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="J316" s="2"/>
@@ -12436,7 +12449,7 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
+      <c r="F317" s="45"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="J317" s="2"/>
@@ -12458,7 +12471,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
+      <c r="F318" s="45"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="J318" s="2"/>
@@ -12480,7 +12493,7 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
+      <c r="F319" s="45"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="J319" s="2"/>
@@ -12502,7 +12515,7 @@
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
+      <c r="F320" s="45"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="J320" s="2"/>
@@ -12524,7 +12537,7 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
+      <c r="F321" s="45"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="J321" s="2"/>
@@ -12546,7 +12559,7 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
+      <c r="F322" s="45"/>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="J322" s="2"/>
@@ -12568,7 +12581,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
+      <c r="F323" s="45"/>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="J323" s="2"/>
@@ -12590,7 +12603,7 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
+      <c r="F324" s="45"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="J324" s="2"/>
@@ -12612,7 +12625,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
+      <c r="F325" s="45"/>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="J325" s="2"/>
@@ -12634,7 +12647,7 @@
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
+      <c r="F326" s="45"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="J326" s="2"/>
@@ -12656,7 +12669,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
+      <c r="F327" s="45"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="J327" s="2"/>
@@ -12678,7 +12691,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
+      <c r="F328" s="45"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="J328" s="2"/>
@@ -12700,7 +12713,7 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
+      <c r="F329" s="45"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="J329" s="2"/>
@@ -12722,7 +12735,7 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
+      <c r="F330" s="45"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="J330" s="2"/>
@@ -12744,7 +12757,7 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
+      <c r="F331" s="45"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
@@ -12766,7 +12779,7 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
+      <c r="F332" s="45"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>
@@ -12788,7 +12801,7 @@
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
+      <c r="F333" s="45"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="J333" s="2"/>
@@ -12810,7 +12823,7 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
+      <c r="F334" s="45"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="J334" s="2"/>
@@ -12832,7 +12845,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
+      <c r="F335" s="45"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="J335" s="2"/>
@@ -12854,7 +12867,7 @@
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
+      <c r="F336" s="45"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="J336" s="2"/>
@@ -12876,7 +12889,7 @@
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
+      <c r="F337" s="45"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="J337" s="2"/>
@@ -12898,7 +12911,7 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
+      <c r="F338" s="45"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="J338" s="2"/>
@@ -12920,7 +12933,7 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
+      <c r="F339" s="45"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="J339" s="2"/>
@@ -12942,7 +12955,7 @@
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
+      <c r="F340" s="45"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="J340" s="2"/>
@@ -12964,7 +12977,7 @@
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
+      <c r="F341" s="45"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="J341" s="2"/>
@@ -12986,7 +12999,7 @@
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
+      <c r="F342" s="45"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="J342" s="2"/>
@@ -13008,7 +13021,7 @@
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
+      <c r="F343" s="45"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="J343" s="2"/>
@@ -13030,7 +13043,7 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
+      <c r="F344" s="45"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="J344" s="2"/>
@@ -13052,7 +13065,7 @@
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
+      <c r="F345" s="45"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="J345" s="2"/>
@@ -13074,7 +13087,7 @@
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
+      <c r="F346" s="45"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="J346" s="2"/>
@@ -13096,7 +13109,7 @@
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
+      <c r="F347" s="45"/>
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="J347" s="2"/>
@@ -13118,7 +13131,7 @@
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
+      <c r="F348" s="45"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="J348" s="2"/>
@@ -13140,7 +13153,7 @@
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
+      <c r="F349" s="45"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="J349" s="2"/>
@@ -13162,7 +13175,7 @@
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
+      <c r="F350" s="45"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="J350" s="2"/>
@@ -13184,7 +13197,7 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
+      <c r="F351" s="45"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="J351" s="2"/>
@@ -13206,7 +13219,7 @@
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
+      <c r="F352" s="45"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="J352" s="2"/>
@@ -13228,7 +13241,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
+      <c r="F353" s="45"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="J353" s="2"/>
@@ -13250,7 +13263,7 @@
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
+      <c r="F354" s="45"/>
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="J354" s="2"/>
@@ -13272,7 +13285,7 @@
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
+      <c r="F355" s="45"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="J355" s="2"/>
@@ -13294,7 +13307,7 @@
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
+      <c r="F356" s="45"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="J356" s="2"/>
@@ -13316,7 +13329,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
+      <c r="F357" s="45"/>
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="J357" s="2"/>
@@ -13338,7 +13351,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
+      <c r="F358" s="45"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="J358" s="2"/>
@@ -13360,7 +13373,7 @@
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
+      <c r="F359" s="45"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="J359" s="2"/>
@@ -13382,7 +13395,7 @@
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
+      <c r="F360" s="45"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="J360" s="2"/>
@@ -13404,7 +13417,7 @@
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
+      <c r="F361" s="45"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="J361" s="2"/>
@@ -13426,7 +13439,7 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
+      <c r="F362" s="45"/>
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="J362" s="2"/>
@@ -13448,7 +13461,7 @@
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
+      <c r="F363" s="45"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="J363" s="2"/>
@@ -13470,7 +13483,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
+      <c r="F364" s="45"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="J364" s="2"/>
@@ -13492,7 +13505,7 @@
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
+      <c r="F365" s="45"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="J365" s="2"/>
@@ -13514,7 +13527,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
+      <c r="F366" s="45"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="J366" s="2"/>
@@ -13536,7 +13549,7 @@
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
+      <c r="F367" s="45"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="J367" s="2"/>
@@ -13558,7 +13571,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
+      <c r="F368" s="45"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="J368" s="2"/>
@@ -13580,7 +13593,7 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
+      <c r="F369" s="45"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="J369" s="2"/>
@@ -13602,7 +13615,7 @@
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
+      <c r="F370" s="45"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="J370" s="2"/>
@@ -13624,7 +13637,7 @@
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
+      <c r="F371" s="45"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="J371" s="2"/>
@@ -13646,7 +13659,7 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
+      <c r="F372" s="45"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="J372" s="2"/>
@@ -13668,7 +13681,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
+      <c r="F373" s="45"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="J373" s="2"/>
@@ -13690,7 +13703,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
+      <c r="F374" s="45"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="J374" s="2"/>
@@ -13712,7 +13725,7 @@
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
+      <c r="F375" s="45"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="J375" s="2"/>
@@ -13734,7 +13747,7 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
+      <c r="F376" s="45"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="J376" s="2"/>
@@ -13756,7 +13769,7 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
+      <c r="F377" s="45"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="J377" s="2"/>
@@ -13778,7 +13791,7 @@
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
+      <c r="F378" s="45"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="J378" s="2"/>
@@ -13800,7 +13813,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
+      <c r="F379" s="45"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="J379" s="2"/>
@@ -13822,7 +13835,7 @@
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
+      <c r="F380" s="45"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="J380" s="2"/>
@@ -13844,7 +13857,7 @@
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
+      <c r="F381" s="45"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="J381" s="2"/>
@@ -13866,7 +13879,7 @@
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
+      <c r="F382" s="45"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="J382" s="2"/>
@@ -13888,7 +13901,7 @@
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
+      <c r="F383" s="45"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="J383" s="2"/>
@@ -13910,7 +13923,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
+      <c r="F384" s="45"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="J384" s="2"/>
@@ -13932,7 +13945,7 @@
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
+      <c r="F385" s="45"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="J385" s="2"/>
@@ -13954,7 +13967,7 @@
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
+      <c r="F386" s="45"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="J386" s="2"/>
@@ -13976,7 +13989,7 @@
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
-      <c r="F387" s="2"/>
+      <c r="F387" s="45"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="J387" s="2"/>
@@ -13998,7 +14011,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
+      <c r="F388" s="45"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="J388" s="2"/>
@@ -14020,7 +14033,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
+      <c r="F389" s="45"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="J389" s="2"/>
@@ -14042,7 +14055,7 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
+      <c r="F390" s="45"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="J390" s="2"/>
@@ -14064,7 +14077,7 @@
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
+      <c r="F391" s="45"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="J391" s="2"/>
@@ -14086,7 +14099,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
+      <c r="F392" s="45"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="J392" s="2"/>
@@ -14108,7 +14121,7 @@
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
+      <c r="F393" s="45"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="J393" s="2"/>
@@ -14130,7 +14143,7 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
+      <c r="F394" s="45"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="J394" s="2"/>
@@ -14152,7 +14165,7 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
+      <c r="F395" s="45"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="J395" s="2"/>
@@ -14174,7 +14187,7 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
+      <c r="F396" s="45"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="J396" s="2"/>
@@ -14196,7 +14209,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
+      <c r="F397" s="45"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="J397" s="2"/>
@@ -14218,7 +14231,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
+      <c r="F398" s="45"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="J398" s="2"/>
@@ -14240,7 +14253,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
+      <c r="F399" s="45"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="J399" s="2"/>
@@ -14262,7 +14275,7 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
+      <c r="F400" s="45"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="J400" s="2"/>
@@ -14284,7 +14297,7 @@
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
-      <c r="F401" s="2"/>
+      <c r="F401" s="45"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="J401" s="2"/>
@@ -14306,7 +14319,7 @@
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
+      <c r="F402" s="45"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="J402" s="2"/>
@@ -14328,7 +14341,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
+      <c r="F403" s="45"/>
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="J403" s="2"/>
@@ -14350,7 +14363,7 @@
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
+      <c r="F404" s="45"/>
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="J404" s="2"/>
@@ -14372,7 +14385,7 @@
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
+      <c r="F405" s="45"/>
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="J405" s="2"/>
@@ -14394,7 +14407,7 @@
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
-      <c r="F406" s="2"/>
+      <c r="F406" s="45"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="J406" s="2"/>
@@ -14416,7 +14429,7 @@
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
+      <c r="F407" s="45"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="J407" s="2"/>
@@ -14438,7 +14451,7 @@
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
-      <c r="F408" s="2"/>
+      <c r="F408" s="45"/>
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="J408" s="2"/>
@@ -14460,7 +14473,7 @@
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
+      <c r="F409" s="45"/>
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="J409" s="2"/>
@@ -14482,7 +14495,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
+      <c r="F410" s="45"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="J410" s="2"/>
@@ -14504,7 +14517,7 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
+      <c r="F411" s="45"/>
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="J411" s="2"/>
@@ -14526,7 +14539,7 @@
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
+      <c r="F412" s="45"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="J412" s="2"/>
@@ -14548,7 +14561,7 @@
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
+      <c r="F413" s="45"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="J413" s="2"/>
@@ -14570,7 +14583,7 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
+      <c r="F414" s="45"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="J414" s="2"/>
@@ -14592,7 +14605,7 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
+      <c r="F415" s="45"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="J415" s="2"/>
@@ -14614,7 +14627,7 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
+      <c r="F416" s="45"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="J416" s="2"/>
@@ -14636,7 +14649,7 @@
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
+      <c r="F417" s="45"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="J417" s="2"/>
@@ -14658,7 +14671,7 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
+      <c r="F418" s="45"/>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="J418" s="2"/>
@@ -14680,7 +14693,7 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
+      <c r="F419" s="45"/>
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="J419" s="2"/>
@@ -14702,7 +14715,7 @@
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
+      <c r="F420" s="45"/>
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="J420" s="2"/>
@@ -14724,7 +14737,7 @@
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
+      <c r="F421" s="45"/>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="J421" s="2"/>
@@ -14746,7 +14759,7 @@
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
+      <c r="F422" s="45"/>
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="J422" s="2"/>
@@ -14768,7 +14781,7 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
+      <c r="F423" s="45"/>
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="J423" s="2"/>
@@ -14790,7 +14803,7 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
+      <c r="F424" s="45"/>
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="J424" s="2"/>
@@ -14812,7 +14825,7 @@
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
+      <c r="F425" s="45"/>
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="J425" s="2"/>
@@ -14834,7 +14847,7 @@
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
+      <c r="F426" s="45"/>
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="J426" s="2"/>
@@ -14856,7 +14869,7 @@
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
+      <c r="F427" s="45"/>
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="J427" s="2"/>
@@ -14878,7 +14891,7 @@
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
+      <c r="F428" s="45"/>
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="J428" s="2"/>
@@ -14900,7 +14913,7 @@
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
+      <c r="F429" s="45"/>
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="J429" s="2"/>
@@ -14922,7 +14935,7 @@
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
+      <c r="F430" s="45"/>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="J430" s="2"/>
@@ -14944,7 +14957,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
+      <c r="F431" s="45"/>
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="J431" s="2"/>
@@ -14966,7 +14979,7 @@
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
+      <c r="F432" s="45"/>
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="J432" s="2"/>
@@ -14988,7 +15001,7 @@
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
+      <c r="F433" s="45"/>
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="J433" s="2"/>
@@ -15010,7 +15023,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
+      <c r="F434" s="45"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="J434" s="2"/>
@@ -15032,7 +15045,7 @@
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
+      <c r="F435" s="45"/>
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="J435" s="2"/>
@@ -15054,7 +15067,7 @@
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
+      <c r="F436" s="45"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="J436" s="2"/>
@@ -15076,7 +15089,7 @@
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
+      <c r="F437" s="45"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="J437" s="2"/>
@@ -15098,7 +15111,7 @@
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
+      <c r="F438" s="45"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="J438" s="2"/>
@@ -15120,7 +15133,7 @@
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
+      <c r="F439" s="45"/>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="J439" s="2"/>
@@ -15142,7 +15155,7 @@
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
+      <c r="F440" s="45"/>
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="J440" s="2"/>
@@ -15164,7 +15177,7 @@
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
+      <c r="F441" s="45"/>
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="J441" s="2"/>
@@ -15186,7 +15199,7 @@
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
+      <c r="F442" s="45"/>
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="J442" s="2"/>
@@ -15208,7 +15221,7 @@
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
+      <c r="F443" s="45"/>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="J443" s="2"/>
@@ -15230,7 +15243,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
+      <c r="F444" s="45"/>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="J444" s="2"/>
@@ -15252,7 +15265,7 @@
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
+      <c r="F445" s="45"/>
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="J445" s="2"/>
@@ -15274,7 +15287,7 @@
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
+      <c r="F446" s="45"/>
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="J446" s="2"/>
@@ -15296,7 +15309,7 @@
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
+      <c r="F447" s="45"/>
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="J447" s="2"/>
@@ -15318,7 +15331,7 @@
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
+      <c r="F448" s="45"/>
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="J448" s="2"/>
@@ -15340,7 +15353,7 @@
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
+      <c r="F449" s="45"/>
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="J449" s="2"/>
@@ -15362,7 +15375,7 @@
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
+      <c r="F450" s="45"/>
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="J450" s="2"/>
@@ -15384,7 +15397,7 @@
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
+      <c r="F451" s="45"/>
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="J451" s="2"/>
@@ -15406,7 +15419,7 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
+      <c r="F452" s="45"/>
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="J452" s="2"/>
@@ -15428,7 +15441,7 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
+      <c r="F453" s="45"/>
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="J453" s="2"/>
@@ -15450,7 +15463,7 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
+      <c r="F454" s="45"/>
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="J454" s="2"/>
@@ -15472,7 +15485,7 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
+      <c r="F455" s="45"/>
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="J455" s="2"/>
@@ -15494,7 +15507,7 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
+      <c r="F456" s="45"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="J456" s="2"/>
@@ -15516,7 +15529,7 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
+      <c r="F457" s="45"/>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="J457" s="2"/>
@@ -15538,7 +15551,7 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
+      <c r="F458" s="45"/>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="J458" s="2"/>
@@ -15560,7 +15573,7 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
+      <c r="F459" s="45"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="J459" s="2"/>
@@ -15582,7 +15595,7 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
+      <c r="F460" s="45"/>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="J460" s="2"/>
@@ -15604,7 +15617,7 @@
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
+      <c r="F461" s="45"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="J461" s="2"/>
@@ -15626,7 +15639,7 @@
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
+      <c r="F462" s="45"/>
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="J462" s="2"/>
@@ -15648,7 +15661,7 @@
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
+      <c r="F463" s="45"/>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="J463" s="2"/>
@@ -15670,7 +15683,7 @@
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
+      <c r="F464" s="45"/>
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="J464" s="2"/>
@@ -15692,7 +15705,7 @@
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
+      <c r="F465" s="45"/>
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="J465" s="2"/>
@@ -15714,7 +15727,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
+      <c r="F466" s="45"/>
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="J466" s="2"/>
@@ -15736,7 +15749,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
+      <c r="F467" s="45"/>
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="J467" s="2"/>
@@ -15758,7 +15771,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
+      <c r="F468" s="45"/>
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="J468" s="2"/>
@@ -15780,7 +15793,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
-      <c r="F469" s="2"/>
+      <c r="F469" s="45"/>
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="J469" s="2"/>
@@ -15802,7 +15815,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
+      <c r="F470" s="45"/>
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="J470" s="2"/>
@@ -15824,7 +15837,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
+      <c r="F471" s="45"/>
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="J471" s="2"/>
@@ -15846,7 +15859,7 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
+      <c r="F472" s="45"/>
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="J472" s="2"/>
@@ -15868,7 +15881,7 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
+      <c r="F473" s="45"/>
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="J473" s="2"/>
@@ -15890,7 +15903,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
+      <c r="F474" s="45"/>
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="J474" s="2"/>
@@ -15912,7 +15925,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
+      <c r="F475" s="45"/>
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="J475" s="2"/>
@@ -15934,7 +15947,7 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
+      <c r="F476" s="45"/>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="J476" s="2"/>
@@ -15956,7 +15969,7 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
+      <c r="F477" s="45"/>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="J477" s="2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -3255,7 +3255,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>日期</t>
   </si>
@@ -43,6 +43,9 @@
   <si>
     <t>买入后跌幅/涨幅
 (下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+  </si>
+  <si>
+    <t>是否可以提高止损线到盈亏平衡点</t>
   </si>
   <si>
     <t>是否继续持有
@@ -229,10 +232,10 @@
     </r>
   </si>
   <si>
-    <t>是</t>
+    <t>否</t>
   </si>
   <si>
-    <t>否</t>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -242,11 +245,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -303,14 +306,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,26 +359,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,14 +372,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,16 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,23 +414,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +432,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,7 +454,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,25 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,49 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,25 +625,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +749,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -772,20 +799,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,185 +837,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1009,22 +1018,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,74 +1054,80 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3248,14 +3260,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ477"/>
+  <dimension ref="A1:AK477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1:AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3294,10 +3306,11 @@
     <col min="33" max="33" width="10.5625" style="2" customWidth="1"/>
     <col min="34" max="34" width="11" style="4" customWidth="1"/>
     <col min="35" max="35" width="23.5089285714286" style="5" customWidth="1"/>
-    <col min="36" max="36" width="15.4732142857143" style="2" customWidth="1"/>
+    <col min="36" max="36" width="15.4732142857143" style="5" customWidth="1"/>
+    <col min="37" max="37" width="15.4732142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:36">
+    <row r="1" ht="29" customHeight="1" spans="1:37">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3312,15 +3325,15 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="25" t="s">
         <v>3</v>
       </c>
@@ -3343,17 +3356,20 @@
       <c r="AG1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AH1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="42" t="s">
         <v>7</v>
       </c>
       <c r="AJ1" s="42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:36">
+      <c r="AK1" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:37">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3364,13 +3380,13 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
@@ -3387,68 +3403,69 @@
       <c r="AE2" s="28"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="24"/>
-      <c r="AH2" s="40"/>
+      <c r="AH2" s="41"/>
       <c r="AI2" s="43"/>
-      <c r="AJ2" s="21"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:36">
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="20"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:37">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="19"/>
       <c r="R3" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
       <c r="X3" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
@@ -3457,15 +3474,16 @@
       <c r="AC3" s="30"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="24"/>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="40"/>
+      <c r="AH3" s="41"/>
       <c r="AI3" s="43"/>
-      <c r="AJ3" s="21"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:36">
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="20"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:37">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3474,58 +3492,59 @@
       <c r="F4" s="13"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
       <c r="U4" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="33"/>
       <c r="AB4" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="40"/>
+      <c r="AH4" s="41"/>
       <c r="AI4" s="43"/>
-      <c r="AJ4" s="21"/>
-    </row>
-    <row r="5" ht="53" spans="1:36">
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="20"/>
+    </row>
+    <row r="5" ht="53" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3534,31 +3553,31 @@
       <c r="F5" s="13"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="21" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="21" t="s">
+      <c r="O5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="20" t="s">
         <v>39</v>
       </c>
+      <c r="Q5" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="R5" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
@@ -3566,10 +3585,10 @@
       <c r="X5" s="32"/>
       <c r="Y5" s="32"/>
       <c r="Z5" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="33"/>
       <c r="AC5" s="30"/>
@@ -3577,11 +3596,12 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="38"/>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="40"/>
+      <c r="AH5" s="41"/>
       <c r="AI5" s="43"/>
-      <c r="AJ5" s="21"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="20"/>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="9">
         <v>44547</v>
       </c>
@@ -3609,16 +3629,14 @@
       <c r="I6" s="11">
         <v>33.78</v>
       </c>
-      <c r="J6" s="21">
-        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J11" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>0.0584</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="L6" s="22"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -3628,7 +3646,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="str">
-        <f>IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U11" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="11" t="s">
@@ -3641,14 +3659,14 @@
         <v>2</v>
       </c>
       <c r="Y6" s="35">
-        <f>$I6/$I$6</f>
+        <f t="shared" ref="Y6:Y11" si="2">$I6/$I$6</f>
         <v>1</v>
       </c>
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
       <c r="AB6" s="36"/>
       <c r="AC6" s="39">
-        <f>D6-E6</f>
+        <f t="shared" ref="AC6:AC11" si="3">D6-E6</f>
         <v>5.73</v>
       </c>
       <c r="AD6" s="36"/>
@@ -3665,11 +3683,15 @@
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.00447876447876458</v>
       </c>
-      <c r="AJ6" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AJ6" s="45" t="str">
+        <f>IF(AI6-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="9">
         <v>44550</v>
       </c>
@@ -3697,17 +3719,15 @@
       <c r="I7" s="11">
         <v>35.75</v>
       </c>
-      <c r="J7" s="21">
-        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <f>(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="L7" s="22"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -3717,7 +3737,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11" t="str">
-        <f>IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -3730,14 +3750,14 @@
         <v>2</v>
       </c>
       <c r="Y7" s="35">
-        <f>$I7/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.05831853167555</v>
       </c>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="39">
-        <f>D7-E7</f>
+        <f t="shared" si="3"/>
         <v>5.92</v>
       </c>
       <c r="AD7" s="36"/>
@@ -3755,11 +3775,15 @@
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.0949806949806951</v>
       </c>
-      <c r="AJ7" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AJ7" s="45" t="str">
+        <f>IF(AI7-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK7" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="9">
         <v>44551</v>
       </c>
@@ -3787,8 +3811,8 @@
       <c r="I8" s="11">
         <v>38.97</v>
       </c>
-      <c r="J8" s="21">
-        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="23">
@@ -3805,7 +3829,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11" t="str">
-        <f>IF(B8&lt;G8,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V8" s="11" t="s">
@@ -3818,14 +3842,14 @@
         <v>2</v>
       </c>
       <c r="Y8" s="35">
-        <f>$I8/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.15364120781528</v>
       </c>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
       <c r="AB8" s="36"/>
-      <c r="AC8" s="11">
-        <f>D8-E8</f>
+      <c r="AC8" s="40">
+        <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
       <c r="AD8" s="36"/>
@@ -3843,11 +3867,15 @@
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.113204633204633</v>
       </c>
-      <c r="AJ8" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AJ8" s="45" t="str">
+        <f>IF(AI8-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="9">
         <v>44552</v>
       </c>
@@ -3863,7 +3891,7 @@
       <c r="E9" s="10">
         <v>69.85</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>5.4515</v>
       </c>
       <c r="G9" s="10">
@@ -3875,8 +3903,8 @@
       <c r="I9" s="11">
         <v>39.62</v>
       </c>
-      <c r="J9" s="21">
-        <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9" s="23">
@@ -3893,7 +3921,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11" t="str">
-        <f>IF(B9&lt;G9,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V9" s="11" t="s">
@@ -3906,14 +3934,14 @@
         <v>2</v>
       </c>
       <c r="Y9" s="35">
-        <f>$I9/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.17288336293665</v>
       </c>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
-      <c r="AC9" s="11">
-        <f>D9-E9</f>
+      <c r="AC9" s="40">
+        <f t="shared" si="3"/>
         <v>3.62</v>
       </c>
       <c r="AD9" s="36"/>
@@ -3931,11 +3959,15 @@
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.117220077220077</v>
       </c>
-      <c r="AJ9" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AJ9" s="45" t="str">
+        <f>IF(AI9-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="9">
         <v>44553</v>
       </c>
@@ -3951,7 +3983,7 @@
       <c r="E10" s="10">
         <v>70.3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3.6118</v>
       </c>
       <c r="G10" s="10">
@@ -3963,8 +3995,8 @@
       <c r="I10" s="11">
         <v>39.76</v>
       </c>
-      <c r="J10" s="21">
-        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K10" s="23">
@@ -3973,12 +4005,12 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>COUNTIF(K6:K10,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <f>COUNTIF(J6:J10,"&gt;0")/5</f>
         <v>1</v>
       </c>
@@ -3987,7 +4019,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11" t="str">
-        <f>IF(B10&lt;G10,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V10" s="11" t="s">
@@ -4000,14 +4032,14 @@
         <v>2</v>
       </c>
       <c r="Y10" s="35">
-        <f>$I10/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.17702782711664</v>
       </c>
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
-      <c r="AC10" s="11">
-        <f>D10-E10</f>
+      <c r="AC10" s="40">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AD10" s="36"/>
@@ -4025,11 +4057,15 @@
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.12</v>
       </c>
-      <c r="AJ10" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AJ10" s="45" t="str">
+        <f>IF(AI10-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK10" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="9">
         <v>44554</v>
       </c>
@@ -4045,7 +4081,7 @@
       <c r="E11" s="10">
         <v>72.07</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>7.4967</v>
       </c>
       <c r="G11" s="10">
@@ -4058,7 +4094,7 @@
         <v>39.86</v>
       </c>
       <c r="J11" s="24">
-        <f>IF(B11&gt;(D11-(D11-E11)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K11" s="23">
@@ -4075,7 +4111,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11" t="str">
-        <f>IF(B11&lt;G11,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V11" s="11" t="s">
@@ -4088,14 +4124,14 @@
         <v>2</v>
       </c>
       <c r="Y11" s="35">
-        <f>$I11/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.17998815867377</v>
       </c>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
-      <c r="AC11" s="24">
-        <f>D11-E11</f>
+      <c r="AC11" s="22">
+        <f t="shared" si="3"/>
         <v>6.53</v>
       </c>
       <c r="AD11" s="36"/>
@@ -4113,26 +4149,54 @@
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.153667953667954</v>
       </c>
-      <c r="AJ11" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AJ11" s="45" t="str">
+        <f>IF(AI11-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AK11" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="9">
         <v>44555</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="23"/>
+      <c r="B12" s="10">
+        <v>78.79</v>
+      </c>
+      <c r="C12" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>79.84</v>
+      </c>
+      <c r="E12" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="F12" s="14">
+        <v>6.339</v>
+      </c>
+      <c r="G12" s="10">
+        <v>65.24</v>
+      </c>
+      <c r="H12" s="10">
+        <v>57.6</v>
+      </c>
+      <c r="I12" s="11">
+        <v>41.06</v>
+      </c>
+      <c r="J12" s="20">
+        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="23">
+        <f>(B12-B11)/B11</f>
+        <v>0.05475234270415</v>
+      </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -4140,23 +4204,54 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
+      <c r="U12" s="11" t="str">
+        <f>IF(B12&lt;G12,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="35">
+        <f>$I12/$I$6</f>
+        <v>1.21551213735938</v>
+      </c>
       <c r="Z12" s="36"/>
       <c r="AA12" s="36"/>
       <c r="AB12" s="36"/>
-      <c r="AC12" s="11"/>
+      <c r="AC12" s="22">
+        <f>D12-E12</f>
+        <v>6.34</v>
+      </c>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36"/>
-      <c r="AG12" s="44"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="11"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AG12" s="44">
+        <f>IF(AND(H12-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,H12&gt;H11),H12,AG11)</f>
+        <v>59.29</v>
+      </c>
+      <c r="AH12" s="4">
+        <f>($AG12-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
+        <v>-546</v>
+      </c>
+      <c r="AI12" s="23">
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <v>0.216833976833977</v>
+      </c>
+      <c r="AJ12" s="21" t="str">
+        <f>IF(AI12-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AK12" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="9">
         <v>44556</v>
       </c>
@@ -4164,7 +4259,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
@@ -4193,9 +4288,10 @@
       <c r="AF13" s="36"/>
       <c r="AG13" s="44"/>
       <c r="AI13" s="23"/>
-      <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="11"/>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="9">
         <v>44557</v>
       </c>
@@ -4203,7 +4299,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
@@ -4232,9 +4328,10 @@
       <c r="AF14" s="36"/>
       <c r="AG14" s="44"/>
       <c r="AI14" s="23"/>
-      <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="9">
         <v>44558</v>
       </c>
@@ -4242,7 +4339,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
@@ -4271,9 +4368,10 @@
       <c r="AF15" s="36"/>
       <c r="AG15" s="44"/>
       <c r="AI15" s="23"/>
-      <c r="AJ15" s="11"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="11"/>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="9">
         <v>44559</v>
       </c>
@@ -4281,7 +4379,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -4310,9 +4408,10 @@
       <c r="AF16" s="36"/>
       <c r="AG16" s="44"/>
       <c r="AI16" s="23"/>
-      <c r="AJ16" s="11"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="9">
         <v>44560</v>
       </c>
@@ -4320,7 +4419,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -4349,9 +4448,10 @@
       <c r="AF17" s="36"/>
       <c r="AG17" s="44"/>
       <c r="AI17" s="23"/>
-      <c r="AJ17" s="11"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="11"/>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="9">
         <v>44561</v>
       </c>
@@ -4359,7 +4459,7 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -4388,9 +4488,10 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="44"/>
       <c r="AI18" s="23"/>
-      <c r="AJ18" s="11"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="9">
         <v>44562</v>
       </c>
@@ -4398,7 +4499,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4427,9 +4528,10 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="44"/>
       <c r="AI19" s="23"/>
-      <c r="AJ19" s="11"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="11"/>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="9">
         <v>44563</v>
       </c>
@@ -4437,7 +4539,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -4466,9 +4568,10 @@
       <c r="AF20" s="36"/>
       <c r="AG20" s="44"/>
       <c r="AI20" s="23"/>
-      <c r="AJ20" s="11"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="11"/>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="9">
         <v>44564</v>
       </c>
@@ -4476,7 +4579,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -4505,9 +4608,10 @@
       <c r="AF21" s="36"/>
       <c r="AG21" s="44"/>
       <c r="AI21" s="23"/>
-      <c r="AJ21" s="11"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="11"/>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="9">
         <v>44565</v>
       </c>
@@ -4515,7 +4619,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -4544,9 +4648,10 @@
       <c r="AF22" s="36"/>
       <c r="AG22" s="44"/>
       <c r="AI22" s="23"/>
-      <c r="AJ22" s="11"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="11"/>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="9">
         <v>44566</v>
       </c>
@@ -4554,7 +4659,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -4583,9 +4688,10 @@
       <c r="AF23" s="36"/>
       <c r="AG23" s="44"/>
       <c r="AI23" s="23"/>
-      <c r="AJ23" s="11"/>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="11"/>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="9">
         <v>44567</v>
       </c>
@@ -4593,7 +4699,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -4622,9 +4728,10 @@
       <c r="AF24" s="36"/>
       <c r="AG24" s="44"/>
       <c r="AI24" s="23"/>
-      <c r="AJ24" s="11"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="11"/>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="9">
         <v>44568</v>
       </c>
@@ -4632,7 +4739,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -4661,9 +4768,10 @@
       <c r="AF25" s="36"/>
       <c r="AG25" s="44"/>
       <c r="AI25" s="23"/>
-      <c r="AJ25" s="11"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="11"/>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="9">
         <v>44569</v>
       </c>
@@ -4671,7 +4779,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4700,9 +4808,10 @@
       <c r="AF26" s="36"/>
       <c r="AG26" s="44"/>
       <c r="AI26" s="23"/>
-      <c r="AJ26" s="11"/>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="11"/>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="9">
         <v>44570</v>
       </c>
@@ -4710,7 +4819,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -4739,9 +4848,10 @@
       <c r="AF27" s="36"/>
       <c r="AG27" s="44"/>
       <c r="AI27" s="23"/>
-      <c r="AJ27" s="11"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="11"/>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="9">
         <v>44571</v>
       </c>
@@ -4749,7 +4859,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -4778,9 +4888,10 @@
       <c r="AF28" s="36"/>
       <c r="AG28" s="44"/>
       <c r="AI28" s="23"/>
-      <c r="AJ28" s="11"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="11"/>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="9">
         <v>44572</v>
       </c>
@@ -4788,7 +4899,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -4817,9 +4928,10 @@
       <c r="AF29" s="36"/>
       <c r="AG29" s="44"/>
       <c r="AI29" s="23"/>
-      <c r="AJ29" s="11"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="11"/>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="9">
         <v>44573</v>
       </c>
@@ -4827,7 +4939,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -4856,9 +4968,10 @@
       <c r="AF30" s="36"/>
       <c r="AG30" s="44"/>
       <c r="AI30" s="23"/>
-      <c r="AJ30" s="11"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="11"/>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="9">
         <v>44574</v>
       </c>
@@ -4866,7 +4979,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -4895,9 +5008,10 @@
       <c r="AF31" s="36"/>
       <c r="AG31" s="44"/>
       <c r="AI31" s="23"/>
-      <c r="AJ31" s="11"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="11"/>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="9">
         <v>44575</v>
       </c>
@@ -4905,7 +5019,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -4934,9 +5048,10 @@
       <c r="AF32" s="36"/>
       <c r="AG32" s="44"/>
       <c r="AI32" s="23"/>
-      <c r="AJ32" s="11"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="11"/>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33" s="9">
         <v>44576</v>
       </c>
@@ -4944,7 +5059,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -4973,9 +5088,10 @@
       <c r="AF33" s="36"/>
       <c r="AG33" s="44"/>
       <c r="AI33" s="23"/>
-      <c r="AJ33" s="11"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" s="9">
         <v>44577</v>
       </c>
@@ -4983,7 +5099,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -5012,9 +5128,10 @@
       <c r="AF34" s="36"/>
       <c r="AG34" s="44"/>
       <c r="AI34" s="23"/>
-      <c r="AJ34" s="11"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="11"/>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="9">
         <v>44578</v>
       </c>
@@ -5022,7 +5139,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -5051,9 +5168,10 @@
       <c r="AF35" s="36"/>
       <c r="AG35" s="44"/>
       <c r="AI35" s="23"/>
-      <c r="AJ35" s="11"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="11"/>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="9">
         <v>44579</v>
       </c>
@@ -5061,7 +5179,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -5090,9 +5208,10 @@
       <c r="AF36" s="36"/>
       <c r="AG36" s="44"/>
       <c r="AI36" s="23"/>
-      <c r="AJ36" s="11"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="11"/>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="9">
         <v>44580</v>
       </c>
@@ -5100,7 +5219,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5129,9 +5248,10 @@
       <c r="AF37" s="36"/>
       <c r="AG37" s="44"/>
       <c r="AI37" s="23"/>
-      <c r="AJ37" s="11"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="11"/>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="9">
         <v>44581</v>
       </c>
@@ -5139,7 +5259,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -5168,9 +5288,10 @@
       <c r="AF38" s="36"/>
       <c r="AG38" s="44"/>
       <c r="AI38" s="23"/>
-      <c r="AJ38" s="11"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="11"/>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" s="9">
         <v>44582</v>
       </c>
@@ -5178,7 +5299,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -5207,9 +5328,10 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="44"/>
       <c r="AI39" s="23"/>
-      <c r="AJ39" s="11"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="11"/>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40" s="9">
         <v>44583</v>
       </c>
@@ -5217,7 +5339,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -5246,9 +5368,10 @@
       <c r="AF40" s="36"/>
       <c r="AG40" s="44"/>
       <c r="AI40" s="23"/>
-      <c r="AJ40" s="11"/>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="11"/>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="9">
         <v>44584</v>
       </c>
@@ -5256,7 +5379,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -5285,9 +5408,10 @@
       <c r="AF41" s="36"/>
       <c r="AG41" s="44"/>
       <c r="AI41" s="23"/>
-      <c r="AJ41" s="11"/>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="11"/>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42" s="9">
         <v>44585</v>
       </c>
@@ -5295,7 +5419,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="15"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -5324,9 +5448,10 @@
       <c r="AF42" s="36"/>
       <c r="AG42" s="44"/>
       <c r="AI42" s="23"/>
-      <c r="AJ42" s="11"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="11"/>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" s="9">
         <v>44586</v>
       </c>
@@ -5334,7 +5459,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -5363,9 +5488,10 @@
       <c r="AF43" s="36"/>
       <c r="AG43" s="44"/>
       <c r="AI43" s="23"/>
-      <c r="AJ43" s="11"/>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="11"/>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="9">
         <v>44587</v>
       </c>
@@ -5373,7 +5499,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -5402,9 +5528,10 @@
       <c r="AF44" s="36"/>
       <c r="AG44" s="44"/>
       <c r="AI44" s="23"/>
-      <c r="AJ44" s="11"/>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="11"/>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="9">
         <v>44588</v>
       </c>
@@ -5412,7 +5539,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -5441,9 +5568,10 @@
       <c r="AF45" s="36"/>
       <c r="AG45" s="44"/>
       <c r="AI45" s="23"/>
-      <c r="AJ45" s="11"/>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="11"/>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46" s="9">
         <v>44589</v>
       </c>
@@ -5451,7 +5579,7 @@
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -5480,9 +5608,10 @@
       <c r="AF46" s="36"/>
       <c r="AG46" s="44"/>
       <c r="AI46" s="23"/>
-      <c r="AJ46" s="11"/>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="11"/>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47" s="9">
         <v>44590</v>
       </c>
@@ -5490,7 +5619,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -5519,9 +5648,10 @@
       <c r="AF47" s="36"/>
       <c r="AG47" s="44"/>
       <c r="AI47" s="23"/>
-      <c r="AJ47" s="11"/>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="11"/>
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" s="9">
         <v>44591</v>
       </c>
@@ -5529,7 +5659,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="15"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -5558,9 +5688,10 @@
       <c r="AF48" s="36"/>
       <c r="AG48" s="44"/>
       <c r="AI48" s="23"/>
-      <c r="AJ48" s="11"/>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="11"/>
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" s="9">
         <v>44592</v>
       </c>
@@ -5568,7 +5699,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="15"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -5597,9 +5728,10 @@
       <c r="AF49" s="36"/>
       <c r="AG49" s="44"/>
       <c r="AI49" s="23"/>
-      <c r="AJ49" s="11"/>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="11"/>
+    </row>
+    <row r="50" spans="1:37">
       <c r="A50" s="9">
         <v>44593</v>
       </c>
@@ -5607,7 +5739,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -5636,9 +5768,10 @@
       <c r="AF50" s="36"/>
       <c r="AG50" s="44"/>
       <c r="AI50" s="23"/>
-      <c r="AJ50" s="11"/>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="11"/>
+    </row>
+    <row r="51" spans="1:37">
       <c r="A51" s="9">
         <v>44594</v>
       </c>
@@ -5646,7 +5779,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="15"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -5675,9 +5808,10 @@
       <c r="AF51" s="36"/>
       <c r="AG51" s="44"/>
       <c r="AI51" s="23"/>
-      <c r="AJ51" s="11"/>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="11"/>
+    </row>
+    <row r="52" spans="1:37">
       <c r="A52" s="9">
         <v>44595</v>
       </c>
@@ -5685,7 +5819,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="15"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -5714,9 +5848,10 @@
       <c r="AF52" s="36"/>
       <c r="AG52" s="44"/>
       <c r="AI52" s="23"/>
-      <c r="AJ52" s="11"/>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="11"/>
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="9">
         <v>44596</v>
       </c>
@@ -5724,7 +5859,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="15"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -5753,9 +5888,10 @@
       <c r="AF53" s="36"/>
       <c r="AG53" s="44"/>
       <c r="AI53" s="23"/>
-      <c r="AJ53" s="11"/>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="11"/>
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" s="9">
         <v>44597</v>
       </c>
@@ -5763,7 +5899,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="15"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -5792,9 +5928,10 @@
       <c r="AF54" s="36"/>
       <c r="AG54" s="44"/>
       <c r="AI54" s="23"/>
-      <c r="AJ54" s="11"/>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="11"/>
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" s="9">
         <v>44598</v>
       </c>
@@ -5802,7 +5939,7 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="15"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -5831,9 +5968,10 @@
       <c r="AF55" s="36"/>
       <c r="AG55" s="44"/>
       <c r="AI55" s="23"/>
-      <c r="AJ55" s="11"/>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="11"/>
+    </row>
+    <row r="56" spans="1:37">
       <c r="A56" s="9">
         <v>44599</v>
       </c>
@@ -5841,7 +5979,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="15"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -5870,9 +6008,10 @@
       <c r="AF56" s="36"/>
       <c r="AG56" s="44"/>
       <c r="AI56" s="23"/>
-      <c r="AJ56" s="11"/>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="11"/>
+    </row>
+    <row r="57" spans="1:37">
       <c r="A57" s="9">
         <v>44600</v>
       </c>
@@ -5880,7 +6019,7 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="15"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -5909,9 +6048,10 @@
       <c r="AF57" s="36"/>
       <c r="AG57" s="44"/>
       <c r="AI57" s="23"/>
-      <c r="AJ57" s="11"/>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AJ57" s="23"/>
+      <c r="AK57" s="11"/>
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58" s="9">
         <v>44601</v>
       </c>
@@ -5919,7 +6059,7 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="15"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -5948,9 +6088,10 @@
       <c r="AF58" s="36"/>
       <c r="AG58" s="44"/>
       <c r="AI58" s="23"/>
-      <c r="AJ58" s="11"/>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AJ58" s="23"/>
+      <c r="AK58" s="11"/>
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59" s="9">
         <v>44602</v>
       </c>
@@ -5958,7 +6099,7 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="15"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -5987,9 +6128,10 @@
       <c r="AF59" s="36"/>
       <c r="AG59" s="44"/>
       <c r="AI59" s="23"/>
-      <c r="AJ59" s="11"/>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AJ59" s="23"/>
+      <c r="AK59" s="11"/>
+    </row>
+    <row r="60" spans="1:37">
       <c r="A60" s="9">
         <v>44603</v>
       </c>
@@ -5997,7 +6139,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -6026,9 +6168,10 @@
       <c r="AF60" s="36"/>
       <c r="AG60" s="44"/>
       <c r="AI60" s="23"/>
-      <c r="AJ60" s="11"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AJ60" s="23"/>
+      <c r="AK60" s="11"/>
+    </row>
+    <row r="61" spans="1:37">
       <c r="A61" s="9">
         <v>44604</v>
       </c>
@@ -6036,7 +6179,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="15"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -6065,9 +6208,10 @@
       <c r="AF61" s="36"/>
       <c r="AG61" s="44"/>
       <c r="AI61" s="23"/>
-      <c r="AJ61" s="11"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="11"/>
+    </row>
+    <row r="62" spans="1:37">
       <c r="A62" s="9">
         <v>44605</v>
       </c>
@@ -6075,7 +6219,7 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="15"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -6104,9 +6248,10 @@
       <c r="AF62" s="36"/>
       <c r="AG62" s="44"/>
       <c r="AI62" s="23"/>
-      <c r="AJ62" s="11"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AJ62" s="23"/>
+      <c r="AK62" s="11"/>
+    </row>
+    <row r="63" spans="1:37">
       <c r="A63" s="9">
         <v>44606</v>
       </c>
@@ -6114,7 +6259,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="15"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -6143,9 +6288,10 @@
       <c r="AF63" s="36"/>
       <c r="AG63" s="44"/>
       <c r="AI63" s="23"/>
-      <c r="AJ63" s="11"/>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="11"/>
+    </row>
+    <row r="64" spans="1:37">
       <c r="A64" s="9">
         <v>44607</v>
       </c>
@@ -6153,7 +6299,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="15"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -6182,9 +6328,10 @@
       <c r="AF64" s="36"/>
       <c r="AG64" s="44"/>
       <c r="AI64" s="23"/>
-      <c r="AJ64" s="11"/>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="11"/>
+    </row>
+    <row r="65" spans="1:37">
       <c r="A65" s="9">
         <v>44608</v>
       </c>
@@ -6192,7 +6339,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="15"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -6221,9 +6368,10 @@
       <c r="AF65" s="36"/>
       <c r="AG65" s="44"/>
       <c r="AI65" s="23"/>
-      <c r="AJ65" s="11"/>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="11"/>
+    </row>
+    <row r="66" spans="1:37">
       <c r="A66" s="9">
         <v>44609</v>
       </c>
@@ -6231,7 +6379,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="15"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -6260,9 +6408,10 @@
       <c r="AF66" s="36"/>
       <c r="AG66" s="44"/>
       <c r="AI66" s="23"/>
-      <c r="AJ66" s="11"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="11"/>
+    </row>
+    <row r="67" spans="1:37">
       <c r="A67" s="9">
         <v>44610</v>
       </c>
@@ -6270,7 +6419,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="15"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -6299,9 +6448,10 @@
       <c r="AF67" s="36"/>
       <c r="AG67" s="44"/>
       <c r="AI67" s="23"/>
-      <c r="AJ67" s="11"/>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="11"/>
+    </row>
+    <row r="68" spans="1:37">
       <c r="A68" s="9">
         <v>44611</v>
       </c>
@@ -6309,7 +6459,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="15"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -6338,9 +6488,10 @@
       <c r="AF68" s="36"/>
       <c r="AG68" s="44"/>
       <c r="AI68" s="23"/>
-      <c r="AJ68" s="11"/>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AJ68" s="23"/>
+      <c r="AK68" s="11"/>
+    </row>
+    <row r="69" spans="1:37">
       <c r="A69" s="9">
         <v>44612</v>
       </c>
@@ -6348,7 +6499,7 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="15"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -6377,9 +6528,10 @@
       <c r="AF69" s="36"/>
       <c r="AG69" s="44"/>
       <c r="AI69" s="23"/>
-      <c r="AJ69" s="11"/>
-    </row>
-    <row r="70" spans="1:36">
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="11"/>
+    </row>
+    <row r="70" spans="1:37">
       <c r="A70" s="9">
         <v>44613</v>
       </c>
@@ -6387,7 +6539,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="15"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -6416,9 +6568,10 @@
       <c r="AF70" s="36"/>
       <c r="AG70" s="44"/>
       <c r="AI70" s="23"/>
-      <c r="AJ70" s="11"/>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="AJ70" s="23"/>
+      <c r="AK70" s="11"/>
+    </row>
+    <row r="71" spans="1:37">
       <c r="A71" s="9">
         <v>44614</v>
       </c>
@@ -6426,7 +6579,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="15"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -6455,9 +6608,10 @@
       <c r="AF71" s="36"/>
       <c r="AG71" s="44"/>
       <c r="AI71" s="23"/>
-      <c r="AJ71" s="11"/>
-    </row>
-    <row r="72" spans="1:36">
+      <c r="AJ71" s="23"/>
+      <c r="AK71" s="11"/>
+    </row>
+    <row r="72" spans="1:37">
       <c r="A72" s="9">
         <v>44615</v>
       </c>
@@ -6465,7 +6619,7 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="15"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -6494,9 +6648,10 @@
       <c r="AF72" s="36"/>
       <c r="AG72" s="44"/>
       <c r="AI72" s="23"/>
-      <c r="AJ72" s="11"/>
-    </row>
-    <row r="73" spans="1:36">
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="11"/>
+    </row>
+    <row r="73" spans="1:37">
       <c r="A73" s="9">
         <v>44616</v>
       </c>
@@ -6504,7 +6659,7 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="15"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -6533,9 +6688,10 @@
       <c r="AF73" s="36"/>
       <c r="AG73" s="44"/>
       <c r="AI73" s="23"/>
-      <c r="AJ73" s="11"/>
-    </row>
-    <row r="74" spans="1:36">
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="11"/>
+    </row>
+    <row r="74" spans="1:37">
       <c r="A74" s="9">
         <v>44617</v>
       </c>
@@ -6543,7 +6699,7 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="15"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -6572,9 +6728,10 @@
       <c r="AF74" s="36"/>
       <c r="AG74" s="44"/>
       <c r="AI74" s="23"/>
-      <c r="AJ74" s="11"/>
-    </row>
-    <row r="75" spans="1:36">
+      <c r="AJ74" s="23"/>
+      <c r="AK74" s="11"/>
+    </row>
+    <row r="75" spans="1:37">
       <c r="A75" s="9">
         <v>44618</v>
       </c>
@@ -6582,7 +6739,7 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="15"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -6611,9 +6768,10 @@
       <c r="AF75" s="36"/>
       <c r="AG75" s="44"/>
       <c r="AI75" s="23"/>
-      <c r="AJ75" s="11"/>
-    </row>
-    <row r="76" spans="1:36">
+      <c r="AJ75" s="23"/>
+      <c r="AK75" s="11"/>
+    </row>
+    <row r="76" spans="1:37">
       <c r="A76" s="9">
         <v>44619</v>
       </c>
@@ -6621,7 +6779,7 @@
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="15"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -6650,9 +6808,10 @@
       <c r="AF76" s="36"/>
       <c r="AG76" s="44"/>
       <c r="AI76" s="23"/>
-      <c r="AJ76" s="11"/>
-    </row>
-    <row r="77" spans="1:36">
+      <c r="AJ76" s="23"/>
+      <c r="AK76" s="11"/>
+    </row>
+    <row r="77" spans="1:37">
       <c r="A77" s="9">
         <v>44620</v>
       </c>
@@ -6660,7 +6819,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="15"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -6689,9 +6848,10 @@
       <c r="AF77" s="36"/>
       <c r="AG77" s="44"/>
       <c r="AI77" s="23"/>
-      <c r="AJ77" s="11"/>
-    </row>
-    <row r="78" spans="1:36">
+      <c r="AJ77" s="23"/>
+      <c r="AK77" s="11"/>
+    </row>
+    <row r="78" spans="1:37">
       <c r="A78" s="9">
         <v>44621</v>
       </c>
@@ -6699,7 +6859,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="15"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -6728,9 +6888,10 @@
       <c r="AF78" s="36"/>
       <c r="AG78" s="44"/>
       <c r="AI78" s="23"/>
-      <c r="AJ78" s="11"/>
-    </row>
-    <row r="79" spans="1:36">
+      <c r="AJ78" s="23"/>
+      <c r="AK78" s="11"/>
+    </row>
+    <row r="79" spans="1:37">
       <c r="A79" s="9">
         <v>44622</v>
       </c>
@@ -6738,7 +6899,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="15"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -6767,9 +6928,10 @@
       <c r="AF79" s="36"/>
       <c r="AG79" s="44"/>
       <c r="AI79" s="23"/>
-      <c r="AJ79" s="11"/>
-    </row>
-    <row r="80" spans="1:36">
+      <c r="AJ79" s="23"/>
+      <c r="AK79" s="11"/>
+    </row>
+    <row r="80" spans="1:37">
       <c r="A80" s="9">
         <v>44623</v>
       </c>
@@ -6777,7 +6939,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="15"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -6806,9 +6968,10 @@
       <c r="AF80" s="36"/>
       <c r="AG80" s="44"/>
       <c r="AI80" s="23"/>
-      <c r="AJ80" s="11"/>
-    </row>
-    <row r="81" spans="1:36">
+      <c r="AJ80" s="23"/>
+      <c r="AK80" s="11"/>
+    </row>
+    <row r="81" spans="1:37">
       <c r="A81" s="9">
         <v>44624</v>
       </c>
@@ -6816,7 +6979,7 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="15"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -6845,9 +7008,10 @@
       <c r="AF81" s="36"/>
       <c r="AG81" s="44"/>
       <c r="AI81" s="23"/>
-      <c r="AJ81" s="11"/>
-    </row>
-    <row r="82" spans="1:36">
+      <c r="AJ81" s="23"/>
+      <c r="AK81" s="11"/>
+    </row>
+    <row r="82" spans="1:37">
       <c r="A82" s="9">
         <v>44625</v>
       </c>
@@ -6855,7 +7019,7 @@
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="15"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -6884,9 +7048,10 @@
       <c r="AF82" s="36"/>
       <c r="AG82" s="44"/>
       <c r="AI82" s="23"/>
-      <c r="AJ82" s="11"/>
-    </row>
-    <row r="83" spans="1:36">
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="11"/>
+    </row>
+    <row r="83" spans="1:37">
       <c r="A83" s="9">
         <v>44626</v>
       </c>
@@ -6894,7 +7059,7 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="15"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -6923,9 +7088,10 @@
       <c r="AF83" s="36"/>
       <c r="AG83" s="44"/>
       <c r="AI83" s="23"/>
-      <c r="AJ83" s="11"/>
-    </row>
-    <row r="84" spans="1:36">
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="11"/>
+    </row>
+    <row r="84" spans="1:37">
       <c r="A84" s="9">
         <v>44627</v>
       </c>
@@ -6933,7 +7099,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="15"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -6962,9 +7128,10 @@
       <c r="AF84" s="36"/>
       <c r="AG84" s="44"/>
       <c r="AI84" s="23"/>
-      <c r="AJ84" s="11"/>
-    </row>
-    <row r="85" spans="1:36">
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="11"/>
+    </row>
+    <row r="85" spans="1:37">
       <c r="A85" s="9">
         <v>44628</v>
       </c>
@@ -6972,7 +7139,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="15"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -7001,9 +7168,10 @@
       <c r="AF85" s="36"/>
       <c r="AG85" s="44"/>
       <c r="AI85" s="23"/>
-      <c r="AJ85" s="11"/>
-    </row>
-    <row r="86" spans="1:36">
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="11"/>
+    </row>
+    <row r="86" spans="1:37">
       <c r="A86" s="9">
         <v>44629</v>
       </c>
@@ -7011,7 +7179,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="15"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -7040,9 +7208,10 @@
       <c r="AF86" s="36"/>
       <c r="AG86" s="44"/>
       <c r="AI86" s="23"/>
-      <c r="AJ86" s="11"/>
-    </row>
-    <row r="87" spans="1:36">
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="11"/>
+    </row>
+    <row r="87" spans="1:37">
       <c r="A87" s="9">
         <v>44630</v>
       </c>
@@ -7050,7 +7219,7 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="15"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -7079,9 +7248,10 @@
       <c r="AF87" s="36"/>
       <c r="AG87" s="44"/>
       <c r="AI87" s="23"/>
-      <c r="AJ87" s="11"/>
-    </row>
-    <row r="88" spans="1:36">
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="11"/>
+    </row>
+    <row r="88" spans="1:37">
       <c r="A88" s="9">
         <v>44631</v>
       </c>
@@ -7089,7 +7259,7 @@
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="15"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -7118,9 +7288,10 @@
       <c r="AF88" s="36"/>
       <c r="AG88" s="44"/>
       <c r="AI88" s="23"/>
-      <c r="AJ88" s="11"/>
-    </row>
-    <row r="89" spans="1:36">
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="11"/>
+    </row>
+    <row r="89" spans="1:37">
       <c r="A89" s="9">
         <v>44632</v>
       </c>
@@ -7128,7 +7299,7 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="15"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -7157,9 +7328,10 @@
       <c r="AF89" s="36"/>
       <c r="AG89" s="44"/>
       <c r="AI89" s="23"/>
-      <c r="AJ89" s="11"/>
-    </row>
-    <row r="90" spans="1:36">
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="11"/>
+    </row>
+    <row r="90" spans="1:37">
       <c r="A90" s="9">
         <v>44633</v>
       </c>
@@ -7167,7 +7339,7 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="15"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -7196,9 +7368,10 @@
       <c r="AF90" s="36"/>
       <c r="AG90" s="44"/>
       <c r="AI90" s="23"/>
-      <c r="AJ90" s="11"/>
-    </row>
-    <row r="91" spans="1:36">
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="11"/>
+    </row>
+    <row r="91" spans="1:37">
       <c r="A91" s="9">
         <v>44634</v>
       </c>
@@ -7206,7 +7379,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="15"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -7235,9 +7408,10 @@
       <c r="AF91" s="36"/>
       <c r="AG91" s="44"/>
       <c r="AI91" s="23"/>
-      <c r="AJ91" s="11"/>
-    </row>
-    <row r="92" spans="1:36">
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="11"/>
+    </row>
+    <row r="92" spans="1:37">
       <c r="A92" s="9">
         <v>44635</v>
       </c>
@@ -7245,7 +7419,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="15"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -7274,9 +7448,10 @@
       <c r="AF92" s="36"/>
       <c r="AG92" s="44"/>
       <c r="AI92" s="23"/>
-      <c r="AJ92" s="11"/>
-    </row>
-    <row r="93" spans="1:36">
+      <c r="AJ92" s="23"/>
+      <c r="AK92" s="11"/>
+    </row>
+    <row r="93" spans="1:37">
       <c r="A93" s="9">
         <v>44636</v>
       </c>
@@ -7284,7 +7459,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="15"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -7313,9 +7488,10 @@
       <c r="AF93" s="36"/>
       <c r="AG93" s="44"/>
       <c r="AI93" s="23"/>
-      <c r="AJ93" s="11"/>
-    </row>
-    <row r="94" spans="1:36">
+      <c r="AJ93" s="23"/>
+      <c r="AK93" s="11"/>
+    </row>
+    <row r="94" spans="1:37">
       <c r="A94" s="9">
         <v>44637</v>
       </c>
@@ -7323,7 +7499,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="15"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -7352,9 +7528,10 @@
       <c r="AF94" s="36"/>
       <c r="AG94" s="44"/>
       <c r="AI94" s="23"/>
-      <c r="AJ94" s="11"/>
-    </row>
-    <row r="95" spans="1:36">
+      <c r="AJ94" s="23"/>
+      <c r="AK94" s="11"/>
+    </row>
+    <row r="95" spans="1:37">
       <c r="A95" s="9">
         <v>44638</v>
       </c>
@@ -7362,7 +7539,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="15"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -7391,9 +7568,10 @@
       <c r="AF95" s="36"/>
       <c r="AG95" s="44"/>
       <c r="AI95" s="23"/>
-      <c r="AJ95" s="11"/>
-    </row>
-    <row r="96" spans="1:36">
+      <c r="AJ95" s="23"/>
+      <c r="AK95" s="11"/>
+    </row>
+    <row r="96" spans="1:37">
       <c r="A96" s="9">
         <v>44639</v>
       </c>
@@ -7401,7 +7579,7 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="15"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -7430,9 +7608,10 @@
       <c r="AF96" s="36"/>
       <c r="AG96" s="44"/>
       <c r="AI96" s="23"/>
-      <c r="AJ96" s="11"/>
-    </row>
-    <row r="97" spans="1:36">
+      <c r="AJ96" s="23"/>
+      <c r="AK96" s="11"/>
+    </row>
+    <row r="97" spans="1:37">
       <c r="A97" s="9">
         <v>44640</v>
       </c>
@@ -7440,7 +7619,7 @@
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="15"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -7469,9 +7648,10 @@
       <c r="AF97" s="36"/>
       <c r="AG97" s="44"/>
       <c r="AI97" s="23"/>
-      <c r="AJ97" s="11"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="AJ97" s="23"/>
+      <c r="AK97" s="11"/>
+    </row>
+    <row r="98" spans="1:37">
       <c r="A98" s="9">
         <v>44641</v>
       </c>
@@ -7479,7 +7659,7 @@
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="15"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -7508,9 +7688,10 @@
       <c r="AF98" s="36"/>
       <c r="AG98" s="44"/>
       <c r="AI98" s="23"/>
-      <c r="AJ98" s="11"/>
-    </row>
-    <row r="99" spans="1:36">
+      <c r="AJ98" s="23"/>
+      <c r="AK98" s="11"/>
+    </row>
+    <row r="99" spans="1:37">
       <c r="A99" s="9">
         <v>44642</v>
       </c>
@@ -7518,7 +7699,7 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="15"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -7547,9 +7728,10 @@
       <c r="AF99" s="36"/>
       <c r="AG99" s="44"/>
       <c r="AI99" s="23"/>
-      <c r="AJ99" s="11"/>
-    </row>
-    <row r="100" spans="1:36">
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="11"/>
+    </row>
+    <row r="100" spans="1:37">
       <c r="A100" s="9">
         <v>44643</v>
       </c>
@@ -7557,7 +7739,7 @@
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="15"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -7586,9 +7768,10 @@
       <c r="AF100" s="36"/>
       <c r="AG100" s="44"/>
       <c r="AI100" s="23"/>
-      <c r="AJ100" s="11"/>
-    </row>
-    <row r="101" spans="1:36">
+      <c r="AJ100" s="23"/>
+      <c r="AK100" s="11"/>
+    </row>
+    <row r="101" spans="1:37">
       <c r="A101" s="9">
         <v>44644</v>
       </c>
@@ -7596,7 +7779,7 @@
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="15"/>
+      <c r="F101" s="14"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -7625,9 +7808,10 @@
       <c r="AF101" s="36"/>
       <c r="AG101" s="44"/>
       <c r="AI101" s="23"/>
-      <c r="AJ101" s="11"/>
-    </row>
-    <row r="102" spans="1:36">
+      <c r="AJ101" s="23"/>
+      <c r="AK101" s="11"/>
+    </row>
+    <row r="102" spans="1:37">
       <c r="A102" s="9">
         <v>44645</v>
       </c>
@@ -7635,7 +7819,7 @@
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="15"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -7664,9 +7848,10 @@
       <c r="AF102" s="36"/>
       <c r="AG102" s="44"/>
       <c r="AI102" s="23"/>
-      <c r="AJ102" s="11"/>
-    </row>
-    <row r="103" spans="1:36">
+      <c r="AJ102" s="23"/>
+      <c r="AK102" s="11"/>
+    </row>
+    <row r="103" spans="1:37">
       <c r="A103" s="9">
         <v>44646</v>
       </c>
@@ -7674,7 +7859,7 @@
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="15"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -7703,9 +7888,10 @@
       <c r="AF103" s="36"/>
       <c r="AG103" s="44"/>
       <c r="AI103" s="23"/>
-      <c r="AJ103" s="11"/>
-    </row>
-    <row r="104" spans="1:36">
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="11"/>
+    </row>
+    <row r="104" spans="1:37">
       <c r="A104" s="9">
         <v>44647</v>
       </c>
@@ -7713,7 +7899,7 @@
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="15"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -7742,9 +7928,10 @@
       <c r="AF104" s="36"/>
       <c r="AG104" s="44"/>
       <c r="AI104" s="23"/>
-      <c r="AJ104" s="11"/>
-    </row>
-    <row r="105" spans="1:36">
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="11"/>
+    </row>
+    <row r="105" spans="1:37">
       <c r="A105" s="9">
         <v>44648</v>
       </c>
@@ -7752,7 +7939,7 @@
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="15"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -7781,9 +7968,10 @@
       <c r="AF105" s="36"/>
       <c r="AG105" s="44"/>
       <c r="AI105" s="23"/>
-      <c r="AJ105" s="11"/>
-    </row>
-    <row r="106" spans="1:36">
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="11"/>
+    </row>
+    <row r="106" spans="1:37">
       <c r="A106" s="9">
         <v>44649</v>
       </c>
@@ -7791,7 +7979,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
-      <c r="F106" s="15"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -7820,7 +8008,8 @@
       <c r="AF106" s="36"/>
       <c r="AG106" s="44"/>
       <c r="AI106" s="23"/>
-      <c r="AJ106" s="11"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="11"/>
     </row>
     <row r="107" spans="1:34">
       <c r="A107" s="2"/>
@@ -7828,7 +8017,6 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="45"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="J107" s="2"/>
@@ -7843,7 +8031,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="AH107" s="46"/>
+      <c r="AH107" s="47"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>
@@ -7851,7 +8039,6 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="45"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="J108" s="2"/>
@@ -7873,7 +8060,6 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="45"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="J109" s="2"/>
@@ -7895,7 +8081,6 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="45"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="J110" s="2"/>
@@ -7917,7 +8102,6 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="45"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="J111" s="2"/>
@@ -7939,7 +8123,6 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="45"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="J112" s="2"/>
@@ -7961,7 +8144,6 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="45"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="J113" s="2"/>
@@ -7983,7 +8165,6 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="45"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="J114" s="2"/>
@@ -8005,7 +8186,6 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="45"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="J115" s="2"/>
@@ -8027,7 +8207,6 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="45"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="J116" s="2"/>
@@ -8049,7 +8228,6 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="45"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="J117" s="2"/>
@@ -8071,7 +8249,6 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="45"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="J118" s="2"/>
@@ -8093,7 +8270,6 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="45"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="J119" s="2"/>
@@ -8115,7 +8291,6 @@
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="45"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="J120" s="2"/>
@@ -8137,7 +8312,6 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="45"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="J121" s="2"/>
@@ -8159,7 +8333,6 @@
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="45"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="J122" s="2"/>
@@ -8181,7 +8354,6 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="45"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="J123" s="2"/>
@@ -8203,7 +8375,6 @@
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="45"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="J124" s="2"/>
@@ -8225,7 +8396,6 @@
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="45"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="J125" s="2"/>
@@ -8247,7 +8417,6 @@
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="45"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
@@ -8269,7 +8438,6 @@
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="45"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="J127" s="2"/>
@@ -8291,7 +8459,6 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="45"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="J128" s="2"/>
@@ -8313,7 +8480,6 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="45"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="J129" s="2"/>
@@ -8335,7 +8501,6 @@
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="45"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="J130" s="2"/>
@@ -8357,7 +8522,6 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="45"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="J131" s="2"/>
@@ -8379,7 +8543,6 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="45"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="J132" s="2"/>
@@ -8401,7 +8564,6 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="45"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="J133" s="2"/>
@@ -8423,7 +8585,6 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="45"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="J134" s="2"/>
@@ -8445,7 +8606,6 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="45"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="J135" s="2"/>
@@ -8467,7 +8627,6 @@
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="45"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="J136" s="2"/>
@@ -8489,7 +8648,6 @@
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="45"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="2"/>
@@ -8511,7 +8669,6 @@
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="45"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
@@ -8533,7 +8690,6 @@
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="45"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="J139" s="2"/>
@@ -8555,7 +8711,6 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="45"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2"/>
@@ -8577,7 +8732,6 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="45"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2"/>
@@ -8599,7 +8753,6 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="45"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="J142" s="2"/>
@@ -8621,7 +8774,6 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="45"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="J143" s="2"/>
@@ -8643,7 +8795,6 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="45"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="J144" s="2"/>
@@ -8665,7 +8816,6 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="45"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="J145" s="2"/>
@@ -8687,7 +8837,6 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="45"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="J146" s="2"/>
@@ -8709,7 +8858,6 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="45"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="J147" s="2"/>
@@ -8731,7 +8879,6 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="45"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
@@ -8753,7 +8900,6 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="F149" s="45"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
@@ -8775,7 +8921,6 @@
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="45"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
@@ -8797,7 +8942,6 @@
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="45"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
@@ -8819,7 +8963,6 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="45"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
@@ -8841,7 +8984,6 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="45"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
@@ -8863,7 +9005,6 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="45"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
@@ -8885,7 +9026,6 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="45"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
@@ -8907,7 +9047,6 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="45"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
@@ -8929,7 +9068,6 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="45"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
@@ -8951,7 +9089,6 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="45"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
@@ -8973,7 +9110,6 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="45"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
@@ -8995,7 +9131,6 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="45"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
@@ -9017,7 +9152,6 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="45"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
@@ -9039,7 +9173,6 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="45"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="J162" s="2"/>
@@ -9061,7 +9194,6 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="45"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="J163" s="2"/>
@@ -9083,7 +9215,6 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="45"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="J164" s="2"/>
@@ -9105,7 +9236,6 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="45"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="J165" s="2"/>
@@ -9127,7 +9257,6 @@
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="45"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
@@ -9149,7 +9278,6 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="45"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
@@ -9171,7 +9299,6 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="45"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
@@ -9193,7 +9320,6 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="45"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="J169" s="2"/>
@@ -9215,7 +9341,6 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="45"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
@@ -9237,7 +9362,6 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="45"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
@@ -9259,7 +9383,6 @@
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="45"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
@@ -9281,7 +9404,6 @@
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="45"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
@@ -9303,7 +9425,6 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="45"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
@@ -9325,7 +9446,6 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="45"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
@@ -9347,7 +9467,6 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="45"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="J176" s="2"/>
@@ -9369,7 +9488,6 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="45"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="J177" s="2"/>
@@ -9391,7 +9509,6 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="45"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
@@ -9413,7 +9530,6 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="45"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
@@ -9435,7 +9551,6 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="45"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
@@ -9457,7 +9572,6 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="45"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
@@ -9479,7 +9593,6 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="45"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
@@ -9501,7 +9614,6 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="45"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
@@ -9523,7 +9635,6 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="45"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
@@ -9545,7 +9656,6 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="45"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
@@ -9567,7 +9677,6 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="45"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
@@ -9589,7 +9698,6 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="45"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
@@ -9611,7 +9719,6 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="45"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
@@ -9633,7 +9740,6 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="45"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
@@ -9655,7 +9761,6 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="45"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
@@ -9677,7 +9782,6 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="45"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
@@ -9699,7 +9803,6 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="45"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
@@ -9721,7 +9824,6 @@
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="45"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
@@ -9743,7 +9845,6 @@
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-      <c r="F194" s="45"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
@@ -9765,7 +9866,6 @@
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="45"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="J195" s="2"/>
@@ -9787,7 +9887,6 @@
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="45"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
@@ -9809,7 +9908,6 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="45"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
@@ -9831,7 +9929,6 @@
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
-      <c r="F198" s="45"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
@@ -9853,7 +9950,6 @@
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
-      <c r="F199" s="45"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
@@ -9875,7 +9971,6 @@
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="45"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="J200" s="2"/>
@@ -9897,7 +9992,6 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="45"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="J201" s="2"/>
@@ -9919,7 +10013,6 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="45"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
@@ -9941,7 +10034,6 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="45"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
@@ -9963,7 +10055,6 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="45"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
@@ -9985,7 +10076,6 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="45"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
@@ -10007,7 +10097,6 @@
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="45"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="J206" s="2"/>
@@ -10029,7 +10118,6 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="45"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="J207" s="2"/>
@@ -10051,7 +10139,6 @@
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="45"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="J208" s="2"/>
@@ -10073,7 +10160,6 @@
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="45"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
@@ -10095,7 +10181,6 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="45"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
@@ -10117,7 +10202,6 @@
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
-      <c r="F211" s="45"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
@@ -10139,7 +10223,6 @@
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-      <c r="F212" s="45"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="J212" s="2"/>
@@ -10161,7 +10244,6 @@
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
-      <c r="F213" s="45"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="J213" s="2"/>
@@ -10183,7 +10265,6 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
-      <c r="F214" s="45"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="J214" s="2"/>
@@ -10205,7 +10286,6 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
-      <c r="F215" s="45"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
@@ -10227,7 +10307,6 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
-      <c r="F216" s="45"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
@@ -10249,7 +10328,6 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="45"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
@@ -10271,7 +10349,6 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
-      <c r="F218" s="45"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="J218" s="2"/>
@@ -10293,7 +10370,6 @@
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="45"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="J219" s="2"/>
@@ -10315,7 +10391,6 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="45"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="J220" s="2"/>
@@ -10337,7 +10412,6 @@
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="45"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
@@ -10359,7 +10433,6 @@
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="45"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
@@ -10381,7 +10454,6 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="45"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
@@ -10403,7 +10475,6 @@
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="45"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="J224" s="2"/>
@@ -10425,7 +10496,6 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="45"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="J225" s="2"/>
@@ -10447,7 +10517,6 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="45"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="J226" s="2"/>
@@ -10469,7 +10538,6 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="45"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
@@ -10491,7 +10559,6 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="45"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
@@ -10513,7 +10580,6 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="45"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
@@ -10535,7 +10601,6 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="45"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="J230" s="2"/>
@@ -10557,7 +10622,6 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="45"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
@@ -10579,7 +10643,6 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="45"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="J232" s="2"/>
@@ -10601,7 +10664,6 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="45"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
@@ -10623,7 +10685,6 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="45"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="J234" s="2"/>
@@ -10645,7 +10706,6 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="45"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
@@ -10667,7 +10727,6 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="45"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="J236" s="2"/>
@@ -10689,7 +10748,6 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="45"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
@@ -10711,7 +10769,6 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="45"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="J238" s="2"/>
@@ -10733,7 +10790,6 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="45"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="J239" s="2"/>
@@ -10755,7 +10811,6 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="45"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="J240" s="2"/>
@@ -10777,7 +10832,6 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="45"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="J241" s="2"/>
@@ -10799,7 +10853,6 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="45"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="J242" s="2"/>
@@ -10821,7 +10874,6 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="45"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -10843,7 +10895,6 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="45"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="J244" s="2"/>
@@ -10865,7 +10916,6 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="45"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="J245" s="2"/>
@@ -10887,7 +10937,6 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="45"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="J246" s="2"/>
@@ -10909,7 +10958,6 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="45"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="J247" s="2"/>
@@ -10931,7 +10979,6 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="45"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="J248" s="2"/>
@@ -10953,7 +11000,6 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="45"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="J249" s="2"/>
@@ -10975,7 +11021,6 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="45"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="J250" s="2"/>
@@ -10997,7 +11042,6 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="45"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="J251" s="2"/>
@@ -11019,7 +11063,6 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="45"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="J252" s="2"/>
@@ -11041,7 +11084,6 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="45"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="J253" s="2"/>
@@ -11063,7 +11105,6 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="45"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="J254" s="2"/>
@@ -11085,7 +11126,6 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-      <c r="F255" s="45"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="J255" s="2"/>
@@ -11107,7 +11147,6 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
-      <c r="F256" s="45"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="J256" s="2"/>
@@ -11129,7 +11168,6 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
-      <c r="F257" s="45"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="J257" s="2"/>
@@ -11151,7 +11189,6 @@
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
-      <c r="F258" s="45"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="J258" s="2"/>
@@ -11173,7 +11210,6 @@
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
-      <c r="F259" s="45"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="J259" s="2"/>
@@ -11195,7 +11231,6 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="45"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="J260" s="2"/>
@@ -11217,7 +11252,6 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="45"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="J261" s="2"/>
@@ -11239,7 +11273,6 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
-      <c r="F262" s="45"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
@@ -11261,7 +11294,6 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="45"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
@@ -11283,7 +11315,6 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="45"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="J264" s="2"/>
@@ -11305,7 +11336,6 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="45"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="J265" s="2"/>
@@ -11327,7 +11357,6 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="45"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="J266" s="2"/>
@@ -11349,7 +11378,6 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="45"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="J267" s="2"/>
@@ -11371,7 +11399,6 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="45"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="J268" s="2"/>
@@ -11393,7 +11420,6 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="45"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="J269" s="2"/>
@@ -11415,7 +11441,6 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="45"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="J270" s="2"/>
@@ -11437,7 +11462,6 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="45"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="J271" s="2"/>
@@ -11459,7 +11483,6 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="45"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="J272" s="2"/>
@@ -11481,7 +11504,6 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="45"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -11503,7 +11525,6 @@
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="45"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -11525,7 +11546,6 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="45"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="J275" s="2"/>
@@ -11547,7 +11567,6 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="45"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="J276" s="2"/>
@@ -11569,7 +11588,6 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="45"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="J277" s="2"/>
@@ -11591,7 +11609,6 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="45"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="J278" s="2"/>
@@ -11613,7 +11630,6 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="45"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="J279" s="2"/>
@@ -11635,7 +11651,6 @@
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="45"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="J280" s="2"/>
@@ -11657,7 +11672,6 @@
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="45"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="J281" s="2"/>
@@ -11679,7 +11693,6 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="45"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="J282" s="2"/>
@@ -11701,7 +11714,6 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="45"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="J283" s="2"/>
@@ -11723,7 +11735,6 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="45"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="J284" s="2"/>
@@ -11745,7 +11756,6 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="45"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="J285" s="2"/>
@@ -11767,7 +11777,6 @@
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
-      <c r="F286" s="45"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="J286" s="2"/>
@@ -11789,7 +11798,6 @@
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
-      <c r="F287" s="45"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2"/>
@@ -11811,7 +11819,6 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="45"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="J288" s="2"/>
@@ -11833,7 +11840,6 @@
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="45"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="J289" s="2"/>
@@ -11855,7 +11861,6 @@
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
-      <c r="F290" s="45"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="J290" s="2"/>
@@ -11877,7 +11882,6 @@
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
-      <c r="F291" s="45"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2"/>
@@ -11899,7 +11903,6 @@
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
-      <c r="F292" s="45"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
@@ -11921,7 +11924,6 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="45"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="J293" s="2"/>
@@ -11943,7 +11945,6 @@
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="45"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="J294" s="2"/>
@@ -11965,7 +11966,6 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="45"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="J295" s="2"/>
@@ -11987,7 +11987,6 @@
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
-      <c r="F296" s="45"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="J296" s="2"/>
@@ -12009,7 +12008,6 @@
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
-      <c r="F297" s="45"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="J297" s="2"/>
@@ -12031,7 +12029,6 @@
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="45"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
@@ -12053,7 +12050,6 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="45"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="J299" s="2"/>
@@ -12075,7 +12071,6 @@
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
-      <c r="F300" s="45"/>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
@@ -12097,7 +12092,6 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="45"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="J301" s="2"/>
@@ -12119,7 +12113,6 @@
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
-      <c r="F302" s="45"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="J302" s="2"/>
@@ -12141,7 +12134,6 @@
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
-      <c r="F303" s="45"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="J303" s="2"/>
@@ -12163,7 +12155,6 @@
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="45"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="J304" s="2"/>
@@ -12185,7 +12176,6 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="45"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2"/>
@@ -12207,7 +12197,6 @@
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
-      <c r="F306" s="45"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="J306" s="2"/>
@@ -12229,7 +12218,6 @@
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
-      <c r="F307" s="45"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="J307" s="2"/>
@@ -12251,7 +12239,6 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="45"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="J308" s="2"/>
@@ -12273,7 +12260,6 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="45"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2"/>
@@ -12295,7 +12281,6 @@
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
-      <c r="F310" s="45"/>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="J310" s="2"/>
@@ -12317,7 +12302,6 @@
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="45"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="J311" s="2"/>
@@ -12339,7 +12323,6 @@
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="45"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
@@ -12361,7 +12344,6 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="45"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="J313" s="2"/>
@@ -12383,7 +12365,6 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
-      <c r="F314" s="45"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="J314" s="2"/>
@@ -12405,7 +12386,6 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
-      <c r="F315" s="45"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="J315" s="2"/>
@@ -12427,7 +12407,6 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="45"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="J316" s="2"/>
@@ -12449,7 +12428,6 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="45"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="J317" s="2"/>
@@ -12471,7 +12449,6 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="45"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="J318" s="2"/>
@@ -12493,7 +12470,6 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="45"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="J319" s="2"/>
@@ -12515,7 +12491,6 @@
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="45"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="J320" s="2"/>
@@ -12537,7 +12512,6 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="45"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="J321" s="2"/>
@@ -12559,7 +12533,6 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="45"/>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="J322" s="2"/>
@@ -12581,7 +12554,6 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
-      <c r="F323" s="45"/>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="J323" s="2"/>
@@ -12603,7 +12575,6 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="45"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="J324" s="2"/>
@@ -12625,7 +12596,6 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
-      <c r="F325" s="45"/>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="J325" s="2"/>
@@ -12647,7 +12617,6 @@
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="45"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="J326" s="2"/>
@@ -12669,7 +12638,6 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="45"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="J327" s="2"/>
@@ -12691,7 +12659,6 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="45"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="J328" s="2"/>
@@ -12713,7 +12680,6 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="45"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="J329" s="2"/>
@@ -12735,7 +12701,6 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="45"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="J330" s="2"/>
@@ -12757,7 +12722,6 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="45"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
@@ -12779,7 +12743,6 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="45"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>
@@ -12801,7 +12764,6 @@
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="45"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="J333" s="2"/>
@@ -12823,7 +12785,6 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
-      <c r="F334" s="45"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="J334" s="2"/>
@@ -12845,7 +12806,6 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
-      <c r="F335" s="45"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="J335" s="2"/>
@@ -12867,7 +12827,6 @@
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="45"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="J336" s="2"/>
@@ -12889,7 +12848,6 @@
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="45"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="J337" s="2"/>
@@ -12911,7 +12869,6 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="45"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="J338" s="2"/>
@@ -12933,7 +12890,6 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="45"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="J339" s="2"/>
@@ -12955,7 +12911,6 @@
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="45"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="J340" s="2"/>
@@ -12977,7 +12932,6 @@
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="45"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="J341" s="2"/>
@@ -12999,7 +12953,6 @@
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
-      <c r="F342" s="45"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="J342" s="2"/>
@@ -13021,7 +12974,6 @@
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
-      <c r="F343" s="45"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="J343" s="2"/>
@@ -13043,7 +12995,6 @@
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="45"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="J344" s="2"/>
@@ -13065,7 +13016,6 @@
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="45"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="J345" s="2"/>
@@ -13087,7 +13037,6 @@
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
-      <c r="F346" s="45"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="J346" s="2"/>
@@ -13109,7 +13058,6 @@
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
-      <c r="F347" s="45"/>
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="J347" s="2"/>
@@ -13131,7 +13079,6 @@
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
-      <c r="F348" s="45"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="J348" s="2"/>
@@ -13153,7 +13100,6 @@
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
-      <c r="F349" s="45"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="J349" s="2"/>
@@ -13175,7 +13121,6 @@
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
-      <c r="F350" s="45"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="J350" s="2"/>
@@ -13197,7 +13142,6 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
-      <c r="F351" s="45"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="J351" s="2"/>
@@ -13219,7 +13163,6 @@
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
-      <c r="F352" s="45"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="J352" s="2"/>
@@ -13241,7 +13184,6 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="45"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="J353" s="2"/>
@@ -13263,7 +13205,6 @@
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="45"/>
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="J354" s="2"/>
@@ -13285,7 +13226,6 @@
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
-      <c r="F355" s="45"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="J355" s="2"/>
@@ -13307,7 +13247,6 @@
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
-      <c r="F356" s="45"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="J356" s="2"/>
@@ -13329,7 +13268,6 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
-      <c r="F357" s="45"/>
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="J357" s="2"/>
@@ -13351,7 +13289,6 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
-      <c r="F358" s="45"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="J358" s="2"/>
@@ -13373,7 +13310,6 @@
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
-      <c r="F359" s="45"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="J359" s="2"/>
@@ -13395,7 +13331,6 @@
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
-      <c r="F360" s="45"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="J360" s="2"/>
@@ -13417,7 +13352,6 @@
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
-      <c r="F361" s="45"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="J361" s="2"/>
@@ -13439,7 +13373,6 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
-      <c r="F362" s="45"/>
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="J362" s="2"/>
@@ -13461,7 +13394,6 @@
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
-      <c r="F363" s="45"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="J363" s="2"/>
@@ -13483,7 +13415,6 @@
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
-      <c r="F364" s="45"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="J364" s="2"/>
@@ -13505,7 +13436,6 @@
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
-      <c r="F365" s="45"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="J365" s="2"/>
@@ -13527,7 +13457,6 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
-      <c r="F366" s="45"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="J366" s="2"/>
@@ -13549,7 +13478,6 @@
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
-      <c r="F367" s="45"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="J367" s="2"/>
@@ -13571,7 +13499,6 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="45"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="J368" s="2"/>
@@ -13593,7 +13520,6 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="45"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="J369" s="2"/>
@@ -13615,7 +13541,6 @@
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
-      <c r="F370" s="45"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="J370" s="2"/>
@@ -13637,7 +13562,6 @@
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
-      <c r="F371" s="45"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="J371" s="2"/>
@@ -13659,7 +13583,6 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
-      <c r="F372" s="45"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="J372" s="2"/>
@@ -13681,7 +13604,6 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
-      <c r="F373" s="45"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="J373" s="2"/>
@@ -13703,7 +13625,6 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="45"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="J374" s="2"/>
@@ -13725,7 +13646,6 @@
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="45"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="J375" s="2"/>
@@ -13747,7 +13667,6 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="45"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="J376" s="2"/>
@@ -13769,7 +13688,6 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
-      <c r="F377" s="45"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="J377" s="2"/>
@@ -13791,7 +13709,6 @@
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
-      <c r="F378" s="45"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="J378" s="2"/>
@@ -13813,7 +13730,6 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
-      <c r="F379" s="45"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="J379" s="2"/>
@@ -13835,7 +13751,6 @@
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
-      <c r="F380" s="45"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="J380" s="2"/>
@@ -13857,7 +13772,6 @@
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
-      <c r="F381" s="45"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="J381" s="2"/>
@@ -13879,7 +13793,6 @@
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
-      <c r="F382" s="45"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="J382" s="2"/>
@@ -13901,7 +13814,6 @@
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
-      <c r="F383" s="45"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="J383" s="2"/>
@@ -13923,7 +13835,6 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
-      <c r="F384" s="45"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="J384" s="2"/>
@@ -13945,7 +13856,6 @@
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
-      <c r="F385" s="45"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="J385" s="2"/>
@@ -13967,7 +13877,6 @@
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
-      <c r="F386" s="45"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="J386" s="2"/>
@@ -13989,7 +13898,6 @@
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
-      <c r="F387" s="45"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="J387" s="2"/>
@@ -14011,7 +13919,6 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
-      <c r="F388" s="45"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="J388" s="2"/>
@@ -14033,7 +13940,6 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
-      <c r="F389" s="45"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="J389" s="2"/>
@@ -14055,7 +13961,6 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
-      <c r="F390" s="45"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="J390" s="2"/>
@@ -14077,7 +13982,6 @@
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
-      <c r="F391" s="45"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="J391" s="2"/>
@@ -14099,7 +14003,6 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
-      <c r="F392" s="45"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="J392" s="2"/>
@@ -14121,7 +14024,6 @@
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
-      <c r="F393" s="45"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="J393" s="2"/>
@@ -14143,7 +14045,6 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
-      <c r="F394" s="45"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="J394" s="2"/>
@@ -14165,7 +14066,6 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
-      <c r="F395" s="45"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="J395" s="2"/>
@@ -14187,7 +14087,6 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
-      <c r="F396" s="45"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="J396" s="2"/>
@@ -14209,7 +14108,6 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
-      <c r="F397" s="45"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="J397" s="2"/>
@@ -14231,7 +14129,6 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
-      <c r="F398" s="45"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="J398" s="2"/>
@@ -14253,7 +14150,6 @@
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
-      <c r="F399" s="45"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="J399" s="2"/>
@@ -14275,7 +14171,6 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
-      <c r="F400" s="45"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="J400" s="2"/>
@@ -14297,7 +14192,6 @@
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
-      <c r="F401" s="45"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="J401" s="2"/>
@@ -14319,7 +14213,6 @@
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
-      <c r="F402" s="45"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="J402" s="2"/>
@@ -14341,7 +14234,6 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
-      <c r="F403" s="45"/>
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="J403" s="2"/>
@@ -14363,7 +14255,6 @@
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
-      <c r="F404" s="45"/>
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="J404" s="2"/>
@@ -14385,7 +14276,6 @@
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
-      <c r="F405" s="45"/>
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="J405" s="2"/>
@@ -14407,7 +14297,6 @@
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
-      <c r="F406" s="45"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="J406" s="2"/>
@@ -14429,7 +14318,6 @@
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
-      <c r="F407" s="45"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="J407" s="2"/>
@@ -14451,7 +14339,6 @@
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
-      <c r="F408" s="45"/>
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="J408" s="2"/>
@@ -14473,7 +14360,6 @@
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
-      <c r="F409" s="45"/>
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="J409" s="2"/>
@@ -14495,7 +14381,6 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
-      <c r="F410" s="45"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="J410" s="2"/>
@@ -14517,7 +14402,6 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
-      <c r="F411" s="45"/>
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="J411" s="2"/>
@@ -14539,7 +14423,6 @@
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
-      <c r="F412" s="45"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="J412" s="2"/>
@@ -14561,7 +14444,6 @@
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
-      <c r="F413" s="45"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="J413" s="2"/>
@@ -14583,7 +14465,6 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
-      <c r="F414" s="45"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="J414" s="2"/>
@@ -14605,7 +14486,6 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
-      <c r="F415" s="45"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="J415" s="2"/>
@@ -14627,7 +14507,6 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
-      <c r="F416" s="45"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="J416" s="2"/>
@@ -14649,7 +14528,6 @@
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
-      <c r="F417" s="45"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="J417" s="2"/>
@@ -14671,7 +14549,6 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
-      <c r="F418" s="45"/>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="J418" s="2"/>
@@ -14693,7 +14570,6 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
-      <c r="F419" s="45"/>
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="J419" s="2"/>
@@ -14715,7 +14591,6 @@
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
-      <c r="F420" s="45"/>
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="J420" s="2"/>
@@ -14737,7 +14612,6 @@
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
-      <c r="F421" s="45"/>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="J421" s="2"/>
@@ -14759,7 +14633,6 @@
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
-      <c r="F422" s="45"/>
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="J422" s="2"/>
@@ -14781,7 +14654,6 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
-      <c r="F423" s="45"/>
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="J423" s="2"/>
@@ -14803,7 +14675,6 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
-      <c r="F424" s="45"/>
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="J424" s="2"/>
@@ -14825,7 +14696,6 @@
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
-      <c r="F425" s="45"/>
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="J425" s="2"/>
@@ -14847,7 +14717,6 @@
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
-      <c r="F426" s="45"/>
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="J426" s="2"/>
@@ -14869,7 +14738,6 @@
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
-      <c r="F427" s="45"/>
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="J427" s="2"/>
@@ -14891,7 +14759,6 @@
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
-      <c r="F428" s="45"/>
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="J428" s="2"/>
@@ -14913,7 +14780,6 @@
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
-      <c r="F429" s="45"/>
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="J429" s="2"/>
@@ -14935,7 +14801,6 @@
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
-      <c r="F430" s="45"/>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="J430" s="2"/>
@@ -14957,7 +14822,6 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
-      <c r="F431" s="45"/>
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="J431" s="2"/>
@@ -14979,7 +14843,6 @@
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
-      <c r="F432" s="45"/>
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="J432" s="2"/>
@@ -15001,7 +14864,6 @@
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
-      <c r="F433" s="45"/>
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="J433" s="2"/>
@@ -15023,7 +14885,6 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
-      <c r="F434" s="45"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="J434" s="2"/>
@@ -15045,7 +14906,6 @@
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
-      <c r="F435" s="45"/>
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="J435" s="2"/>
@@ -15067,7 +14927,6 @@
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
-      <c r="F436" s="45"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="J436" s="2"/>
@@ -15089,7 +14948,6 @@
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
-      <c r="F437" s="45"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="J437" s="2"/>
@@ -15111,7 +14969,6 @@
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
-      <c r="F438" s="45"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="J438" s="2"/>
@@ -15133,7 +14990,6 @@
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
-      <c r="F439" s="45"/>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="J439" s="2"/>
@@ -15155,7 +15011,6 @@
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
-      <c r="F440" s="45"/>
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="J440" s="2"/>
@@ -15177,7 +15032,6 @@
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
-      <c r="F441" s="45"/>
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="J441" s="2"/>
@@ -15199,7 +15053,6 @@
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
-      <c r="F442" s="45"/>
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="J442" s="2"/>
@@ -15221,7 +15074,6 @@
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
-      <c r="F443" s="45"/>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="J443" s="2"/>
@@ -15243,7 +15095,6 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
-      <c r="F444" s="45"/>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="J444" s="2"/>
@@ -15265,7 +15116,6 @@
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
-      <c r="F445" s="45"/>
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="J445" s="2"/>
@@ -15287,7 +15137,6 @@
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
-      <c r="F446" s="45"/>
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="J446" s="2"/>
@@ -15309,7 +15158,6 @@
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
-      <c r="F447" s="45"/>
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="J447" s="2"/>
@@ -15331,7 +15179,6 @@
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
-      <c r="F448" s="45"/>
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="J448" s="2"/>
@@ -15353,7 +15200,6 @@
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
-      <c r="F449" s="45"/>
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="J449" s="2"/>
@@ -15375,7 +15221,6 @@
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
-      <c r="F450" s="45"/>
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="J450" s="2"/>
@@ -15397,7 +15242,6 @@
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
-      <c r="F451" s="45"/>
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="J451" s="2"/>
@@ -15419,7 +15263,6 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
-      <c r="F452" s="45"/>
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="J452" s="2"/>
@@ -15441,7 +15284,6 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
-      <c r="F453" s="45"/>
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="J453" s="2"/>
@@ -15463,7 +15305,6 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
-      <c r="F454" s="45"/>
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="J454" s="2"/>
@@ -15485,7 +15326,6 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
-      <c r="F455" s="45"/>
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="J455" s="2"/>
@@ -15507,7 +15347,6 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
-      <c r="F456" s="45"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="J456" s="2"/>
@@ -15529,7 +15368,6 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
-      <c r="F457" s="45"/>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="J457" s="2"/>
@@ -15551,7 +15389,6 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
-      <c r="F458" s="45"/>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="J458" s="2"/>
@@ -15573,7 +15410,6 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
-      <c r="F459" s="45"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="J459" s="2"/>
@@ -15595,7 +15431,6 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
-      <c r="F460" s="45"/>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="J460" s="2"/>
@@ -15617,7 +15452,6 @@
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
-      <c r="F461" s="45"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="J461" s="2"/>
@@ -15639,7 +15473,6 @@
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
-      <c r="F462" s="45"/>
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="J462" s="2"/>
@@ -15661,7 +15494,6 @@
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
-      <c r="F463" s="45"/>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="J463" s="2"/>
@@ -15683,7 +15515,6 @@
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
-      <c r="F464" s="45"/>
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="J464" s="2"/>
@@ -15705,7 +15536,6 @@
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
-      <c r="F465" s="45"/>
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="J465" s="2"/>
@@ -15727,7 +15557,6 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
-      <c r="F466" s="45"/>
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="J466" s="2"/>
@@ -15749,7 +15578,6 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
-      <c r="F467" s="45"/>
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="J467" s="2"/>
@@ -15771,7 +15599,6 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
-      <c r="F468" s="45"/>
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="J468" s="2"/>
@@ -15793,7 +15620,6 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
-      <c r="F469" s="45"/>
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="J469" s="2"/>
@@ -15815,7 +15641,6 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
-      <c r="F470" s="45"/>
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="J470" s="2"/>
@@ -15837,7 +15662,6 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
-      <c r="F471" s="45"/>
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="J471" s="2"/>
@@ -15859,7 +15683,6 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
-      <c r="F472" s="45"/>
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="J472" s="2"/>
@@ -15881,7 +15704,6 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
-      <c r="F473" s="45"/>
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="J473" s="2"/>
@@ -15903,7 +15725,6 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
-      <c r="F474" s="45"/>
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="J474" s="2"/>
@@ -15925,7 +15746,6 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
-      <c r="F475" s="45"/>
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="J475" s="2"/>
@@ -15947,7 +15767,6 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
-      <c r="F476" s="45"/>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="J476" s="2"/>
@@ -15969,7 +15788,6 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
-      <c r="F477" s="45"/>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="J477" s="2"/>
@@ -15986,7 +15804,7 @@
       <c r="Y477" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -16018,6 +15836,7 @@
     <mergeCell ref="AH1:AH5"/>
     <mergeCell ref="AI1:AI5"/>
     <mergeCell ref="AJ1:AJ5"/>
+    <mergeCell ref="AK1:AK5"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="L1:Q2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -179,15 +179,15 @@
   </si>
   <si>
     <t>动量M
-(2周内上涨天数达到25%)</t>
+(15个交易日内上涨天数达到25%)</t>
   </si>
   <si>
     <t>交易量V
-(2周内上涨交易量达到25%)</t>
+(15个交易日内上涨交易量达到25%)</t>
   </si>
   <si>
     <t>价格P
-(2内涨幅达到20%)</t>
+(15个交易日内涨幅达到20%)</t>
   </si>
   <si>
     <r>
@@ -3263,11 +3263,11 @@
   <dimension ref="A1:AK477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1:AJ5"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3544,7 +3544,7 @@
       <c r="AJ4" s="42"/>
       <c r="AK4" s="20"/>
     </row>
-    <row r="5" ht="53" spans="1:37">
+    <row r="5" ht="71" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4189,7 +4189,7 @@
         <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <f>(B12-B11)/B11</f>
         <v>0.05475234270415</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -243,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -306,7 +306,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +335,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,29 +355,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,24 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,8 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,16 +411,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +454,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,7 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,103 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,19 +571,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,13 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,13 +661,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +747,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,7 +756,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,32 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,176 +831,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,7 +994,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,19 +1009,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,7 +1084,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1105,13 +1099,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1123,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3270,7 +3261,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM5" sqref="AM5"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3305,8 +3296,7 @@
     <col min="29" max="29" width="22.0178571428571" style="2" customWidth="1"/>
     <col min="30" max="30" width="26.4821428571429" customWidth="1"/>
     <col min="31" max="31" width="24.5446428571429" customWidth="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1"/>
-    <col min="33" max="34" width="18.75" customWidth="1"/>
+    <col min="32" max="34" width="18.75" customWidth="1"/>
     <col min="35" max="35" width="10.5625" style="2" customWidth="1"/>
     <col min="36" max="36" width="11" style="4" customWidth="1"/>
     <col min="37" max="37" width="15.4732142857143" style="2" customWidth="1"/>
@@ -3355,19 +3345,19 @@
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
       <c r="AF1" s="27"/>
-      <c r="AG1" s="40" t="s">
+      <c r="AG1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AH1" s="39" t="s">
         <v>6</v>
       </c>
       <c r="AI1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AK1" s="45" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3404,10 +3394,10 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
       <c r="AF2" s="27"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="40"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="39"/>
       <c r="AI2" s="23"/>
-      <c r="AJ2" s="41"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="19"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:37">
@@ -3479,10 +3469,10 @@
         <v>27</v>
       </c>
       <c r="AF3" s="23"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="39"/>
       <c r="AI3" s="23"/>
-      <c r="AJ3" s="41"/>
+      <c r="AJ3" s="40"/>
       <c r="AK3" s="19"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:37">
@@ -3540,10 +3530,10 @@
       <c r="AF4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="39"/>
       <c r="AI4" s="23"/>
-      <c r="AJ4" s="41"/>
+      <c r="AJ4" s="40"/>
       <c r="AK4" s="19"/>
     </row>
     <row r="5" ht="71" spans="1:37">
@@ -3597,10 +3587,10 @@
       <c r="AD5" s="29"/>
       <c r="AE5" s="23"/>
       <c r="AF5" s="37"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="40"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="23"/>
-      <c r="AJ5" s="41"/>
+      <c r="AJ5" s="40"/>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:37">
@@ -3632,7 +3622,7 @@
         <v>33.78</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" ref="J6:J11" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="20">
@@ -3648,7 +3638,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="str">
-        <f t="shared" ref="U6:U11" si="1">IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U12" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="10" t="s">
@@ -3661,14 +3651,14 @@
         <v>2</v>
       </c>
       <c r="Y6" s="34">
-        <f t="shared" ref="Y6:Y11" si="2">$I6/$I$6</f>
+        <f t="shared" ref="Y6:Y12" si="2">$I6/$I$6</f>
         <v>1</v>
       </c>
       <c r="Z6" s="35"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="38">
-        <f t="shared" ref="AC6:AC11" si="3">D6-E6</f>
+        <f t="shared" ref="AC6:AC12" si="3">D6-E6</f>
         <v>5.73</v>
       </c>
       <c r="AD6" s="35"/>
@@ -3678,11 +3668,11 @@
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.00447876447876458</v>
       </c>
-      <c r="AH6" s="43" t="str">
+      <c r="AH6" s="42" t="str">
         <f>IF(AG6-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI6" s="44">
+      <c r="AI6" s="43">
         <v>59.29</v>
       </c>
       <c r="AJ6" s="4">
@@ -3726,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="20">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K12" si="4">(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
       <c r="L7" s="21"/>
@@ -3769,11 +3759,11 @@
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.0949806949806951</v>
       </c>
-      <c r="AH7" s="43" t="str">
+      <c r="AH7" s="42" t="str">
         <f>IF(AG7-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI7" s="44">
+      <c r="AI7" s="43">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AI6)</f>
         <v>59.29</v>
       </c>
@@ -3818,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="4"/>
         <v>0.0166431593794075</v>
       </c>
       <c r="L8" s="10"/>
@@ -3850,7 +3840,7 @@
       <c r="Z8" s="35"/>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
-      <c r="AC8" s="39">
+      <c r="AC8" s="21">
         <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
@@ -3861,11 +3851,11 @@
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.113204633204633</v>
       </c>
-      <c r="AH8" s="43" t="str">
+      <c r="AH8" s="42" t="str">
         <f>IF(AG8-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI8" s="44">
+      <c r="AI8" s="43">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AI7)</f>
         <v>59.29</v>
       </c>
@@ -3910,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="22">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="4"/>
         <v>0.00360710321864602</v>
       </c>
       <c r="L9" s="10"/>
@@ -3942,7 +3932,7 @@
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
-      <c r="AC9" s="39">
+      <c r="AC9" s="21">
         <f t="shared" si="3"/>
         <v>3.62</v>
       </c>
@@ -3953,11 +3943,11 @@
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.117220077220077</v>
       </c>
-      <c r="AH9" s="43" t="str">
+      <c r="AH9" s="42" t="str">
         <f>IF(AG9-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI9" s="44">
+      <c r="AI9" s="43">
         <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AI8)</f>
         <v>59.29</v>
       </c>
@@ -4002,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="22">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="4"/>
         <v>0.00248824993088184</v>
       </c>
       <c r="L10" s="10"/>
@@ -4040,7 +4030,7 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
-      <c r="AC10" s="39">
+      <c r="AC10" s="21">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -4051,11 +4041,11 @@
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.12</v>
       </c>
-      <c r="AH10" s="43" t="str">
+      <c r="AH10" s="42" t="str">
         <f>IF(AG10-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI10" s="44">
+      <c r="AI10" s="43">
         <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AI9)</f>
         <v>59.29</v>
       </c>
@@ -4100,7 +4090,7 @@
         <v>-1</v>
       </c>
       <c r="K11" s="22">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="4"/>
         <v>0.0300606729178159</v>
       </c>
       <c r="L11" s="10"/>
@@ -4143,11 +4133,11 @@
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.153667953667954</v>
       </c>
-      <c r="AH11" s="43" t="str">
+      <c r="AH11" s="42" t="str">
         <f>IF(AG11-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI11" s="44">
+      <c r="AI11" s="43">
         <f>IF(AND(H11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,H11&gt;H10),H11,AI10)</f>
         <v>59.29</v>
       </c>
@@ -4188,11 +4178,11 @@
         <v>41.06</v>
       </c>
       <c r="J12" s="19">
-        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K12" s="20">
-        <f>(B12-B11)/B11</f>
+        <f t="shared" si="4"/>
         <v>0.05475234270415</v>
       </c>
       <c r="L12" s="10"/>
@@ -4207,7 +4197,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="str">
-        <f>IF(B12&lt;G12,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V12" s="10" t="s">
@@ -4220,14 +4210,14 @@
         <v>2</v>
       </c>
       <c r="Y12" s="34">
-        <f>$I12/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.21551213735938</v>
       </c>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35"/>
       <c r="AB12" s="35"/>
       <c r="AC12" s="21">
-        <f>D12-E12</f>
+        <f t="shared" si="3"/>
         <v>6.34</v>
       </c>
       <c r="AD12" s="35"/>
@@ -4241,7 +4231,7 @@
         <f>IF(AG12-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AI12" s="44">
+      <c r="AI12" s="43">
         <f>IF(AND(H12-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,H12&gt;H11),H12,AI11)</f>
         <v>59.29</v>
       </c>
@@ -4288,9 +4278,9 @@
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="43"/>
       <c r="AK13" s="10"/>
     </row>
     <row r="14" spans="1:37">
@@ -4328,9 +4318,9 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="43"/>
       <c r="AK14" s="10"/>
     </row>
     <row r="15" spans="1:37">
@@ -4368,9 +4358,9 @@
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="43"/>
       <c r="AK15" s="10"/>
     </row>
     <row r="16" spans="1:37">
@@ -4408,9 +4398,9 @@
       <c r="AD16" s="35"/>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="43"/>
       <c r="AK16" s="10"/>
     </row>
     <row r="17" spans="1:37">
@@ -4448,9 +4438,9 @@
       <c r="AD17" s="35"/>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="43"/>
       <c r="AK17" s="10"/>
     </row>
     <row r="18" spans="1:37">
@@ -4488,9 +4478,9 @@
       <c r="AD18" s="35"/>
       <c r="AE18" s="35"/>
       <c r="AF18" s="35"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="43"/>
       <c r="AK18" s="10"/>
     </row>
     <row r="19" spans="1:37">
@@ -4528,9 +4518,9 @@
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="43"/>
       <c r="AK19" s="10"/>
     </row>
     <row r="20" spans="1:37">
@@ -4568,9 +4558,9 @@
       <c r="AD20" s="35"/>
       <c r="AE20" s="35"/>
       <c r="AF20" s="35"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="43"/>
       <c r="AK20" s="10"/>
     </row>
     <row r="21" spans="1:37">
@@ -4608,9 +4598,9 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="43"/>
       <c r="AK21" s="10"/>
     </row>
     <row r="22" spans="1:37">
@@ -4648,9 +4638,9 @@
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="43"/>
       <c r="AK22" s="10"/>
     </row>
     <row r="23" spans="1:37">
@@ -4688,9 +4678,9 @@
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="43"/>
       <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37">
@@ -4728,9 +4718,9 @@
       <c r="AD24" s="35"/>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="43"/>
       <c r="AK24" s="10"/>
     </row>
     <row r="25" spans="1:37">
@@ -4768,9 +4758,9 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="43"/>
       <c r="AK25" s="10"/>
     </row>
     <row r="26" spans="1:37">
@@ -4808,9 +4798,9 @@
       <c r="AD26" s="35"/>
       <c r="AE26" s="35"/>
       <c r="AF26" s="35"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="43"/>
       <c r="AK26" s="10"/>
     </row>
     <row r="27" spans="1:37">
@@ -4848,9 +4838,9 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
       <c r="AF27" s="35"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="43"/>
       <c r="AK27" s="10"/>
     </row>
     <row r="28" spans="1:37">
@@ -4888,9 +4878,9 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="43"/>
       <c r="AK28" s="10"/>
     </row>
     <row r="29" spans="1:37">
@@ -4928,9 +4918,9 @@
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="43"/>
       <c r="AK29" s="10"/>
     </row>
     <row r="30" spans="1:37">
@@ -4968,9 +4958,9 @@
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="43"/>
       <c r="AK30" s="10"/>
     </row>
     <row r="31" spans="1:37">
@@ -5008,9 +4998,9 @@
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="43"/>
       <c r="AK31" s="10"/>
     </row>
     <row r="32" spans="1:37">
@@ -5048,9 +5038,9 @@
       <c r="AD32" s="35"/>
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="43"/>
       <c r="AK32" s="10"/>
     </row>
     <row r="33" spans="1:37">
@@ -5088,9 +5078,9 @@
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
       <c r="AF33" s="35"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="43"/>
       <c r="AK33" s="10"/>
     </row>
     <row r="34" spans="1:37">
@@ -5128,9 +5118,9 @@
       <c r="AD34" s="35"/>
       <c r="AE34" s="35"/>
       <c r="AF34" s="35"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="43"/>
       <c r="AK34" s="10"/>
     </row>
     <row r="35" spans="1:37">
@@ -5168,9 +5158,9 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="43"/>
       <c r="AK35" s="10"/>
     </row>
     <row r="36" spans="1:37">
@@ -5208,9 +5198,9 @@
       <c r="AD36" s="35"/>
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="43"/>
       <c r="AK36" s="10"/>
     </row>
     <row r="37" spans="1:37">
@@ -5248,9 +5238,9 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="43"/>
       <c r="AK37" s="10"/>
     </row>
     <row r="38" spans="1:37">
@@ -5288,9 +5278,9 @@
       <c r="AD38" s="35"/>
       <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="43"/>
       <c r="AK38" s="10"/>
     </row>
     <row r="39" spans="1:37">
@@ -5328,9 +5318,9 @@
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="43"/>
       <c r="AK39" s="10"/>
     </row>
     <row r="40" spans="1:37">
@@ -5368,9 +5358,9 @@
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
       <c r="AF40" s="35"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="43"/>
       <c r="AK40" s="10"/>
     </row>
     <row r="41" spans="1:37">
@@ -5408,9 +5398,9 @@
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="43"/>
       <c r="AK41" s="10"/>
     </row>
     <row r="42" spans="1:37">
@@ -5448,9 +5438,9 @@
       <c r="AD42" s="35"/>
       <c r="AE42" s="35"/>
       <c r="AF42" s="35"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="43"/>
       <c r="AK42" s="10"/>
     </row>
     <row r="43" spans="1:37">
@@ -5488,9 +5478,9 @@
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
       <c r="AF43" s="35"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="43"/>
       <c r="AK43" s="10"/>
     </row>
     <row r="44" spans="1:37">
@@ -5528,9 +5518,9 @@
       <c r="AD44" s="35"/>
       <c r="AE44" s="35"/>
       <c r="AF44" s="35"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="43"/>
       <c r="AK44" s="10"/>
     </row>
     <row r="45" spans="1:37">
@@ -5568,9 +5558,9 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
       <c r="AF45" s="35"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="45"/>
-      <c r="AI45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="43"/>
       <c r="AK45" s="10"/>
     </row>
     <row r="46" spans="1:37">
@@ -5608,9 +5598,9 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
       <c r="AF46" s="35"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
-      <c r="AI46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="43"/>
       <c r="AK46" s="10"/>
     </row>
     <row r="47" spans="1:37">
@@ -5648,9 +5638,9 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
       <c r="AF47" s="35"/>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="45"/>
-      <c r="AI47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="43"/>
       <c r="AK47" s="10"/>
     </row>
     <row r="48" spans="1:37">
@@ -5688,9 +5678,9 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
       <c r="AF48" s="35"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="43"/>
       <c r="AK48" s="10"/>
     </row>
     <row r="49" spans="1:37">
@@ -5728,9 +5718,9 @@
       <c r="AD49" s="35"/>
       <c r="AE49" s="35"/>
       <c r="AF49" s="35"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="43"/>
       <c r="AK49" s="10"/>
     </row>
     <row r="50" spans="1:37">
@@ -5768,9 +5758,9 @@
       <c r="AD50" s="35"/>
       <c r="AE50" s="35"/>
       <c r="AF50" s="35"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="43"/>
       <c r="AK50" s="10"/>
     </row>
     <row r="51" spans="1:37">
@@ -5808,9 +5798,9 @@
       <c r="AD51" s="35"/>
       <c r="AE51" s="35"/>
       <c r="AF51" s="35"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="43"/>
       <c r="AK51" s="10"/>
     </row>
     <row r="52" spans="1:37">
@@ -5848,9 +5838,9 @@
       <c r="AD52" s="35"/>
       <c r="AE52" s="35"/>
       <c r="AF52" s="35"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="43"/>
       <c r="AK52" s="10"/>
     </row>
     <row r="53" spans="1:37">
@@ -5888,9 +5878,9 @@
       <c r="AD53" s="35"/>
       <c r="AE53" s="35"/>
       <c r="AF53" s="35"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="45"/>
-      <c r="AI53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="43"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:37">
@@ -5928,9 +5918,9 @@
       <c r="AD54" s="35"/>
       <c r="AE54" s="35"/>
       <c r="AF54" s="35"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="43"/>
       <c r="AK54" s="10"/>
     </row>
     <row r="55" spans="1:37">
@@ -5968,9 +5958,9 @@
       <c r="AD55" s="35"/>
       <c r="AE55" s="35"/>
       <c r="AF55" s="35"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="45"/>
-      <c r="AI55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="43"/>
       <c r="AK55" s="10"/>
     </row>
     <row r="56" spans="1:37">
@@ -6008,9 +5998,9 @@
       <c r="AD56" s="35"/>
       <c r="AE56" s="35"/>
       <c r="AF56" s="35"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="43"/>
       <c r="AK56" s="10"/>
     </row>
     <row r="57" spans="1:37">
@@ -6048,9 +6038,9 @@
       <c r="AD57" s="35"/>
       <c r="AE57" s="35"/>
       <c r="AF57" s="35"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45"/>
-      <c r="AI57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="43"/>
       <c r="AK57" s="10"/>
     </row>
     <row r="58" spans="1:37">
@@ -6088,9 +6078,9 @@
       <c r="AD58" s="35"/>
       <c r="AE58" s="35"/>
       <c r="AF58" s="35"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="43"/>
       <c r="AK58" s="10"/>
     </row>
     <row r="59" spans="1:37">
@@ -6128,9 +6118,9 @@
       <c r="AD59" s="35"/>
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
-      <c r="AG59" s="45"/>
-      <c r="AH59" s="45"/>
-      <c r="AI59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="43"/>
       <c r="AK59" s="10"/>
     </row>
     <row r="60" spans="1:37">
@@ -6168,9 +6158,9 @@
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="43"/>
       <c r="AK60" s="10"/>
     </row>
     <row r="61" spans="1:37">
@@ -6208,9 +6198,9 @@
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
       <c r="AF61" s="35"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="45"/>
-      <c r="AI61" s="44"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="44"/>
+      <c r="AI61" s="43"/>
       <c r="AK61" s="10"/>
     </row>
     <row r="62" spans="1:37">
@@ -6248,9 +6238,9 @@
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
-      <c r="AG62" s="45"/>
-      <c r="AH62" s="45"/>
-      <c r="AI62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="43"/>
       <c r="AK62" s="10"/>
     </row>
     <row r="63" spans="1:37">
@@ -6288,9 +6278,9 @@
       <c r="AD63" s="35"/>
       <c r="AE63" s="35"/>
       <c r="AF63" s="35"/>
-      <c r="AG63" s="45"/>
-      <c r="AH63" s="45"/>
-      <c r="AI63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="43"/>
       <c r="AK63" s="10"/>
     </row>
     <row r="64" spans="1:37">
@@ -6328,9 +6318,9 @@
       <c r="AD64" s="35"/>
       <c r="AE64" s="35"/>
       <c r="AF64" s="35"/>
-      <c r="AG64" s="45"/>
-      <c r="AH64" s="45"/>
-      <c r="AI64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="43"/>
       <c r="AK64" s="10"/>
     </row>
     <row r="65" spans="1:37">
@@ -6368,9 +6358,9 @@
       <c r="AD65" s="35"/>
       <c r="AE65" s="35"/>
       <c r="AF65" s="35"/>
-      <c r="AG65" s="45"/>
-      <c r="AH65" s="45"/>
-      <c r="AI65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
+      <c r="AI65" s="43"/>
       <c r="AK65" s="10"/>
     </row>
     <row r="66" spans="1:37">
@@ -6408,9 +6398,9 @@
       <c r="AD66" s="35"/>
       <c r="AE66" s="35"/>
       <c r="AF66" s="35"/>
-      <c r="AG66" s="45"/>
-      <c r="AH66" s="45"/>
-      <c r="AI66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="44"/>
+      <c r="AI66" s="43"/>
       <c r="AK66" s="10"/>
     </row>
     <row r="67" spans="1:37">
@@ -6448,9 +6438,9 @@
       <c r="AD67" s="35"/>
       <c r="AE67" s="35"/>
       <c r="AF67" s="35"/>
-      <c r="AG67" s="45"/>
-      <c r="AH67" s="45"/>
-      <c r="AI67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="44"/>
+      <c r="AI67" s="43"/>
       <c r="AK67" s="10"/>
     </row>
     <row r="68" spans="1:37">
@@ -6488,9 +6478,9 @@
       <c r="AD68" s="35"/>
       <c r="AE68" s="35"/>
       <c r="AF68" s="35"/>
-      <c r="AG68" s="45"/>
-      <c r="AH68" s="45"/>
-      <c r="AI68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="44"/>
+      <c r="AI68" s="43"/>
       <c r="AK68" s="10"/>
     </row>
     <row r="69" spans="1:37">
@@ -6528,9 +6518,9 @@
       <c r="AD69" s="35"/>
       <c r="AE69" s="35"/>
       <c r="AF69" s="35"/>
-      <c r="AG69" s="45"/>
-      <c r="AH69" s="45"/>
-      <c r="AI69" s="44"/>
+      <c r="AG69" s="44"/>
+      <c r="AH69" s="44"/>
+      <c r="AI69" s="43"/>
       <c r="AK69" s="10"/>
     </row>
     <row r="70" spans="1:37">
@@ -6568,9 +6558,9 @@
       <c r="AD70" s="35"/>
       <c r="AE70" s="35"/>
       <c r="AF70" s="35"/>
-      <c r="AG70" s="45"/>
-      <c r="AH70" s="45"/>
-      <c r="AI70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="43"/>
       <c r="AK70" s="10"/>
     </row>
     <row r="71" spans="1:37">
@@ -6608,9 +6598,9 @@
       <c r="AD71" s="35"/>
       <c r="AE71" s="35"/>
       <c r="AF71" s="35"/>
-      <c r="AG71" s="45"/>
-      <c r="AH71" s="45"/>
-      <c r="AI71" s="44"/>
+      <c r="AG71" s="44"/>
+      <c r="AH71" s="44"/>
+      <c r="AI71" s="43"/>
       <c r="AK71" s="10"/>
     </row>
     <row r="72" spans="1:37">
@@ -6648,9 +6638,9 @@
       <c r="AD72" s="35"/>
       <c r="AE72" s="35"/>
       <c r="AF72" s="35"/>
-      <c r="AG72" s="45"/>
-      <c r="AH72" s="45"/>
-      <c r="AI72" s="44"/>
+      <c r="AG72" s="44"/>
+      <c r="AH72" s="44"/>
+      <c r="AI72" s="43"/>
       <c r="AK72" s="10"/>
     </row>
     <row r="73" spans="1:37">
@@ -6688,9 +6678,9 @@
       <c r="AD73" s="35"/>
       <c r="AE73" s="35"/>
       <c r="AF73" s="35"/>
-      <c r="AG73" s="45"/>
-      <c r="AH73" s="45"/>
-      <c r="AI73" s="44"/>
+      <c r="AG73" s="44"/>
+      <c r="AH73" s="44"/>
+      <c r="AI73" s="43"/>
       <c r="AK73" s="10"/>
     </row>
     <row r="74" spans="1:37">
@@ -6728,9 +6718,9 @@
       <c r="AD74" s="35"/>
       <c r="AE74" s="35"/>
       <c r="AF74" s="35"/>
-      <c r="AG74" s="45"/>
-      <c r="AH74" s="45"/>
-      <c r="AI74" s="44"/>
+      <c r="AG74" s="44"/>
+      <c r="AH74" s="44"/>
+      <c r="AI74" s="43"/>
       <c r="AK74" s="10"/>
     </row>
     <row r="75" spans="1:37">
@@ -6768,9 +6758,9 @@
       <c r="AD75" s="35"/>
       <c r="AE75" s="35"/>
       <c r="AF75" s="35"/>
-      <c r="AG75" s="45"/>
-      <c r="AH75" s="45"/>
-      <c r="AI75" s="44"/>
+      <c r="AG75" s="44"/>
+      <c r="AH75" s="44"/>
+      <c r="AI75" s="43"/>
       <c r="AK75" s="10"/>
     </row>
     <row r="76" spans="1:37">
@@ -6808,9 +6798,9 @@
       <c r="AD76" s="35"/>
       <c r="AE76" s="35"/>
       <c r="AF76" s="35"/>
-      <c r="AG76" s="45"/>
-      <c r="AH76" s="45"/>
-      <c r="AI76" s="44"/>
+      <c r="AG76" s="44"/>
+      <c r="AH76" s="44"/>
+      <c r="AI76" s="43"/>
       <c r="AK76" s="10"/>
     </row>
     <row r="77" spans="1:37">
@@ -6848,9 +6838,9 @@
       <c r="AD77" s="35"/>
       <c r="AE77" s="35"/>
       <c r="AF77" s="35"/>
-      <c r="AG77" s="45"/>
-      <c r="AH77" s="45"/>
-      <c r="AI77" s="44"/>
+      <c r="AG77" s="44"/>
+      <c r="AH77" s="44"/>
+      <c r="AI77" s="43"/>
       <c r="AK77" s="10"/>
     </row>
     <row r="78" spans="1:37">
@@ -6888,9 +6878,9 @@
       <c r="AD78" s="35"/>
       <c r="AE78" s="35"/>
       <c r="AF78" s="35"/>
-      <c r="AG78" s="45"/>
-      <c r="AH78" s="45"/>
-      <c r="AI78" s="44"/>
+      <c r="AG78" s="44"/>
+      <c r="AH78" s="44"/>
+      <c r="AI78" s="43"/>
       <c r="AK78" s="10"/>
     </row>
     <row r="79" spans="1:37">
@@ -6928,9 +6918,9 @@
       <c r="AD79" s="35"/>
       <c r="AE79" s="35"/>
       <c r="AF79" s="35"/>
-      <c r="AG79" s="45"/>
-      <c r="AH79" s="45"/>
-      <c r="AI79" s="44"/>
+      <c r="AG79" s="44"/>
+      <c r="AH79" s="44"/>
+      <c r="AI79" s="43"/>
       <c r="AK79" s="10"/>
     </row>
     <row r="80" spans="1:37">
@@ -6968,9 +6958,9 @@
       <c r="AD80" s="35"/>
       <c r="AE80" s="35"/>
       <c r="AF80" s="35"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="44"/>
+      <c r="AG80" s="44"/>
+      <c r="AH80" s="44"/>
+      <c r="AI80" s="43"/>
       <c r="AK80" s="10"/>
     </row>
     <row r="81" spans="1:37">
@@ -7008,9 +6998,9 @@
       <c r="AD81" s="35"/>
       <c r="AE81" s="35"/>
       <c r="AF81" s="35"/>
-      <c r="AG81" s="45"/>
-      <c r="AH81" s="45"/>
-      <c r="AI81" s="44"/>
+      <c r="AG81" s="44"/>
+      <c r="AH81" s="44"/>
+      <c r="AI81" s="43"/>
       <c r="AK81" s="10"/>
     </row>
     <row r="82" spans="1:37">
@@ -7048,9 +7038,9 @@
       <c r="AD82" s="35"/>
       <c r="AE82" s="35"/>
       <c r="AF82" s="35"/>
-      <c r="AG82" s="45"/>
-      <c r="AH82" s="45"/>
-      <c r="AI82" s="44"/>
+      <c r="AG82" s="44"/>
+      <c r="AH82" s="44"/>
+      <c r="AI82" s="43"/>
       <c r="AK82" s="10"/>
     </row>
     <row r="83" spans="1:37">
@@ -7088,9 +7078,9 @@
       <c r="AD83" s="35"/>
       <c r="AE83" s="35"/>
       <c r="AF83" s="35"/>
-      <c r="AG83" s="45"/>
-      <c r="AH83" s="45"/>
-      <c r="AI83" s="44"/>
+      <c r="AG83" s="44"/>
+      <c r="AH83" s="44"/>
+      <c r="AI83" s="43"/>
       <c r="AK83" s="10"/>
     </row>
     <row r="84" spans="1:37">
@@ -7128,9 +7118,9 @@
       <c r="AD84" s="35"/>
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
-      <c r="AG84" s="45"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="44"/>
+      <c r="AG84" s="44"/>
+      <c r="AH84" s="44"/>
+      <c r="AI84" s="43"/>
       <c r="AK84" s="10"/>
     </row>
     <row r="85" spans="1:37">
@@ -7168,9 +7158,9 @@
       <c r="AD85" s="35"/>
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
-      <c r="AG85" s="45"/>
-      <c r="AH85" s="45"/>
-      <c r="AI85" s="44"/>
+      <c r="AG85" s="44"/>
+      <c r="AH85" s="44"/>
+      <c r="AI85" s="43"/>
       <c r="AK85" s="10"/>
     </row>
     <row r="86" spans="1:37">
@@ -7208,9 +7198,9 @@
       <c r="AD86" s="35"/>
       <c r="AE86" s="35"/>
       <c r="AF86" s="35"/>
-      <c r="AG86" s="45"/>
-      <c r="AH86" s="45"/>
-      <c r="AI86" s="44"/>
+      <c r="AG86" s="44"/>
+      <c r="AH86" s="44"/>
+      <c r="AI86" s="43"/>
       <c r="AK86" s="10"/>
     </row>
     <row r="87" spans="1:37">
@@ -7248,9 +7238,9 @@
       <c r="AD87" s="35"/>
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
-      <c r="AG87" s="45"/>
-      <c r="AH87" s="45"/>
-      <c r="AI87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AH87" s="44"/>
+      <c r="AI87" s="43"/>
       <c r="AK87" s="10"/>
     </row>
     <row r="88" spans="1:37">
@@ -7288,9 +7278,9 @@
       <c r="AD88" s="35"/>
       <c r="AE88" s="35"/>
       <c r="AF88" s="35"/>
-      <c r="AG88" s="45"/>
-      <c r="AH88" s="45"/>
-      <c r="AI88" s="44"/>
+      <c r="AG88" s="44"/>
+      <c r="AH88" s="44"/>
+      <c r="AI88" s="43"/>
       <c r="AK88" s="10"/>
     </row>
     <row r="89" spans="1:37">
@@ -7328,9 +7318,9 @@
       <c r="AD89" s="35"/>
       <c r="AE89" s="35"/>
       <c r="AF89" s="35"/>
-      <c r="AG89" s="45"/>
-      <c r="AH89" s="45"/>
-      <c r="AI89" s="44"/>
+      <c r="AG89" s="44"/>
+      <c r="AH89" s="44"/>
+      <c r="AI89" s="43"/>
       <c r="AK89" s="10"/>
     </row>
     <row r="90" spans="1:37">
@@ -7368,9 +7358,9 @@
       <c r="AD90" s="35"/>
       <c r="AE90" s="35"/>
       <c r="AF90" s="35"/>
-      <c r="AG90" s="45"/>
-      <c r="AH90" s="45"/>
-      <c r="AI90" s="44"/>
+      <c r="AG90" s="44"/>
+      <c r="AH90" s="44"/>
+      <c r="AI90" s="43"/>
       <c r="AK90" s="10"/>
     </row>
     <row r="91" spans="1:37">
@@ -7408,9 +7398,9 @@
       <c r="AD91" s="35"/>
       <c r="AE91" s="35"/>
       <c r="AF91" s="35"/>
-      <c r="AG91" s="45"/>
-      <c r="AH91" s="45"/>
-      <c r="AI91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="43"/>
       <c r="AK91" s="10"/>
     </row>
     <row r="92" spans="1:37">
@@ -7448,9 +7438,9 @@
       <c r="AD92" s="35"/>
       <c r="AE92" s="35"/>
       <c r="AF92" s="35"/>
-      <c r="AG92" s="45"/>
-      <c r="AH92" s="45"/>
-      <c r="AI92" s="44"/>
+      <c r="AG92" s="44"/>
+      <c r="AH92" s="44"/>
+      <c r="AI92" s="43"/>
       <c r="AK92" s="10"/>
     </row>
     <row r="93" spans="1:37">
@@ -7488,9 +7478,9 @@
       <c r="AD93" s="35"/>
       <c r="AE93" s="35"/>
       <c r="AF93" s="35"/>
-      <c r="AG93" s="45"/>
-      <c r="AH93" s="45"/>
-      <c r="AI93" s="44"/>
+      <c r="AG93" s="44"/>
+      <c r="AH93" s="44"/>
+      <c r="AI93" s="43"/>
       <c r="AK93" s="10"/>
     </row>
     <row r="94" spans="1:37">
@@ -7528,9 +7518,9 @@
       <c r="AD94" s="35"/>
       <c r="AE94" s="35"/>
       <c r="AF94" s="35"/>
-      <c r="AG94" s="45"/>
-      <c r="AH94" s="45"/>
-      <c r="AI94" s="44"/>
+      <c r="AG94" s="44"/>
+      <c r="AH94" s="44"/>
+      <c r="AI94" s="43"/>
       <c r="AK94" s="10"/>
     </row>
     <row r="95" spans="1:37">
@@ -7568,9 +7558,9 @@
       <c r="AD95" s="35"/>
       <c r="AE95" s="35"/>
       <c r="AF95" s="35"/>
-      <c r="AG95" s="45"/>
-      <c r="AH95" s="45"/>
-      <c r="AI95" s="44"/>
+      <c r="AG95" s="44"/>
+      <c r="AH95" s="44"/>
+      <c r="AI95" s="43"/>
       <c r="AK95" s="10"/>
     </row>
     <row r="96" spans="1:37">
@@ -7608,9 +7598,9 @@
       <c r="AD96" s="35"/>
       <c r="AE96" s="35"/>
       <c r="AF96" s="35"/>
-      <c r="AG96" s="45"/>
-      <c r="AH96" s="45"/>
-      <c r="AI96" s="44"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="43"/>
       <c r="AK96" s="10"/>
     </row>
     <row r="97" spans="1:37">
@@ -7648,9 +7638,9 @@
       <c r="AD97" s="35"/>
       <c r="AE97" s="35"/>
       <c r="AF97" s="35"/>
-      <c r="AG97" s="45"/>
-      <c r="AH97" s="45"/>
-      <c r="AI97" s="44"/>
+      <c r="AG97" s="44"/>
+      <c r="AH97" s="44"/>
+      <c r="AI97" s="43"/>
       <c r="AK97" s="10"/>
     </row>
     <row r="98" spans="1:37">
@@ -7688,9 +7678,9 @@
       <c r="AD98" s="35"/>
       <c r="AE98" s="35"/>
       <c r="AF98" s="35"/>
-      <c r="AG98" s="45"/>
-      <c r="AH98" s="45"/>
-      <c r="AI98" s="44"/>
+      <c r="AG98" s="44"/>
+      <c r="AH98" s="44"/>
+      <c r="AI98" s="43"/>
       <c r="AK98" s="10"/>
     </row>
     <row r="99" spans="1:37">
@@ -7728,9 +7718,9 @@
       <c r="AD99" s="35"/>
       <c r="AE99" s="35"/>
       <c r="AF99" s="35"/>
-      <c r="AG99" s="45"/>
-      <c r="AH99" s="45"/>
-      <c r="AI99" s="44"/>
+      <c r="AG99" s="44"/>
+      <c r="AH99" s="44"/>
+      <c r="AI99" s="43"/>
       <c r="AK99" s="10"/>
     </row>
     <row r="100" spans="1:37">
@@ -7768,9 +7758,9 @@
       <c r="AD100" s="35"/>
       <c r="AE100" s="35"/>
       <c r="AF100" s="35"/>
-      <c r="AG100" s="45"/>
-      <c r="AH100" s="45"/>
-      <c r="AI100" s="44"/>
+      <c r="AG100" s="44"/>
+      <c r="AH100" s="44"/>
+      <c r="AI100" s="43"/>
       <c r="AK100" s="10"/>
     </row>
     <row r="101" spans="1:37">
@@ -7808,9 +7798,9 @@
       <c r="AD101" s="35"/>
       <c r="AE101" s="35"/>
       <c r="AF101" s="35"/>
-      <c r="AG101" s="45"/>
-      <c r="AH101" s="45"/>
-      <c r="AI101" s="44"/>
+      <c r="AG101" s="44"/>
+      <c r="AH101" s="44"/>
+      <c r="AI101" s="43"/>
       <c r="AK101" s="10"/>
     </row>
     <row r="102" spans="1:37">
@@ -7848,9 +7838,9 @@
       <c r="AD102" s="35"/>
       <c r="AE102" s="35"/>
       <c r="AF102" s="35"/>
-      <c r="AG102" s="45"/>
-      <c r="AH102" s="45"/>
-      <c r="AI102" s="44"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="44"/>
+      <c r="AI102" s="43"/>
       <c r="AK102" s="10"/>
     </row>
     <row r="103" spans="1:37">
@@ -7888,9 +7878,9 @@
       <c r="AD103" s="35"/>
       <c r="AE103" s="35"/>
       <c r="AF103" s="35"/>
-      <c r="AG103" s="45"/>
-      <c r="AH103" s="45"/>
-      <c r="AI103" s="44"/>
+      <c r="AG103" s="44"/>
+      <c r="AH103" s="44"/>
+      <c r="AI103" s="43"/>
       <c r="AK103" s="10"/>
     </row>
     <row r="104" spans="1:37">
@@ -7928,9 +7918,9 @@
       <c r="AD104" s="35"/>
       <c r="AE104" s="35"/>
       <c r="AF104" s="35"/>
-      <c r="AG104" s="45"/>
-      <c r="AH104" s="45"/>
-      <c r="AI104" s="44"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="44"/>
+      <c r="AI104" s="43"/>
       <c r="AK104" s="10"/>
     </row>
     <row r="105" spans="1:37">
@@ -7968,9 +7958,9 @@
       <c r="AD105" s="35"/>
       <c r="AE105" s="35"/>
       <c r="AF105" s="35"/>
-      <c r="AG105" s="45"/>
-      <c r="AH105" s="45"/>
-      <c r="AI105" s="44"/>
+      <c r="AG105" s="44"/>
+      <c r="AH105" s="44"/>
+      <c r="AI105" s="43"/>
       <c r="AK105" s="10"/>
     </row>
     <row r="106" spans="1:37">
@@ -8008,9 +7998,9 @@
       <c r="AD106" s="35"/>
       <c r="AE106" s="35"/>
       <c r="AF106" s="35"/>
-      <c r="AG106" s="45"/>
-      <c r="AH106" s="45"/>
-      <c r="AI106" s="44"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="44"/>
+      <c r="AI106" s="43"/>
       <c r="AK106" s="10"/>
     </row>
     <row r="107" spans="1:36">
@@ -8022,7 +8012,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="47"/>
+      <c r="K107" s="46"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -8033,7 +8023,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="AJ107" s="48"/>
+      <c r="AJ107" s="47"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>
@@ -8044,7 +8034,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="47"/>
+      <c r="K108" s="46"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -8065,7 +8055,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="47"/>
+      <c r="K109" s="46"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -8086,7 +8076,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="47"/>
+      <c r="K110" s="46"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -8107,7 +8097,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="47"/>
+      <c r="K111" s="46"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -8128,7 +8118,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="47"/>
+      <c r="K112" s="46"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -8149,7 +8139,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="47"/>
+      <c r="K113" s="46"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -8170,7 +8160,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="47"/>
+      <c r="K114" s="46"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -8191,7 +8181,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="47"/>
+      <c r="K115" s="46"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -8212,7 +8202,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="47"/>
+      <c r="K116" s="46"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -8233,7 +8223,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="47"/>
+      <c r="K117" s="46"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -8254,7 +8244,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="47"/>
+      <c r="K118" s="46"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -8275,7 +8265,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="47"/>
+      <c r="K119" s="46"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -8296,7 +8286,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="47"/>
+      <c r="K120" s="46"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -8317,7 +8307,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="47"/>
+      <c r="K121" s="46"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -8338,7 +8328,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="47"/>
+      <c r="K122" s="46"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -8359,7 +8349,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="47"/>
+      <c r="K123" s="46"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -8380,7 +8370,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="47"/>
+      <c r="K124" s="46"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -8401,7 +8391,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="47"/>
+      <c r="K125" s="46"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -8422,7 +8412,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="47"/>
+      <c r="K126" s="46"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -8443,7 +8433,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="47"/>
+      <c r="K127" s="46"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -8464,7 +8454,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="47"/>
+      <c r="K128" s="46"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -8485,7 +8475,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="47"/>
+      <c r="K129" s="46"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -8506,7 +8496,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="47"/>
+      <c r="K130" s="46"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -8527,7 +8517,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="47"/>
+      <c r="K131" s="46"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -8548,7 +8538,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="47"/>
+      <c r="K132" s="46"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -8569,7 +8559,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="47"/>
+      <c r="K133" s="46"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -8590,7 +8580,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="47"/>
+      <c r="K134" s="46"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -8611,7 +8601,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="47"/>
+      <c r="K135" s="46"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -8632,7 +8622,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="47"/>
+      <c r="K136" s="46"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -8653,7 +8643,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="47"/>
+      <c r="K137" s="46"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -8674,7 +8664,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="47"/>
+      <c r="K138" s="46"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -8695,7 +8685,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="47"/>
+      <c r="K139" s="46"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -8716,7 +8706,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="47"/>
+      <c r="K140" s="46"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -8737,7 +8727,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="47"/>
+      <c r="K141" s="46"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -8758,7 +8748,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="47"/>
+      <c r="K142" s="46"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -8779,7 +8769,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="47"/>
+      <c r="K143" s="46"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -8800,7 +8790,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="47"/>
+      <c r="K144" s="46"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -8821,7 +8811,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="47"/>
+      <c r="K145" s="46"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -8842,7 +8832,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="47"/>
+      <c r="K146" s="46"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -8863,7 +8853,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="47"/>
+      <c r="K147" s="46"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8884,7 +8874,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="47"/>
+      <c r="K148" s="46"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8905,7 +8895,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="47"/>
+      <c r="K149" s="46"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8926,7 +8916,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="47"/>
+      <c r="K150" s="46"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -8947,7 +8937,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="47"/>
+      <c r="K151" s="46"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -8968,7 +8958,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="47"/>
+      <c r="K152" s="46"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -8989,7 +8979,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="47"/>
+      <c r="K153" s="46"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -9010,7 +9000,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="47"/>
+      <c r="K154" s="46"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -9031,7 +9021,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="47"/>
+      <c r="K155" s="46"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -9052,7 +9042,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="47"/>
+      <c r="K156" s="46"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -9073,7 +9063,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="47"/>
+      <c r="K157" s="46"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -9094,7 +9084,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="47"/>
+      <c r="K158" s="46"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -9115,7 +9105,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="47"/>
+      <c r="K159" s="46"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -9136,7 +9126,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="47"/>
+      <c r="K160" s="46"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -9157,7 +9147,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="47"/>
+      <c r="K161" s="46"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -9178,7 +9168,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="47"/>
+      <c r="K162" s="46"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -9199,7 +9189,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="47"/>
+      <c r="K163" s="46"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -9220,7 +9210,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="47"/>
+      <c r="K164" s="46"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -9241,7 +9231,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="47"/>
+      <c r="K165" s="46"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -9262,7 +9252,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="47"/>
+      <c r="K166" s="46"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -9283,7 +9273,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="47"/>
+      <c r="K167" s="46"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -9304,7 +9294,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="47"/>
+      <c r="K168" s="46"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -9325,7 +9315,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="47"/>
+      <c r="K169" s="46"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -9346,7 +9336,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="47"/>
+      <c r="K170" s="46"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -9367,7 +9357,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="47"/>
+      <c r="K171" s="46"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -9388,7 +9378,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="47"/>
+      <c r="K172" s="46"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -9409,7 +9399,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="47"/>
+      <c r="K173" s="46"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -9430,7 +9420,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="47"/>
+      <c r="K174" s="46"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -9451,7 +9441,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="47"/>
+      <c r="K175" s="46"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -9472,7 +9462,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="47"/>
+      <c r="K176" s="46"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -9493,7 +9483,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="47"/>
+      <c r="K177" s="46"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -9514,7 +9504,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="47"/>
+      <c r="K178" s="46"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -9535,7 +9525,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="47"/>
+      <c r="K179" s="46"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -9556,7 +9546,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="47"/>
+      <c r="K180" s="46"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -9577,7 +9567,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="47"/>
+      <c r="K181" s="46"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -9598,7 +9588,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="47"/>
+      <c r="K182" s="46"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -9619,7 +9609,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="47"/>
+      <c r="K183" s="46"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -9640,7 +9630,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="47"/>
+      <c r="K184" s="46"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -9661,7 +9651,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="47"/>
+      <c r="K185" s="46"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -9682,7 +9672,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="47"/>
+      <c r="K186" s="46"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -9703,7 +9693,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="47"/>
+      <c r="K187" s="46"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -9724,7 +9714,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="47"/>
+      <c r="K188" s="46"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -9745,7 +9735,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="47"/>
+      <c r="K189" s="46"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -9766,7 +9756,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="47"/>
+      <c r="K190" s="46"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -9787,7 +9777,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="47"/>
+      <c r="K191" s="46"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -9808,7 +9798,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="47"/>
+      <c r="K192" s="46"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -9829,7 +9819,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="47"/>
+      <c r="K193" s="46"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -9850,7 +9840,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="47"/>
+      <c r="K194" s="46"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -9871,7 +9861,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="47"/>
+      <c r="K195" s="46"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -9892,7 +9882,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="47"/>
+      <c r="K196" s="46"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -9913,7 +9903,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="47"/>
+      <c r="K197" s="46"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -9934,7 +9924,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="47"/>
+      <c r="K198" s="46"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -9955,7 +9945,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="47"/>
+      <c r="K199" s="46"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -9976,7 +9966,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="47"/>
+      <c r="K200" s="46"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -9997,7 +9987,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="47"/>
+      <c r="K201" s="46"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -10018,7 +10008,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="47"/>
+      <c r="K202" s="46"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -10039,7 +10029,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="47"/>
+      <c r="K203" s="46"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -10060,7 +10050,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="47"/>
+      <c r="K204" s="46"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -10081,7 +10071,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="47"/>
+      <c r="K205" s="46"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -10102,7 +10092,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="47"/>
+      <c r="K206" s="46"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -10123,7 +10113,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="47"/>
+      <c r="K207" s="46"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -10144,7 +10134,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="J208" s="2"/>
-      <c r="K208" s="47"/>
+      <c r="K208" s="46"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -10165,7 +10155,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
-      <c r="K209" s="47"/>
+      <c r="K209" s="46"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -10186,7 +10176,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
-      <c r="K210" s="47"/>
+      <c r="K210" s="46"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -10207,7 +10197,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
-      <c r="K211" s="47"/>
+      <c r="K211" s="46"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -10228,7 +10218,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="J212" s="2"/>
-      <c r="K212" s="47"/>
+      <c r="K212" s="46"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -10249,7 +10239,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="J213" s="2"/>
-      <c r="K213" s="47"/>
+      <c r="K213" s="46"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -10270,7 +10260,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="J214" s="2"/>
-      <c r="K214" s="47"/>
+      <c r="K214" s="46"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -10291,7 +10281,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
-      <c r="K215" s="47"/>
+      <c r="K215" s="46"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -10312,7 +10302,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
-      <c r="K216" s="47"/>
+      <c r="K216" s="46"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -10333,7 +10323,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
-      <c r="K217" s="47"/>
+      <c r="K217" s="46"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
@@ -10354,7 +10344,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="J218" s="2"/>
-      <c r="K218" s="47"/>
+      <c r="K218" s="46"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
@@ -10375,7 +10365,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="J219" s="2"/>
-      <c r="K219" s="47"/>
+      <c r="K219" s="46"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -10396,7 +10386,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="J220" s="2"/>
-      <c r="K220" s="47"/>
+      <c r="K220" s="46"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -10417,7 +10407,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
-      <c r="K221" s="47"/>
+      <c r="K221" s="46"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -10438,7 +10428,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
-      <c r="K222" s="47"/>
+      <c r="K222" s="46"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -10459,7 +10449,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
-      <c r="K223" s="47"/>
+      <c r="K223" s="46"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -10480,7 +10470,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="J224" s="2"/>
-      <c r="K224" s="47"/>
+      <c r="K224" s="46"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -10501,7 +10491,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="J225" s="2"/>
-      <c r="K225" s="47"/>
+      <c r="K225" s="46"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -10522,7 +10512,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="J226" s="2"/>
-      <c r="K226" s="47"/>
+      <c r="K226" s="46"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -10543,7 +10533,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
-      <c r="K227" s="47"/>
+      <c r="K227" s="46"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -10564,7 +10554,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
-      <c r="K228" s="47"/>
+      <c r="K228" s="46"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -10585,7 +10575,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
-      <c r="K229" s="47"/>
+      <c r="K229" s="46"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -10606,7 +10596,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="J230" s="2"/>
-      <c r="K230" s="47"/>
+      <c r="K230" s="46"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -10627,7 +10617,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
-      <c r="K231" s="47"/>
+      <c r="K231" s="46"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -10648,7 +10638,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="J232" s="2"/>
-      <c r="K232" s="47"/>
+      <c r="K232" s="46"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -10669,7 +10659,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
-      <c r="K233" s="47"/>
+      <c r="K233" s="46"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
@@ -10690,7 +10680,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="J234" s="2"/>
-      <c r="K234" s="47"/>
+      <c r="K234" s="46"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
@@ -10711,7 +10701,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
-      <c r="K235" s="47"/>
+      <c r="K235" s="46"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -10732,7 +10722,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="J236" s="2"/>
-      <c r="K236" s="47"/>
+      <c r="K236" s="46"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -10753,7 +10743,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
-      <c r="K237" s="47"/>
+      <c r="K237" s="46"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -10774,7 +10764,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="J238" s="2"/>
-      <c r="K238" s="47"/>
+      <c r="K238" s="46"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -10795,7 +10785,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="J239" s="2"/>
-      <c r="K239" s="47"/>
+      <c r="K239" s="46"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -10816,7 +10806,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="J240" s="2"/>
-      <c r="K240" s="47"/>
+      <c r="K240" s="46"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -10837,7 +10827,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="J241" s="2"/>
-      <c r="K241" s="47"/>
+      <c r="K241" s="46"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -10858,7 +10848,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="J242" s="2"/>
-      <c r="K242" s="47"/>
+      <c r="K242" s="46"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -10879,7 +10869,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
-      <c r="K243" s="47"/>
+      <c r="K243" s="46"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -10900,7 +10890,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="J244" s="2"/>
-      <c r="K244" s="47"/>
+      <c r="K244" s="46"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -10921,7 +10911,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="J245" s="2"/>
-      <c r="K245" s="47"/>
+      <c r="K245" s="46"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -10942,7 +10932,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="J246" s="2"/>
-      <c r="K246" s="47"/>
+      <c r="K246" s="46"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -10963,7 +10953,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="J247" s="2"/>
-      <c r="K247" s="47"/>
+      <c r="K247" s="46"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -10984,7 +10974,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="J248" s="2"/>
-      <c r="K248" s="47"/>
+      <c r="K248" s="46"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -11005,7 +10995,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="J249" s="2"/>
-      <c r="K249" s="47"/>
+      <c r="K249" s="46"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -11026,7 +11016,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="J250" s="2"/>
-      <c r="K250" s="47"/>
+      <c r="K250" s="46"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -11047,7 +11037,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="J251" s="2"/>
-      <c r="K251" s="47"/>
+      <c r="K251" s="46"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -11068,7 +11058,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="J252" s="2"/>
-      <c r="K252" s="47"/>
+      <c r="K252" s="46"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
@@ -11089,7 +11079,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="J253" s="2"/>
-      <c r="K253" s="47"/>
+      <c r="K253" s="46"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -11110,7 +11100,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="J254" s="2"/>
-      <c r="K254" s="47"/>
+      <c r="K254" s="46"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -11131,7 +11121,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="J255" s="2"/>
-      <c r="K255" s="47"/>
+      <c r="K255" s="46"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -11152,7 +11142,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="J256" s="2"/>
-      <c r="K256" s="47"/>
+      <c r="K256" s="46"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -11173,7 +11163,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="J257" s="2"/>
-      <c r="K257" s="47"/>
+      <c r="K257" s="46"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -11194,7 +11184,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="J258" s="2"/>
-      <c r="K258" s="47"/>
+      <c r="K258" s="46"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -11215,7 +11205,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="J259" s="2"/>
-      <c r="K259" s="47"/>
+      <c r="K259" s="46"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
@@ -11236,7 +11226,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="J260" s="2"/>
-      <c r="K260" s="47"/>
+      <c r="K260" s="46"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -11257,7 +11247,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="J261" s="2"/>
-      <c r="K261" s="47"/>
+      <c r="K261" s="46"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -11278,7 +11268,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
-      <c r="K262" s="47"/>
+      <c r="K262" s="46"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -11299,7 +11289,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
-      <c r="K263" s="47"/>
+      <c r="K263" s="46"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -11320,7 +11310,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="J264" s="2"/>
-      <c r="K264" s="47"/>
+      <c r="K264" s="46"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -11341,7 +11331,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="J265" s="2"/>
-      <c r="K265" s="47"/>
+      <c r="K265" s="46"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -11362,7 +11352,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="J266" s="2"/>
-      <c r="K266" s="47"/>
+      <c r="K266" s="46"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -11383,7 +11373,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="J267" s="2"/>
-      <c r="K267" s="47"/>
+      <c r="K267" s="46"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -11404,7 +11394,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="J268" s="2"/>
-      <c r="K268" s="47"/>
+      <c r="K268" s="46"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
@@ -11425,7 +11415,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="J269" s="2"/>
-      <c r="K269" s="47"/>
+      <c r="K269" s="46"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -11446,7 +11436,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="J270" s="2"/>
-      <c r="K270" s="47"/>
+      <c r="K270" s="46"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -11467,7 +11457,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="J271" s="2"/>
-      <c r="K271" s="47"/>
+      <c r="K271" s="46"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -11488,7 +11478,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="J272" s="2"/>
-      <c r="K272" s="47"/>
+      <c r="K272" s="46"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -11509,7 +11499,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
-      <c r="K273" s="47"/>
+      <c r="K273" s="46"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -11530,7 +11520,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
-      <c r="K274" s="47"/>
+      <c r="K274" s="46"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -11551,7 +11541,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="J275" s="2"/>
-      <c r="K275" s="47"/>
+      <c r="K275" s="46"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -11572,7 +11562,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="J276" s="2"/>
-      <c r="K276" s="47"/>
+      <c r="K276" s="46"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -11593,7 +11583,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="J277" s="2"/>
-      <c r="K277" s="47"/>
+      <c r="K277" s="46"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -11614,7 +11604,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="J278" s="2"/>
-      <c r="K278" s="47"/>
+      <c r="K278" s="46"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -11635,7 +11625,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="J279" s="2"/>
-      <c r="K279" s="47"/>
+      <c r="K279" s="46"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -11656,7 +11646,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="J280" s="2"/>
-      <c r="K280" s="47"/>
+      <c r="K280" s="46"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -11677,7 +11667,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="J281" s="2"/>
-      <c r="K281" s="47"/>
+      <c r="K281" s="46"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -11698,7 +11688,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="J282" s="2"/>
-      <c r="K282" s="47"/>
+      <c r="K282" s="46"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -11719,7 +11709,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="J283" s="2"/>
-      <c r="K283" s="47"/>
+      <c r="K283" s="46"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -11740,7 +11730,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="J284" s="2"/>
-      <c r="K284" s="47"/>
+      <c r="K284" s="46"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -11761,7 +11751,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="J285" s="2"/>
-      <c r="K285" s="47"/>
+      <c r="K285" s="46"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -11782,7 +11772,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="J286" s="2"/>
-      <c r="K286" s="47"/>
+      <c r="K286" s="46"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -11803,7 +11793,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2"/>
-      <c r="K287" s="47"/>
+      <c r="K287" s="46"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -11824,7 +11814,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="J288" s="2"/>
-      <c r="K288" s="47"/>
+      <c r="K288" s="46"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -11845,7 +11835,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="J289" s="2"/>
-      <c r="K289" s="47"/>
+      <c r="K289" s="46"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -11866,7 +11856,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="J290" s="2"/>
-      <c r="K290" s="47"/>
+      <c r="K290" s="46"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -11887,7 +11877,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2"/>
-      <c r="K291" s="47"/>
+      <c r="K291" s="46"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
@@ -11908,7 +11898,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
-      <c r="K292" s="47"/>
+      <c r="K292" s="46"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -11929,7 +11919,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="J293" s="2"/>
-      <c r="K293" s="47"/>
+      <c r="K293" s="46"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -11950,7 +11940,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="J294" s="2"/>
-      <c r="K294" s="47"/>
+      <c r="K294" s="46"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -11971,7 +11961,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="J295" s="2"/>
-      <c r="K295" s="47"/>
+      <c r="K295" s="46"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -11992,7 +11982,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="J296" s="2"/>
-      <c r="K296" s="47"/>
+      <c r="K296" s="46"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -12013,7 +12003,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="J297" s="2"/>
-      <c r="K297" s="47"/>
+      <c r="K297" s="46"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -12034,7 +12024,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
-      <c r="K298" s="47"/>
+      <c r="K298" s="46"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
@@ -12055,7 +12045,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="J299" s="2"/>
-      <c r="K299" s="47"/>
+      <c r="K299" s="46"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -12076,7 +12066,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
-      <c r="K300" s="47"/>
+      <c r="K300" s="46"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -12097,7 +12087,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="J301" s="2"/>
-      <c r="K301" s="47"/>
+      <c r="K301" s="46"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -12118,7 +12108,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="J302" s="2"/>
-      <c r="K302" s="47"/>
+      <c r="K302" s="46"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -12139,7 +12129,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="J303" s="2"/>
-      <c r="K303" s="47"/>
+      <c r="K303" s="46"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -12160,7 +12150,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="J304" s="2"/>
-      <c r="K304" s="47"/>
+      <c r="K304" s="46"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -12181,7 +12171,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2"/>
-      <c r="K305" s="47"/>
+      <c r="K305" s="46"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -12202,7 +12192,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="J306" s="2"/>
-      <c r="K306" s="47"/>
+      <c r="K306" s="46"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -12223,7 +12213,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="J307" s="2"/>
-      <c r="K307" s="47"/>
+      <c r="K307" s="46"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -12244,7 +12234,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="J308" s="2"/>
-      <c r="K308" s="47"/>
+      <c r="K308" s="46"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -12265,7 +12255,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2"/>
-      <c r="K309" s="47"/>
+      <c r="K309" s="46"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -12286,7 +12276,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="J310" s="2"/>
-      <c r="K310" s="47"/>
+      <c r="K310" s="46"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
@@ -12307,7 +12297,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="J311" s="2"/>
-      <c r="K311" s="47"/>
+      <c r="K311" s="46"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -12328,7 +12318,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
-      <c r="K312" s="47"/>
+      <c r="K312" s="46"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -12349,7 +12339,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="J313" s="2"/>
-      <c r="K313" s="47"/>
+      <c r="K313" s="46"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
@@ -12370,7 +12360,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="J314" s="2"/>
-      <c r="K314" s="47"/>
+      <c r="K314" s="46"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
@@ -12391,7 +12381,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="J315" s="2"/>
-      <c r="K315" s="47"/>
+      <c r="K315" s="46"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -12412,7 +12402,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="J316" s="2"/>
-      <c r="K316" s="47"/>
+      <c r="K316" s="46"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -12433,7 +12423,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="J317" s="2"/>
-      <c r="K317" s="47"/>
+      <c r="K317" s="46"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -12454,7 +12444,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="J318" s="2"/>
-      <c r="K318" s="47"/>
+      <c r="K318" s="46"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -12475,7 +12465,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="J319" s="2"/>
-      <c r="K319" s="47"/>
+      <c r="K319" s="46"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -12496,7 +12486,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="J320" s="2"/>
-      <c r="K320" s="47"/>
+      <c r="K320" s="46"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -12517,7 +12507,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="J321" s="2"/>
-      <c r="K321" s="47"/>
+      <c r="K321" s="46"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -12538,7 +12528,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="J322" s="2"/>
-      <c r="K322" s="47"/>
+      <c r="K322" s="46"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
@@ -12559,7 +12549,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="J323" s="2"/>
-      <c r="K323" s="47"/>
+      <c r="K323" s="46"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -12580,7 +12570,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="J324" s="2"/>
-      <c r="K324" s="47"/>
+      <c r="K324" s="46"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
@@ -12601,7 +12591,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="47"/>
+      <c r="K325" s="46"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
@@ -12622,7 +12612,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="J326" s="2"/>
-      <c r="K326" s="47"/>
+      <c r="K326" s="46"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -12643,7 +12633,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="J327" s="2"/>
-      <c r="K327" s="47"/>
+      <c r="K327" s="46"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -12664,7 +12654,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="J328" s="2"/>
-      <c r="K328" s="47"/>
+      <c r="K328" s="46"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -12685,7 +12675,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="J329" s="2"/>
-      <c r="K329" s="47"/>
+      <c r="K329" s="46"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -12706,7 +12696,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="J330" s="2"/>
-      <c r="K330" s="47"/>
+      <c r="K330" s="46"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -12727,7 +12717,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
-      <c r="K331" s="47"/>
+      <c r="K331" s="46"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -12748,7 +12738,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>
-      <c r="K332" s="47"/>
+      <c r="K332" s="46"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -12769,7 +12759,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="J333" s="2"/>
-      <c r="K333" s="47"/>
+      <c r="K333" s="46"/>
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -12790,7 +12780,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="J334" s="2"/>
-      <c r="K334" s="47"/>
+      <c r="K334" s="46"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -12811,7 +12801,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="J335" s="2"/>
-      <c r="K335" s="47"/>
+      <c r="K335" s="46"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -12832,7 +12822,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="J336" s="2"/>
-      <c r="K336" s="47"/>
+      <c r="K336" s="46"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -12853,7 +12843,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="J337" s="2"/>
-      <c r="K337" s="47"/>
+      <c r="K337" s="46"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -12874,7 +12864,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="J338" s="2"/>
-      <c r="K338" s="47"/>
+      <c r="K338" s="46"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
@@ -12895,7 +12885,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="J339" s="2"/>
-      <c r="K339" s="47"/>
+      <c r="K339" s="46"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
@@ -12916,7 +12906,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="J340" s="2"/>
-      <c r="K340" s="47"/>
+      <c r="K340" s="46"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -12937,7 +12927,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="J341" s="2"/>
-      <c r="K341" s="47"/>
+      <c r="K341" s="46"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -12958,7 +12948,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="J342" s="2"/>
-      <c r="K342" s="47"/>
+      <c r="K342" s="46"/>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
@@ -12979,7 +12969,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="J343" s="2"/>
-      <c r="K343" s="47"/>
+      <c r="K343" s="46"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -13000,7 +12990,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="J344" s="2"/>
-      <c r="K344" s="47"/>
+      <c r="K344" s="46"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -13021,7 +13011,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="J345" s="2"/>
-      <c r="K345" s="47"/>
+      <c r="K345" s="46"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -13042,7 +13032,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="J346" s="2"/>
-      <c r="K346" s="47"/>
+      <c r="K346" s="46"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
@@ -13063,7 +13053,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="J347" s="2"/>
-      <c r="K347" s="47"/>
+      <c r="K347" s="46"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -13084,7 +13074,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="J348" s="2"/>
-      <c r="K348" s="47"/>
+      <c r="K348" s="46"/>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -13105,7 +13095,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="J349" s="2"/>
-      <c r="K349" s="47"/>
+      <c r="K349" s="46"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
@@ -13126,7 +13116,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="J350" s="2"/>
-      <c r="K350" s="47"/>
+      <c r="K350" s="46"/>
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
@@ -13147,7 +13137,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="J351" s="2"/>
-      <c r="K351" s="47"/>
+      <c r="K351" s="46"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
@@ -13168,7 +13158,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="J352" s="2"/>
-      <c r="K352" s="47"/>
+      <c r="K352" s="46"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -13189,7 +13179,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="J353" s="2"/>
-      <c r="K353" s="47"/>
+      <c r="K353" s="46"/>
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -13210,7 +13200,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="J354" s="2"/>
-      <c r="K354" s="47"/>
+      <c r="K354" s="46"/>
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -13231,7 +13221,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="J355" s="2"/>
-      <c r="K355" s="47"/>
+      <c r="K355" s="46"/>
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
@@ -13252,7 +13242,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="J356" s="2"/>
-      <c r="K356" s="47"/>
+      <c r="K356" s="46"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
@@ -13273,7 +13263,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="J357" s="2"/>
-      <c r="K357" s="47"/>
+      <c r="K357" s="46"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
@@ -13294,7 +13284,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="J358" s="2"/>
-      <c r="K358" s="47"/>
+      <c r="K358" s="46"/>
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
@@ -13315,7 +13305,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="J359" s="2"/>
-      <c r="K359" s="47"/>
+      <c r="K359" s="46"/>
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
@@ -13336,7 +13326,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="J360" s="2"/>
-      <c r="K360" s="47"/>
+      <c r="K360" s="46"/>
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
@@ -13357,7 +13347,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="J361" s="2"/>
-      <c r="K361" s="47"/>
+      <c r="K361" s="46"/>
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
@@ -13378,7 +13368,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="J362" s="2"/>
-      <c r="K362" s="47"/>
+      <c r="K362" s="46"/>
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -13399,7 +13389,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="J363" s="2"/>
-      <c r="K363" s="47"/>
+      <c r="K363" s="46"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -13420,7 +13410,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="J364" s="2"/>
-      <c r="K364" s="47"/>
+      <c r="K364" s="46"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -13441,7 +13431,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="J365" s="2"/>
-      <c r="K365" s="47"/>
+      <c r="K365" s="46"/>
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
@@ -13462,7 +13452,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="J366" s="2"/>
-      <c r="K366" s="47"/>
+      <c r="K366" s="46"/>
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
@@ -13483,7 +13473,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="J367" s="2"/>
-      <c r="K367" s="47"/>
+      <c r="K367" s="46"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
@@ -13504,7 +13494,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="J368" s="2"/>
-      <c r="K368" s="47"/>
+      <c r="K368" s="46"/>
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
@@ -13525,7 +13515,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="J369" s="2"/>
-      <c r="K369" s="47"/>
+      <c r="K369" s="46"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -13546,7 +13536,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="J370" s="2"/>
-      <c r="K370" s="47"/>
+      <c r="K370" s="46"/>
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
@@ -13567,7 +13557,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="J371" s="2"/>
-      <c r="K371" s="47"/>
+      <c r="K371" s="46"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
@@ -13588,7 +13578,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="J372" s="2"/>
-      <c r="K372" s="47"/>
+      <c r="K372" s="46"/>
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
@@ -13609,7 +13599,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="J373" s="2"/>
-      <c r="K373" s="47"/>
+      <c r="K373" s="46"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
@@ -13630,7 +13620,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="J374" s="2"/>
-      <c r="K374" s="47"/>
+      <c r="K374" s="46"/>
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
@@ -13651,7 +13641,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="J375" s="2"/>
-      <c r="K375" s="47"/>
+      <c r="K375" s="46"/>
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -13672,7 +13662,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="J376" s="2"/>
-      <c r="K376" s="47"/>
+      <c r="K376" s="46"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
@@ -13693,7 +13683,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="J377" s="2"/>
-      <c r="K377" s="47"/>
+      <c r="K377" s="46"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
@@ -13714,7 +13704,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="J378" s="2"/>
-      <c r="K378" s="47"/>
+      <c r="K378" s="46"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
@@ -13735,7 +13725,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="J379" s="2"/>
-      <c r="K379" s="47"/>
+      <c r="K379" s="46"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -13756,7 +13746,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="J380" s="2"/>
-      <c r="K380" s="47"/>
+      <c r="K380" s="46"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
@@ -13777,7 +13767,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="J381" s="2"/>
-      <c r="K381" s="47"/>
+      <c r="K381" s="46"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
@@ -13798,7 +13788,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="J382" s="2"/>
-      <c r="K382" s="47"/>
+      <c r="K382" s="46"/>
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
@@ -13819,7 +13809,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="J383" s="2"/>
-      <c r="K383" s="47"/>
+      <c r="K383" s="46"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
@@ -13840,7 +13830,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="J384" s="2"/>
-      <c r="K384" s="47"/>
+      <c r="K384" s="46"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
@@ -13861,7 +13851,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="J385" s="2"/>
-      <c r="K385" s="47"/>
+      <c r="K385" s="46"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -13882,7 +13872,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="J386" s="2"/>
-      <c r="K386" s="47"/>
+      <c r="K386" s="46"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
@@ -13903,7 +13893,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="J387" s="2"/>
-      <c r="K387" s="47"/>
+      <c r="K387" s="46"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
@@ -13924,7 +13914,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="J388" s="2"/>
-      <c r="K388" s="47"/>
+      <c r="K388" s="46"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
@@ -13945,7 +13935,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="J389" s="2"/>
-      <c r="K389" s="47"/>
+      <c r="K389" s="46"/>
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
@@ -13966,7 +13956,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="J390" s="2"/>
-      <c r="K390" s="47"/>
+      <c r="K390" s="46"/>
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
@@ -13987,7 +13977,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="J391" s="2"/>
-      <c r="K391" s="47"/>
+      <c r="K391" s="46"/>
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -14008,7 +13998,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="J392" s="2"/>
-      <c r="K392" s="47"/>
+      <c r="K392" s="46"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
@@ -14029,7 +14019,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="J393" s="2"/>
-      <c r="K393" s="47"/>
+      <c r="K393" s="46"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -14050,7 +14040,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="J394" s="2"/>
-      <c r="K394" s="47"/>
+      <c r="K394" s="46"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
@@ -14071,7 +14061,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="J395" s="2"/>
-      <c r="K395" s="47"/>
+      <c r="K395" s="46"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -14092,7 +14082,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="J396" s="2"/>
-      <c r="K396" s="47"/>
+      <c r="K396" s="46"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -14113,7 +14103,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="J397" s="2"/>
-      <c r="K397" s="47"/>
+      <c r="K397" s="46"/>
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
@@ -14134,7 +14124,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="J398" s="2"/>
-      <c r="K398" s="47"/>
+      <c r="K398" s="46"/>
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
@@ -14155,7 +14145,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="J399" s="2"/>
-      <c r="K399" s="47"/>
+      <c r="K399" s="46"/>
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -14176,7 +14166,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="J400" s="2"/>
-      <c r="K400" s="47"/>
+      <c r="K400" s="46"/>
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
@@ -14197,7 +14187,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="J401" s="2"/>
-      <c r="K401" s="47"/>
+      <c r="K401" s="46"/>
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -14218,7 +14208,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="J402" s="2"/>
-      <c r="K402" s="47"/>
+      <c r="K402" s="46"/>
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
@@ -14239,7 +14229,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="J403" s="2"/>
-      <c r="K403" s="47"/>
+      <c r="K403" s="46"/>
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
@@ -14260,7 +14250,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="J404" s="2"/>
-      <c r="K404" s="47"/>
+      <c r="K404" s="46"/>
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -14281,7 +14271,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="J405" s="2"/>
-      <c r="K405" s="47"/>
+      <c r="K405" s="46"/>
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
@@ -14302,7 +14292,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="J406" s="2"/>
-      <c r="K406" s="47"/>
+      <c r="K406" s="46"/>
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
@@ -14323,7 +14313,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="J407" s="2"/>
-      <c r="K407" s="47"/>
+      <c r="K407" s="46"/>
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -14344,7 +14334,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="J408" s="2"/>
-      <c r="K408" s="47"/>
+      <c r="K408" s="46"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
@@ -14365,7 +14355,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="J409" s="2"/>
-      <c r="K409" s="47"/>
+      <c r="K409" s="46"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
@@ -14386,7 +14376,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="J410" s="2"/>
-      <c r="K410" s="47"/>
+      <c r="K410" s="46"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
@@ -14407,7 +14397,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="J411" s="2"/>
-      <c r="K411" s="47"/>
+      <c r="K411" s="46"/>
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -14428,7 +14418,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="J412" s="2"/>
-      <c r="K412" s="47"/>
+      <c r="K412" s="46"/>
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
@@ -14449,7 +14439,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="J413" s="2"/>
-      <c r="K413" s="47"/>
+      <c r="K413" s="46"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
@@ -14470,7 +14460,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="J414" s="2"/>
-      <c r="K414" s="47"/>
+      <c r="K414" s="46"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
@@ -14491,7 +14481,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="J415" s="2"/>
-      <c r="K415" s="47"/>
+      <c r="K415" s="46"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
@@ -14512,7 +14502,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="J416" s="2"/>
-      <c r="K416" s="47"/>
+      <c r="K416" s="46"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -14533,7 +14523,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="J417" s="2"/>
-      <c r="K417" s="47"/>
+      <c r="K417" s="46"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -14554,7 +14544,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="J418" s="2"/>
-      <c r="K418" s="47"/>
+      <c r="K418" s="46"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
@@ -14575,7 +14565,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="J419" s="2"/>
-      <c r="K419" s="47"/>
+      <c r="K419" s="46"/>
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
@@ -14596,7 +14586,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="J420" s="2"/>
-      <c r="K420" s="47"/>
+      <c r="K420" s="46"/>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
@@ -14617,7 +14607,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="J421" s="2"/>
-      <c r="K421" s="47"/>
+      <c r="K421" s="46"/>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>
@@ -14638,7 +14628,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="J422" s="2"/>
-      <c r="K422" s="47"/>
+      <c r="K422" s="46"/>
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
@@ -14659,7 +14649,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="J423" s="2"/>
-      <c r="K423" s="47"/>
+      <c r="K423" s="46"/>
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
@@ -14680,7 +14670,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="J424" s="2"/>
-      <c r="K424" s="47"/>
+      <c r="K424" s="46"/>
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
       <c r="N424" s="2"/>
@@ -14701,7 +14691,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="J425" s="2"/>
-      <c r="K425" s="47"/>
+      <c r="K425" s="46"/>
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
@@ -14722,7 +14712,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="J426" s="2"/>
-      <c r="K426" s="47"/>
+      <c r="K426" s="46"/>
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
@@ -14743,7 +14733,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="J427" s="2"/>
-      <c r="K427" s="47"/>
+      <c r="K427" s="46"/>
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -14764,7 +14754,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="J428" s="2"/>
-      <c r="K428" s="47"/>
+      <c r="K428" s="46"/>
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
@@ -14785,7 +14775,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="J429" s="2"/>
-      <c r="K429" s="47"/>
+      <c r="K429" s="46"/>
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
@@ -14806,7 +14796,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="J430" s="2"/>
-      <c r="K430" s="47"/>
+      <c r="K430" s="46"/>
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
@@ -14827,7 +14817,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="J431" s="2"/>
-      <c r="K431" s="47"/>
+      <c r="K431" s="46"/>
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
@@ -14848,7 +14838,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="J432" s="2"/>
-      <c r="K432" s="47"/>
+      <c r="K432" s="46"/>
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
@@ -14869,7 +14859,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="J433" s="2"/>
-      <c r="K433" s="47"/>
+      <c r="K433" s="46"/>
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
@@ -14890,7 +14880,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="J434" s="2"/>
-      <c r="K434" s="47"/>
+      <c r="K434" s="46"/>
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
@@ -14911,7 +14901,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="J435" s="2"/>
-      <c r="K435" s="47"/>
+      <c r="K435" s="46"/>
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
@@ -14932,7 +14922,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="J436" s="2"/>
-      <c r="K436" s="47"/>
+      <c r="K436" s="46"/>
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
@@ -14953,7 +14943,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="J437" s="2"/>
-      <c r="K437" s="47"/>
+      <c r="K437" s="46"/>
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
@@ -14974,7 +14964,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="J438" s="2"/>
-      <c r="K438" s="47"/>
+      <c r="K438" s="46"/>
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
@@ -14995,7 +14985,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="J439" s="2"/>
-      <c r="K439" s="47"/>
+      <c r="K439" s="46"/>
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
@@ -15016,7 +15006,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="J440" s="2"/>
-      <c r="K440" s="47"/>
+      <c r="K440" s="46"/>
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
@@ -15037,7 +15027,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="J441" s="2"/>
-      <c r="K441" s="47"/>
+      <c r="K441" s="46"/>
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
@@ -15058,7 +15048,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="J442" s="2"/>
-      <c r="K442" s="47"/>
+      <c r="K442" s="46"/>
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
@@ -15079,7 +15069,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="J443" s="2"/>
-      <c r="K443" s="47"/>
+      <c r="K443" s="46"/>
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
@@ -15100,7 +15090,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="J444" s="2"/>
-      <c r="K444" s="47"/>
+      <c r="K444" s="46"/>
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
@@ -15121,7 +15111,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="J445" s="2"/>
-      <c r="K445" s="47"/>
+      <c r="K445" s="46"/>
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
@@ -15142,7 +15132,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="J446" s="2"/>
-      <c r="K446" s="47"/>
+      <c r="K446" s="46"/>
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
@@ -15163,7 +15153,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="J447" s="2"/>
-      <c r="K447" s="47"/>
+      <c r="K447" s="46"/>
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
@@ -15184,7 +15174,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="J448" s="2"/>
-      <c r="K448" s="47"/>
+      <c r="K448" s="46"/>
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
@@ -15205,7 +15195,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="J449" s="2"/>
-      <c r="K449" s="47"/>
+      <c r="K449" s="46"/>
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
@@ -15226,7 +15216,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="J450" s="2"/>
-      <c r="K450" s="47"/>
+      <c r="K450" s="46"/>
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
@@ -15247,7 +15237,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="J451" s="2"/>
-      <c r="K451" s="47"/>
+      <c r="K451" s="46"/>
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
@@ -15268,7 +15258,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="J452" s="2"/>
-      <c r="K452" s="47"/>
+      <c r="K452" s="46"/>
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
@@ -15289,7 +15279,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="J453" s="2"/>
-      <c r="K453" s="47"/>
+      <c r="K453" s="46"/>
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
@@ -15310,7 +15300,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="J454" s="2"/>
-      <c r="K454" s="47"/>
+      <c r="K454" s="46"/>
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
@@ -15331,7 +15321,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="J455" s="2"/>
-      <c r="K455" s="47"/>
+      <c r="K455" s="46"/>
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
@@ -15352,7 +15342,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="J456" s="2"/>
-      <c r="K456" s="47"/>
+      <c r="K456" s="46"/>
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
@@ -15373,7 +15363,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="J457" s="2"/>
-      <c r="K457" s="47"/>
+      <c r="K457" s="46"/>
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
@@ -15394,7 +15384,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="J458" s="2"/>
-      <c r="K458" s="47"/>
+      <c r="K458" s="46"/>
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
@@ -15415,7 +15405,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="J459" s="2"/>
-      <c r="K459" s="47"/>
+      <c r="K459" s="46"/>
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
@@ -15436,7 +15426,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="J460" s="2"/>
-      <c r="K460" s="47"/>
+      <c r="K460" s="46"/>
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
@@ -15457,7 +15447,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="J461" s="2"/>
-      <c r="K461" s="47"/>
+      <c r="K461" s="46"/>
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
@@ -15478,7 +15468,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="J462" s="2"/>
-      <c r="K462" s="47"/>
+      <c r="K462" s="46"/>
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
@@ -15499,7 +15489,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="J463" s="2"/>
-      <c r="K463" s="47"/>
+      <c r="K463" s="46"/>
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
@@ -15520,7 +15510,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="J464" s="2"/>
-      <c r="K464" s="47"/>
+      <c r="K464" s="46"/>
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
@@ -15541,7 +15531,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="J465" s="2"/>
-      <c r="K465" s="47"/>
+      <c r="K465" s="46"/>
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
@@ -15562,7 +15552,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="J466" s="2"/>
-      <c r="K466" s="47"/>
+      <c r="K466" s="46"/>
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
@@ -15583,7 +15573,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="J467" s="2"/>
-      <c r="K467" s="47"/>
+      <c r="K467" s="46"/>
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
@@ -15604,7 +15594,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="J468" s="2"/>
-      <c r="K468" s="47"/>
+      <c r="K468" s="46"/>
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
@@ -15625,7 +15615,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="J469" s="2"/>
-      <c r="K469" s="47"/>
+      <c r="K469" s="46"/>
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
@@ -15646,7 +15636,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="J470" s="2"/>
-      <c r="K470" s="47"/>
+      <c r="K470" s="46"/>
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
@@ -15667,7 +15657,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="J471" s="2"/>
-      <c r="K471" s="47"/>
+      <c r="K471" s="46"/>
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
@@ -15688,7 +15678,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="J472" s="2"/>
-      <c r="K472" s="47"/>
+      <c r="K472" s="46"/>
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
@@ -15709,7 +15699,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="J473" s="2"/>
-      <c r="K473" s="47"/>
+      <c r="K473" s="46"/>
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
@@ -15730,7 +15720,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="J474" s="2"/>
-      <c r="K474" s="47"/>
+      <c r="K474" s="46"/>
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
@@ -15751,7 +15741,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="J475" s="2"/>
-      <c r="K475" s="47"/>
+      <c r="K475" s="46"/>
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
@@ -15772,7 +15762,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="J476" s="2"/>
-      <c r="K476" s="47"/>
+      <c r="K476" s="46"/>
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2"/>
@@ -15793,7 +15783,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="J477" s="2"/>
-      <c r="K477" s="47"/>
+      <c r="K477" s="46"/>
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
       <c r="N477" s="2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -243,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -299,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,37 +313,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,7 +322,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +338,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,16 +373,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +398,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,14 +421,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,9 +435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +529,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,103 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,43 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,8 +737,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,8 +785,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +806,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -790,194 +831,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,7 +994,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,19 +1009,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,7 +1084,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1102,7 +1102,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1123,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2982,9 +2982,63 @@
           <cell r="A25" t="str">
             <v>JG_0000021</v>
           </cell>
+          <cell r="B25" t="str">
+            <v>JH_00031</v>
+          </cell>
+          <cell r="C25">
+            <v>600587</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>新华医疗</v>
+          </cell>
+          <cell r="E25">
+            <v>44557</v>
+          </cell>
+          <cell r="F25">
+            <v>29.57</v>
+          </cell>
+          <cell r="G25">
+            <v>600</v>
+          </cell>
+          <cell r="H25">
+            <v>5</v>
+          </cell>
+          <cell r="I25">
+            <v>0.35484</v>
+          </cell>
+          <cell r="J25">
+            <v>17747.35484</v>
+          </cell>
+          <cell r="K25">
+            <v>31.37</v>
+          </cell>
+          <cell r="L25">
+            <v>29.1</v>
+          </cell>
+          <cell r="M25">
+            <v>31.85</v>
+          </cell>
+          <cell r="N25">
+            <v>23.34</v>
+          </cell>
+          <cell r="O25">
+            <v>8.51</v>
+          </cell>
+          <cell r="P25">
+            <v>25.83</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.792951541850221</v>
+          </cell>
+          <cell r="R25">
+            <v>27.05</v>
+          </cell>
+          <cell r="S25">
+            <v>1522.35484</v>
+          </cell>
         </row>
-        <row r="26">
-          <cell r="A26" t="str">
+        <row r="27">
+          <cell r="A27" t="str">
             <v>JG_0000022</v>
           </cell>
         </row>
@@ -3261,7 +3315,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -243,13 +243,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -299,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,17 +328,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,38 +350,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +396,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,26 +418,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,13 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,109 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,25 +565,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,8 +737,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +782,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,24 +804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,26 +825,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,124 +836,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,22 +962,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1009,19 +1009,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +1054,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,7 +1087,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1095,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2945,10 +2945,10 @@
             <v>5</v>
           </cell>
           <cell r="I24">
-            <v>0.37032</v>
+            <v>0</v>
           </cell>
           <cell r="J24">
-            <v>18521.37032</v>
+            <v>18521</v>
           </cell>
           <cell r="K24">
             <v>65.65</v>
@@ -2975,7 +2975,7 @@
             <v>59.3</v>
           </cell>
           <cell r="S24">
-            <v>736.37032</v>
+            <v>736</v>
           </cell>
         </row>
         <row r="25">
@@ -3308,14 +3308,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AK477"/>
+  <dimension ref="A1:AK475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3380,25 +3380,25 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="27" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
       <c r="AG1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3433,21 +3433,21 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
       <c r="AG2" s="41"/>
       <c r="AH2" s="39"/>
       <c r="AI2" s="23"/>
@@ -3500,25 +3500,25 @@
         <v>23</v>
       </c>
       <c r="Q3" s="18"/>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="28" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="29" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
       <c r="AE3" s="23" t="s">
         <v>27</v>
       </c>
@@ -3547,41 +3547,41 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="30" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33" t="s">
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AD4" s="37" t="s">
         <v>36</v>
       </c>
       <c r="AE4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AG4" s="41"/>
@@ -3616,31 +3616,31 @@
       <c r="Q5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="33" t="s">
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AA5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
       <c r="AE5" s="23"/>
-      <c r="AF5" s="37"/>
+      <c r="AF5" s="38"/>
       <c r="AG5" s="41"/>
       <c r="AH5" s="39"/>
       <c r="AI5" s="23"/>
@@ -3676,7 +3676,7 @@
         <v>33.78</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J13" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="20">
@@ -3692,7 +3692,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="str">
-        <f t="shared" ref="U6:U12" si="1">IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U13" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="10" t="s">
@@ -3704,20 +3704,20 @@
       <c r="X6" s="10">
         <v>2</v>
       </c>
-      <c r="Y6" s="34">
-        <f t="shared" ref="Y6:Y12" si="2">$I6/$I$6</f>
+      <c r="Y6" s="35">
+        <f t="shared" ref="Y6:Y13" si="2">$I6/$I$6</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="38">
-        <f t="shared" ref="AC6:AC12" si="3">D6-E6</f>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="29">
+        <f t="shared" ref="AC6:AC13" si="3">D6-E6</f>
         <v>5.73</v>
       </c>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
       <c r="AG6" s="22">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.00447876447876458</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" ref="K7:K12" si="4">(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K13" si="4">(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
       <c r="L7" s="21"/>
@@ -3795,20 +3795,20 @@
       <c r="X7" s="10">
         <v>2</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="35">
         <f t="shared" si="2"/>
         <v>1.05831853167555</v>
       </c>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="38">
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="29">
         <f t="shared" si="3"/>
         <v>5.92</v>
       </c>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
       <c r="AG7" s="22">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.0949806949806951</v>
@@ -3887,20 +3887,20 @@
       <c r="X8" s="10">
         <v>2</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="35">
         <f t="shared" si="2"/>
         <v>1.15364120781528</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="21">
         <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
       <c r="AG8" s="22">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.113204633204633</v>
@@ -3979,20 +3979,20 @@
       <c r="X9" s="10">
         <v>2</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="35">
         <f t="shared" si="2"/>
         <v>1.17288336293665</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
       <c r="AC9" s="21">
         <f t="shared" si="3"/>
         <v>3.62</v>
       </c>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
       <c r="AG9" s="22">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.117220077220077</v>
@@ -4077,20 +4077,20 @@
       <c r="X10" s="10">
         <v>2</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="35">
         <f t="shared" si="2"/>
         <v>1.17702782711664</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="21">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
       <c r="AG10" s="22">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.12</v>
@@ -4149,9 +4149,15 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="20">
+        <f>COUNTIF(K7:K11,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="P11" s="20">
+        <f>COUNTIF(J7:J11,"&gt;0")/5</f>
+        <v>0.8</v>
+      </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -4169,20 +4175,20 @@
       <c r="X11" s="10">
         <v>2</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="35">
         <f t="shared" si="2"/>
         <v>1.17998815867377</v>
       </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="21">
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="23">
         <f t="shared" si="3"/>
         <v>6.53</v>
       </c>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
       <c r="AG11" s="22">
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.153667953667954</v>
@@ -4205,7 +4211,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="8">
-        <v>44555</v>
+        <v>44557</v>
       </c>
       <c r="B12" s="9">
         <v>78.79</v>
@@ -4243,9 +4249,15 @@
       <c r="M12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="20">
+        <f>COUNTIF(K8:K12,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="20">
+        <f>COUNTIF(J8:J12,"&gt;0")/5</f>
+        <v>0.8</v>
+      </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -4263,20 +4275,20 @@
       <c r="X12" s="10">
         <v>2</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12" s="35">
         <f t="shared" si="2"/>
         <v>1.21551213735938</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="21">
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="23">
         <f t="shared" si="3"/>
         <v>6.34</v>
       </c>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="22">
         <f>(B12-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>0.216833976833977</v>
@@ -4299,55 +4311,113 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="8">
-        <v>44556</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="22"/>
+        <v>44558</v>
+      </c>
+      <c r="B13" s="9">
+        <v>70.91</v>
+      </c>
+      <c r="C13" s="9">
+        <v>77.7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>78.79</v>
+      </c>
+      <c r="E13" s="9">
+        <v>70.91</v>
+      </c>
+      <c r="F13" s="13">
+        <v>11.47</v>
+      </c>
+      <c r="G13" s="9">
+        <v>65.78</v>
+      </c>
+      <c r="H13" s="9">
+        <v>58.12</v>
+      </c>
+      <c r="I13" s="10">
+        <v>43.31</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="4"/>
+        <v>-0.100012691965986</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="20">
+        <f>COUNTIF(K9:K13,"&gt;0")/5</f>
+        <v>0.8</v>
+      </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="P13" s="20">
+        <f>COUNTIF(J9:J13,"&gt;0")/5</f>
+        <v>0.6</v>
+      </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="43"/>
-      <c r="AK13" s="10"/>
+      <c r="U13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>否</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="35">
+        <f t="shared" si="2"/>
+        <v>1.28211959739491</v>
+      </c>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="23">
+        <f t="shared" si="3"/>
+        <v>7.88000000000001</v>
+      </c>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="22">
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <v>0.0951351351351351</v>
+      </c>
+      <c r="AH13" s="20" t="str">
+        <f>IF(AG13-((VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI13" s="43">
+        <f>IF(AND(H13-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,H13&gt;H12),H13,AI12)</f>
+        <v>59.29</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>($AI13-VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$20,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
+        <v>-546</v>
+      </c>
+      <c r="AK13" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="8">
-        <v>44557</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>44559</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="22"/>
@@ -4365,13 +4435,13 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
       <c r="AG14" s="44"/>
       <c r="AH14" s="44"/>
       <c r="AI14" s="43"/>
@@ -4379,15 +4449,15 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="8">
-        <v>44558</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>44560</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="22"/>
@@ -4405,13 +4475,13 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="10"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
       <c r="AG15" s="44"/>
       <c r="AH15" s="44"/>
       <c r="AI15" s="43"/>
@@ -4419,7 +4489,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="8">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4445,13 +4515,13 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
       <c r="AG16" s="44"/>
       <c r="AH16" s="44"/>
       <c r="AI16" s="43"/>
@@ -4459,7 +4529,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="8">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4485,13 +4555,13 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
       <c r="AC17" s="10"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
       <c r="AG17" s="44"/>
       <c r="AH17" s="44"/>
       <c r="AI17" s="43"/>
@@ -4499,7 +4569,7 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="8">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4525,13 +4595,13 @@
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
       <c r="AC18" s="10"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
       <c r="AG18" s="44"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="43"/>
@@ -4539,7 +4609,7 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="8">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4565,13 +4635,13 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
       <c r="AC19" s="10"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
       <c r="AG19" s="44"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="43"/>
@@ -4579,7 +4649,7 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="8">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4605,13 +4675,13 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
       <c r="AG20" s="44"/>
       <c r="AH20" s="44"/>
       <c r="AI20" s="43"/>
@@ -4619,7 +4689,7 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="8">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4645,13 +4715,13 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
       <c r="AC21" s="10"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
       <c r="AG21" s="44"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="43"/>
@@ -4659,7 +4729,7 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="8">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4685,13 +4755,13 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
       <c r="AC22" s="10"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
       <c r="AG22" s="44"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="43"/>
@@ -4699,7 +4769,7 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="8">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4725,13 +4795,13 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
       <c r="AG23" s="44"/>
       <c r="AH23" s="44"/>
       <c r="AI23" s="43"/>
@@ -4739,7 +4809,7 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="8">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4765,13 +4835,13 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
       <c r="AC24" s="10"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
       <c r="AG24" s="44"/>
       <c r="AH24" s="44"/>
       <c r="AI24" s="43"/>
@@ -4779,7 +4849,7 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="8">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4805,13 +4875,13 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
       <c r="AC25" s="10"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
       <c r="AG25" s="44"/>
       <c r="AH25" s="44"/>
       <c r="AI25" s="43"/>
@@ -4819,7 +4889,7 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="8">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4845,13 +4915,13 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
       <c r="AC26" s="10"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
       <c r="AG26" s="44"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="43"/>
@@ -4859,7 +4929,7 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="8">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4885,13 +4955,13 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
       <c r="AC27" s="10"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
       <c r="AG27" s="44"/>
       <c r="AH27" s="44"/>
       <c r="AI27" s="43"/>
@@ -4899,7 +4969,7 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="8">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4925,13 +4995,13 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
       <c r="AC28" s="10"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
       <c r="AG28" s="44"/>
       <c r="AH28" s="44"/>
       <c r="AI28" s="43"/>
@@ -4939,7 +5009,7 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="8">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4965,13 +5035,13 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
       <c r="AC29" s="10"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
       <c r="AG29" s="44"/>
       <c r="AH29" s="44"/>
       <c r="AI29" s="43"/>
@@ -4979,7 +5049,7 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="8">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5005,13 +5075,13 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
       <c r="AC30" s="10"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
       <c r="AG30" s="44"/>
       <c r="AH30" s="44"/>
       <c r="AI30" s="43"/>
@@ -5019,7 +5089,7 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="8">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5045,13 +5115,13 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
       <c r="AC31" s="10"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
       <c r="AG31" s="44"/>
       <c r="AH31" s="44"/>
       <c r="AI31" s="43"/>
@@ -5059,7 +5129,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="8">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5085,13 +5155,13 @@
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
       <c r="AC32" s="10"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
       <c r="AG32" s="44"/>
       <c r="AH32" s="44"/>
       <c r="AI32" s="43"/>
@@ -5099,7 +5169,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="8">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5125,13 +5195,13 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
       <c r="AC33" s="10"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
       <c r="AG33" s="44"/>
       <c r="AH33" s="44"/>
       <c r="AI33" s="43"/>
@@ -5139,7 +5209,7 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="8">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5165,13 +5235,13 @@
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
       <c r="AC34" s="10"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
       <c r="AG34" s="44"/>
       <c r="AH34" s="44"/>
       <c r="AI34" s="43"/>
@@ -5179,7 +5249,7 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="8">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5205,13 +5275,13 @@
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
       <c r="AC35" s="10"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
       <c r="AG35" s="44"/>
       <c r="AH35" s="44"/>
       <c r="AI35" s="43"/>
@@ -5219,7 +5289,7 @@
     </row>
     <row r="36" spans="1:37">
       <c r="A36" s="8">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5245,13 +5315,13 @@
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
       <c r="AC36" s="10"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
       <c r="AG36" s="44"/>
       <c r="AH36" s="44"/>
       <c r="AI36" s="43"/>
@@ -5259,7 +5329,7 @@
     </row>
     <row r="37" spans="1:37">
       <c r="A37" s="8">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5285,13 +5355,13 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
       <c r="AC37" s="10"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
       <c r="AG37" s="44"/>
       <c r="AH37" s="44"/>
       <c r="AI37" s="43"/>
@@ -5299,7 +5369,7 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="8">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5325,13 +5395,13 @@
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
       <c r="AC38" s="10"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
       <c r="AG38" s="44"/>
       <c r="AH38" s="44"/>
       <c r="AI38" s="43"/>
@@ -5339,7 +5409,7 @@
     </row>
     <row r="39" spans="1:37">
       <c r="A39" s="8">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5365,13 +5435,13 @@
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
       <c r="AC39" s="10"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
       <c r="AG39" s="44"/>
       <c r="AH39" s="44"/>
       <c r="AI39" s="43"/>
@@ -5379,7 +5449,7 @@
     </row>
     <row r="40" spans="1:37">
       <c r="A40" s="8">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5405,13 +5475,13 @@
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
       <c r="AC40" s="10"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
       <c r="AG40" s="44"/>
       <c r="AH40" s="44"/>
       <c r="AI40" s="43"/>
@@ -5419,7 +5489,7 @@
     </row>
     <row r="41" spans="1:37">
       <c r="A41" s="8">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5445,13 +5515,13 @@
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
       <c r="AC41" s="10"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
       <c r="AG41" s="44"/>
       <c r="AH41" s="44"/>
       <c r="AI41" s="43"/>
@@ -5459,7 +5529,7 @@
     </row>
     <row r="42" spans="1:37">
       <c r="A42" s="8">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5485,13 +5555,13 @@
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
       <c r="AC42" s="10"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
       <c r="AG42" s="44"/>
       <c r="AH42" s="44"/>
       <c r="AI42" s="43"/>
@@ -5499,7 +5569,7 @@
     </row>
     <row r="43" spans="1:37">
       <c r="A43" s="8">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5525,13 +5595,13 @@
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
       <c r="AC43" s="10"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
       <c r="AG43" s="44"/>
       <c r="AH43" s="44"/>
       <c r="AI43" s="43"/>
@@ -5539,7 +5609,7 @@
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="8">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5565,13 +5635,13 @@
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
       <c r="AC44" s="10"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
       <c r="AG44" s="44"/>
       <c r="AH44" s="44"/>
       <c r="AI44" s="43"/>
@@ -5579,7 +5649,7 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="8">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5605,13 +5675,13 @@
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
       <c r="AC45" s="10"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
       <c r="AG45" s="44"/>
       <c r="AH45" s="44"/>
       <c r="AI45" s="43"/>
@@ -5619,7 +5689,7 @@
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="8">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5645,13 +5715,13 @@
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
       <c r="AC46" s="10"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
       <c r="AG46" s="44"/>
       <c r="AH46" s="44"/>
       <c r="AI46" s="43"/>
@@ -5659,7 +5729,7 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47" s="8">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5685,13 +5755,13 @@
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
       <c r="AC47" s="10"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
       <c r="AG47" s="44"/>
       <c r="AH47" s="44"/>
       <c r="AI47" s="43"/>
@@ -5699,7 +5769,7 @@
     </row>
     <row r="48" spans="1:37">
       <c r="A48" s="8">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5725,13 +5795,13 @@
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
       <c r="AC48" s="10"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
       <c r="AG48" s="44"/>
       <c r="AH48" s="44"/>
       <c r="AI48" s="43"/>
@@ -5739,7 +5809,7 @@
     </row>
     <row r="49" spans="1:37">
       <c r="A49" s="8">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5765,13 +5835,13 @@
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
       <c r="AC49" s="10"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
       <c r="AG49" s="44"/>
       <c r="AH49" s="44"/>
       <c r="AI49" s="43"/>
@@ -5779,7 +5849,7 @@
     </row>
     <row r="50" spans="1:37">
       <c r="A50" s="8">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5805,13 +5875,13 @@
       <c r="W50" s="10"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="36"/>
       <c r="AC50" s="10"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
       <c r="AG50" s="44"/>
       <c r="AH50" s="44"/>
       <c r="AI50" s="43"/>
@@ -5819,7 +5889,7 @@
     </row>
     <row r="51" spans="1:37">
       <c r="A51" s="8">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5845,13 +5915,13 @@
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
       <c r="AC51" s="10"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
       <c r="AG51" s="44"/>
       <c r="AH51" s="44"/>
       <c r="AI51" s="43"/>
@@ -5859,7 +5929,7 @@
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="8">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5885,13 +5955,13 @@
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
       <c r="AC52" s="10"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
       <c r="AG52" s="44"/>
       <c r="AH52" s="44"/>
       <c r="AI52" s="43"/>
@@ -5899,7 +5969,7 @@
     </row>
     <row r="53" spans="1:37">
       <c r="A53" s="8">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5925,13 +5995,13 @@
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
       <c r="AC53" s="10"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
       <c r="AG53" s="44"/>
       <c r="AH53" s="44"/>
       <c r="AI53" s="43"/>
@@ -5939,7 +6009,7 @@
     </row>
     <row r="54" spans="1:37">
       <c r="A54" s="8">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5965,13 +6035,13 @@
       <c r="W54" s="10"/>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
       <c r="AC54" s="10"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
       <c r="AG54" s="44"/>
       <c r="AH54" s="44"/>
       <c r="AI54" s="43"/>
@@ -5979,7 +6049,7 @@
     </row>
     <row r="55" spans="1:37">
       <c r="A55" s="8">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -6005,13 +6075,13 @@
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
       <c r="AC55" s="10"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
       <c r="AG55" s="44"/>
       <c r="AH55" s="44"/>
       <c r="AI55" s="43"/>
@@ -6019,7 +6089,7 @@
     </row>
     <row r="56" spans="1:37">
       <c r="A56" s="8">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -6045,13 +6115,13 @@
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
       <c r="AC56" s="10"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
       <c r="AG56" s="44"/>
       <c r="AH56" s="44"/>
       <c r="AI56" s="43"/>
@@ -6059,7 +6129,7 @@
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="8">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -6085,13 +6155,13 @@
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
       <c r="AC57" s="10"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
       <c r="AG57" s="44"/>
       <c r="AH57" s="44"/>
       <c r="AI57" s="43"/>
@@ -6099,7 +6169,7 @@
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="8">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -6125,13 +6195,13 @@
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
       <c r="AC58" s="10"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
       <c r="AG58" s="44"/>
       <c r="AH58" s="44"/>
       <c r="AI58" s="43"/>
@@ -6139,7 +6209,7 @@
     </row>
     <row r="59" spans="1:37">
       <c r="A59" s="8">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -6165,13 +6235,13 @@
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
+      <c r="Z59" s="36"/>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
       <c r="AC59" s="10"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
+      <c r="AD59" s="36"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
       <c r="AG59" s="44"/>
       <c r="AH59" s="44"/>
       <c r="AI59" s="43"/>
@@ -6179,7 +6249,7 @@
     </row>
     <row r="60" spans="1:37">
       <c r="A60" s="8">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -6205,13 +6275,13 @@
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
       <c r="AC60" s="10"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
       <c r="AG60" s="44"/>
       <c r="AH60" s="44"/>
       <c r="AI60" s="43"/>
@@ -6219,7 +6289,7 @@
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="8">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -6245,13 +6315,13 @@
       <c r="W61" s="10"/>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
       <c r="AC61" s="10"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
       <c r="AG61" s="44"/>
       <c r="AH61" s="44"/>
       <c r="AI61" s="43"/>
@@ -6259,7 +6329,7 @@
     </row>
     <row r="62" spans="1:37">
       <c r="A62" s="8">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -6285,13 +6355,13 @@
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
       <c r="AC62" s="10"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
       <c r="AG62" s="44"/>
       <c r="AH62" s="44"/>
       <c r="AI62" s="43"/>
@@ -6299,7 +6369,7 @@
     </row>
     <row r="63" spans="1:37">
       <c r="A63" s="8">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -6325,13 +6395,13 @@
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="36"/>
+      <c r="AB63" s="36"/>
       <c r="AC63" s="10"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
+      <c r="AD63" s="36"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="36"/>
       <c r="AG63" s="44"/>
       <c r="AH63" s="44"/>
       <c r="AI63" s="43"/>
@@ -6339,7 +6409,7 @@
     </row>
     <row r="64" spans="1:37">
       <c r="A64" s="8">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -6365,13 +6435,13 @@
       <c r="W64" s="10"/>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
       <c r="AC64" s="10"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
       <c r="AG64" s="44"/>
       <c r="AH64" s="44"/>
       <c r="AI64" s="43"/>
@@ -6379,7 +6449,7 @@
     </row>
     <row r="65" spans="1:37">
       <c r="A65" s="8">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -6405,13 +6475,13 @@
       <c r="W65" s="10"/>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
       <c r="AC65" s="10"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
       <c r="AG65" s="44"/>
       <c r="AH65" s="44"/>
       <c r="AI65" s="43"/>
@@ -6419,7 +6489,7 @@
     </row>
     <row r="66" spans="1:37">
       <c r="A66" s="8">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -6445,13 +6515,13 @@
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
       <c r="AC66" s="10"/>
-      <c r="AD66" s="35"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
       <c r="AG66" s="44"/>
       <c r="AH66" s="44"/>
       <c r="AI66" s="43"/>
@@ -6459,7 +6529,7 @@
     </row>
     <row r="67" spans="1:37">
       <c r="A67" s="8">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -6485,13 +6555,13 @@
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
+      <c r="Z67" s="36"/>
+      <c r="AA67" s="36"/>
+      <c r="AB67" s="36"/>
       <c r="AC67" s="10"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
+      <c r="AD67" s="36"/>
+      <c r="AE67" s="36"/>
+      <c r="AF67" s="36"/>
       <c r="AG67" s="44"/>
       <c r="AH67" s="44"/>
       <c r="AI67" s="43"/>
@@ -6499,7 +6569,7 @@
     </row>
     <row r="68" spans="1:37">
       <c r="A68" s="8">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -6525,13 +6595,13 @@
       <c r="W68" s="10"/>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
       <c r="AC68" s="10"/>
-      <c r="AD68" s="35"/>
-      <c r="AE68" s="35"/>
-      <c r="AF68" s="35"/>
+      <c r="AD68" s="36"/>
+      <c r="AE68" s="36"/>
+      <c r="AF68" s="36"/>
       <c r="AG68" s="44"/>
       <c r="AH68" s="44"/>
       <c r="AI68" s="43"/>
@@ -6539,7 +6609,7 @@
     </row>
     <row r="69" spans="1:37">
       <c r="A69" s="8">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -6565,13 +6635,13 @@
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
       <c r="AC69" s="10"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
       <c r="AG69" s="44"/>
       <c r="AH69" s="44"/>
       <c r="AI69" s="43"/>
@@ -6579,7 +6649,7 @@
     </row>
     <row r="70" spans="1:37">
       <c r="A70" s="8">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -6605,13 +6675,13 @@
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
       <c r="AC70" s="10"/>
-      <c r="AD70" s="35"/>
-      <c r="AE70" s="35"/>
-      <c r="AF70" s="35"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="36"/>
       <c r="AG70" s="44"/>
       <c r="AH70" s="44"/>
       <c r="AI70" s="43"/>
@@ -6619,7 +6689,7 @@
     </row>
     <row r="71" spans="1:37">
       <c r="A71" s="8">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -6645,13 +6715,13 @@
       <c r="W71" s="10"/>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="36"/>
       <c r="AC71" s="10"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
+      <c r="AD71" s="36"/>
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="36"/>
       <c r="AG71" s="44"/>
       <c r="AH71" s="44"/>
       <c r="AI71" s="43"/>
@@ -6659,7 +6729,7 @@
     </row>
     <row r="72" spans="1:37">
       <c r="A72" s="8">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -6685,13 +6755,13 @@
       <c r="W72" s="10"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
       <c r="AC72" s="10"/>
-      <c r="AD72" s="35"/>
-      <c r="AE72" s="35"/>
-      <c r="AF72" s="35"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
       <c r="AG72" s="44"/>
       <c r="AH72" s="44"/>
       <c r="AI72" s="43"/>
@@ -6699,7 +6769,7 @@
     </row>
     <row r="73" spans="1:37">
       <c r="A73" s="8">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -6725,13 +6795,13 @@
       <c r="W73" s="10"/>
       <c r="X73" s="10"/>
       <c r="Y73" s="10"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
       <c r="AC73" s="10"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
+      <c r="AD73" s="36"/>
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="36"/>
       <c r="AG73" s="44"/>
       <c r="AH73" s="44"/>
       <c r="AI73" s="43"/>
@@ -6739,7 +6809,7 @@
     </row>
     <row r="74" spans="1:37">
       <c r="A74" s="8">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -6765,13 +6835,13 @@
       <c r="W74" s="10"/>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="35"/>
-      <c r="AB74" s="35"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="36"/>
+      <c r="AB74" s="36"/>
       <c r="AC74" s="10"/>
-      <c r="AD74" s="35"/>
-      <c r="AE74" s="35"/>
-      <c r="AF74" s="35"/>
+      <c r="AD74" s="36"/>
+      <c r="AE74" s="36"/>
+      <c r="AF74" s="36"/>
       <c r="AG74" s="44"/>
       <c r="AH74" s="44"/>
       <c r="AI74" s="43"/>
@@ -6779,7 +6849,7 @@
     </row>
     <row r="75" spans="1:37">
       <c r="A75" s="8">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -6805,13 +6875,13 @@
       <c r="W75" s="10"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="10"/>
-      <c r="Z75" s="35"/>
-      <c r="AA75" s="35"/>
-      <c r="AB75" s="35"/>
+      <c r="Z75" s="36"/>
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="36"/>
       <c r="AC75" s="10"/>
-      <c r="AD75" s="35"/>
-      <c r="AE75" s="35"/>
-      <c r="AF75" s="35"/>
+      <c r="AD75" s="36"/>
+      <c r="AE75" s="36"/>
+      <c r="AF75" s="36"/>
       <c r="AG75" s="44"/>
       <c r="AH75" s="44"/>
       <c r="AI75" s="43"/>
@@ -6819,7 +6889,7 @@
     </row>
     <row r="76" spans="1:37">
       <c r="A76" s="8">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -6845,13 +6915,13 @@
       <c r="W76" s="10"/>
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
-      <c r="Z76" s="35"/>
-      <c r="AA76" s="35"/>
-      <c r="AB76" s="35"/>
+      <c r="Z76" s="36"/>
+      <c r="AA76" s="36"/>
+      <c r="AB76" s="36"/>
       <c r="AC76" s="10"/>
-      <c r="AD76" s="35"/>
-      <c r="AE76" s="35"/>
-      <c r="AF76" s="35"/>
+      <c r="AD76" s="36"/>
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="36"/>
       <c r="AG76" s="44"/>
       <c r="AH76" s="44"/>
       <c r="AI76" s="43"/>
@@ -6859,7 +6929,7 @@
     </row>
     <row r="77" spans="1:37">
       <c r="A77" s="8">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -6885,13 +6955,13 @@
       <c r="W77" s="10"/>
       <c r="X77" s="10"/>
       <c r="Y77" s="10"/>
-      <c r="Z77" s="35"/>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
       <c r="AC77" s="10"/>
-      <c r="AD77" s="35"/>
-      <c r="AE77" s="35"/>
-      <c r="AF77" s="35"/>
+      <c r="AD77" s="36"/>
+      <c r="AE77" s="36"/>
+      <c r="AF77" s="36"/>
       <c r="AG77" s="44"/>
       <c r="AH77" s="44"/>
       <c r="AI77" s="43"/>
@@ -6899,7 +6969,7 @@
     </row>
     <row r="78" spans="1:37">
       <c r="A78" s="8">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -6925,13 +6995,13 @@
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
-      <c r="Z78" s="35"/>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
       <c r="AC78" s="10"/>
-      <c r="AD78" s="35"/>
-      <c r="AE78" s="35"/>
-      <c r="AF78" s="35"/>
+      <c r="AD78" s="36"/>
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="36"/>
       <c r="AG78" s="44"/>
       <c r="AH78" s="44"/>
       <c r="AI78" s="43"/>
@@ -6939,7 +7009,7 @@
     </row>
     <row r="79" spans="1:37">
       <c r="A79" s="8">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6965,13 +7035,13 @@
       <c r="W79" s="10"/>
       <c r="X79" s="10"/>
       <c r="Y79" s="10"/>
-      <c r="Z79" s="35"/>
-      <c r="AA79" s="35"/>
-      <c r="AB79" s="35"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
       <c r="AC79" s="10"/>
-      <c r="AD79" s="35"/>
-      <c r="AE79" s="35"/>
-      <c r="AF79" s="35"/>
+      <c r="AD79" s="36"/>
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="36"/>
       <c r="AG79" s="44"/>
       <c r="AH79" s="44"/>
       <c r="AI79" s="43"/>
@@ -6979,7 +7049,7 @@
     </row>
     <row r="80" spans="1:37">
       <c r="A80" s="8">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -7005,13 +7075,13 @@
       <c r="W80" s="10"/>
       <c r="X80" s="10"/>
       <c r="Y80" s="10"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
       <c r="AC80" s="10"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="36"/>
       <c r="AG80" s="44"/>
       <c r="AH80" s="44"/>
       <c r="AI80" s="43"/>
@@ -7019,7 +7089,7 @@
     </row>
     <row r="81" spans="1:37">
       <c r="A81" s="8">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -7045,13 +7115,13 @@
       <c r="W81" s="10"/>
       <c r="X81" s="10"/>
       <c r="Y81" s="10"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
+      <c r="Z81" s="36"/>
+      <c r="AA81" s="36"/>
+      <c r="AB81" s="36"/>
       <c r="AC81" s="10"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
+      <c r="AD81" s="36"/>
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="36"/>
       <c r="AG81" s="44"/>
       <c r="AH81" s="44"/>
       <c r="AI81" s="43"/>
@@ -7059,7 +7129,7 @@
     </row>
     <row r="82" spans="1:37">
       <c r="A82" s="8">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -7085,13 +7155,13 @@
       <c r="W82" s="10"/>
       <c r="X82" s="10"/>
       <c r="Y82" s="10"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
+      <c r="Z82" s="36"/>
+      <c r="AA82" s="36"/>
+      <c r="AB82" s="36"/>
       <c r="AC82" s="10"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
+      <c r="AD82" s="36"/>
+      <c r="AE82" s="36"/>
+      <c r="AF82" s="36"/>
       <c r="AG82" s="44"/>
       <c r="AH82" s="44"/>
       <c r="AI82" s="43"/>
@@ -7099,7 +7169,7 @@
     </row>
     <row r="83" spans="1:37">
       <c r="A83" s="8">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -7125,13 +7195,13 @@
       <c r="W83" s="10"/>
       <c r="X83" s="10"/>
       <c r="Y83" s="10"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
       <c r="AC83" s="10"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
       <c r="AG83" s="44"/>
       <c r="AH83" s="44"/>
       <c r="AI83" s="43"/>
@@ -7139,7 +7209,7 @@
     </row>
     <row r="84" spans="1:37">
       <c r="A84" s="8">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -7165,13 +7235,13 @@
       <c r="W84" s="10"/>
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
-      <c r="Z84" s="35"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
+      <c r="Z84" s="36"/>
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
       <c r="AC84" s="10"/>
-      <c r="AD84" s="35"/>
-      <c r="AE84" s="35"/>
-      <c r="AF84" s="35"/>
+      <c r="AD84" s="36"/>
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
       <c r="AG84" s="44"/>
       <c r="AH84" s="44"/>
       <c r="AI84" s="43"/>
@@ -7179,7 +7249,7 @@
     </row>
     <row r="85" spans="1:37">
       <c r="A85" s="8">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -7205,13 +7275,13 @@
       <c r="W85" s="10"/>
       <c r="X85" s="10"/>
       <c r="Y85" s="10"/>
-      <c r="Z85" s="35"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
+      <c r="Z85" s="36"/>
+      <c r="AA85" s="36"/>
+      <c r="AB85" s="36"/>
       <c r="AC85" s="10"/>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
+      <c r="AD85" s="36"/>
+      <c r="AE85" s="36"/>
+      <c r="AF85" s="36"/>
       <c r="AG85" s="44"/>
       <c r="AH85" s="44"/>
       <c r="AI85" s="43"/>
@@ -7219,7 +7289,7 @@
     </row>
     <row r="86" spans="1:37">
       <c r="A86" s="8">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -7245,13 +7315,13 @@
       <c r="W86" s="10"/>
       <c r="X86" s="10"/>
       <c r="Y86" s="10"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
       <c r="AC86" s="10"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
       <c r="AG86" s="44"/>
       <c r="AH86" s="44"/>
       <c r="AI86" s="43"/>
@@ -7259,7 +7329,7 @@
     </row>
     <row r="87" spans="1:37">
       <c r="A87" s="8">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -7285,13 +7355,13 @@
       <c r="W87" s="10"/>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
       <c r="AC87" s="10"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
       <c r="AG87" s="44"/>
       <c r="AH87" s="44"/>
       <c r="AI87" s="43"/>
@@ -7299,7 +7369,7 @@
     </row>
     <row r="88" spans="1:37">
       <c r="A88" s="8">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -7325,13 +7395,13 @@
       <c r="W88" s="10"/>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="36"/>
+      <c r="AB88" s="36"/>
       <c r="AC88" s="10"/>
-      <c r="AD88" s="35"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
+      <c r="AD88" s="36"/>
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="36"/>
       <c r="AG88" s="44"/>
       <c r="AH88" s="44"/>
       <c r="AI88" s="43"/>
@@ -7339,7 +7409,7 @@
     </row>
     <row r="89" spans="1:37">
       <c r="A89" s="8">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -7365,13 +7435,13 @@
       <c r="W89" s="10"/>
       <c r="X89" s="10"/>
       <c r="Y89" s="10"/>
-      <c r="Z89" s="35"/>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
       <c r="AC89" s="10"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
       <c r="AG89" s="44"/>
       <c r="AH89" s="44"/>
       <c r="AI89" s="43"/>
@@ -7379,7 +7449,7 @@
     </row>
     <row r="90" spans="1:37">
       <c r="A90" s="8">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -7405,13 +7475,13 @@
       <c r="W90" s="10"/>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
-      <c r="Z90" s="35"/>
-      <c r="AA90" s="35"/>
-      <c r="AB90" s="35"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
       <c r="AC90" s="10"/>
-      <c r="AD90" s="35"/>
-      <c r="AE90" s="35"/>
-      <c r="AF90" s="35"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
       <c r="AG90" s="44"/>
       <c r="AH90" s="44"/>
       <c r="AI90" s="43"/>
@@ -7419,7 +7489,7 @@
     </row>
     <row r="91" spans="1:37">
       <c r="A91" s="8">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -7445,13 +7515,13 @@
       <c r="W91" s="10"/>
       <c r="X91" s="10"/>
       <c r="Y91" s="10"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="36"/>
       <c r="AC91" s="10"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
+      <c r="AD91" s="36"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
       <c r="AG91" s="44"/>
       <c r="AH91" s="44"/>
       <c r="AI91" s="43"/>
@@ -7459,7 +7529,7 @@
     </row>
     <row r="92" spans="1:37">
       <c r="A92" s="8">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -7485,13 +7555,13 @@
       <c r="W92" s="10"/>
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
       <c r="AC92" s="10"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
       <c r="AG92" s="44"/>
       <c r="AH92" s="44"/>
       <c r="AI92" s="43"/>
@@ -7499,7 +7569,7 @@
     </row>
     <row r="93" spans="1:37">
       <c r="A93" s="8">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -7525,13 +7595,13 @@
       <c r="W93" s="10"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="10"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
+      <c r="Z93" s="36"/>
+      <c r="AA93" s="36"/>
+      <c r="AB93" s="36"/>
       <c r="AC93" s="10"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
+      <c r="AD93" s="36"/>
+      <c r="AE93" s="36"/>
+      <c r="AF93" s="36"/>
       <c r="AG93" s="44"/>
       <c r="AH93" s="44"/>
       <c r="AI93" s="43"/>
@@ -7539,7 +7609,7 @@
     </row>
     <row r="94" spans="1:37">
       <c r="A94" s="8">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -7565,13 +7635,13 @@
       <c r="W94" s="10"/>
       <c r="X94" s="10"/>
       <c r="Y94" s="10"/>
-      <c r="Z94" s="35"/>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
       <c r="AC94" s="10"/>
-      <c r="AD94" s="35"/>
-      <c r="AE94" s="35"/>
-      <c r="AF94" s="35"/>
+      <c r="AD94" s="36"/>
+      <c r="AE94" s="36"/>
+      <c r="AF94" s="36"/>
       <c r="AG94" s="44"/>
       <c r="AH94" s="44"/>
       <c r="AI94" s="43"/>
@@ -7579,7 +7649,7 @@
     </row>
     <row r="95" spans="1:37">
       <c r="A95" s="8">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -7605,13 +7675,13 @@
       <c r="W95" s="10"/>
       <c r="X95" s="10"/>
       <c r="Y95" s="10"/>
-      <c r="Z95" s="35"/>
-      <c r="AA95" s="35"/>
-      <c r="AB95" s="35"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="36"/>
       <c r="AC95" s="10"/>
-      <c r="AD95" s="35"/>
-      <c r="AE95" s="35"/>
-      <c r="AF95" s="35"/>
+      <c r="AD95" s="36"/>
+      <c r="AE95" s="36"/>
+      <c r="AF95" s="36"/>
       <c r="AG95" s="44"/>
       <c r="AH95" s="44"/>
       <c r="AI95" s="43"/>
@@ -7619,7 +7689,7 @@
     </row>
     <row r="96" spans="1:37">
       <c r="A96" s="8">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -7645,13 +7715,13 @@
       <c r="W96" s="10"/>
       <c r="X96" s="10"/>
       <c r="Y96" s="10"/>
-      <c r="Z96" s="35"/>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
       <c r="AC96" s="10"/>
-      <c r="AD96" s="35"/>
-      <c r="AE96" s="35"/>
-      <c r="AF96" s="35"/>
+      <c r="AD96" s="36"/>
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
       <c r="AG96" s="44"/>
       <c r="AH96" s="44"/>
       <c r="AI96" s="43"/>
@@ -7659,7 +7729,7 @@
     </row>
     <row r="97" spans="1:37">
       <c r="A97" s="8">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -7685,13 +7755,13 @@
       <c r="W97" s="10"/>
       <c r="X97" s="10"/>
       <c r="Y97" s="10"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="36"/>
+      <c r="AB97" s="36"/>
       <c r="AC97" s="10"/>
-      <c r="AD97" s="35"/>
-      <c r="AE97" s="35"/>
-      <c r="AF97" s="35"/>
+      <c r="AD97" s="36"/>
+      <c r="AE97" s="36"/>
+      <c r="AF97" s="36"/>
       <c r="AG97" s="44"/>
       <c r="AH97" s="44"/>
       <c r="AI97" s="43"/>
@@ -7699,7 +7769,7 @@
     </row>
     <row r="98" spans="1:37">
       <c r="A98" s="8">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7725,13 +7795,13 @@
       <c r="W98" s="10"/>
       <c r="X98" s="10"/>
       <c r="Y98" s="10"/>
-      <c r="Z98" s="35"/>
-      <c r="AA98" s="35"/>
-      <c r="AB98" s="35"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
       <c r="AC98" s="10"/>
-      <c r="AD98" s="35"/>
-      <c r="AE98" s="35"/>
-      <c r="AF98" s="35"/>
+      <c r="AD98" s="36"/>
+      <c r="AE98" s="36"/>
+      <c r="AF98" s="36"/>
       <c r="AG98" s="44"/>
       <c r="AH98" s="44"/>
       <c r="AI98" s="43"/>
@@ -7739,7 +7809,7 @@
     </row>
     <row r="99" spans="1:37">
       <c r="A99" s="8">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -7765,13 +7835,13 @@
       <c r="W99" s="10"/>
       <c r="X99" s="10"/>
       <c r="Y99" s="10"/>
-      <c r="Z99" s="35"/>
-      <c r="AA99" s="35"/>
-      <c r="AB99" s="35"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
       <c r="AC99" s="10"/>
-      <c r="AD99" s="35"/>
-      <c r="AE99" s="35"/>
-      <c r="AF99" s="35"/>
+      <c r="AD99" s="36"/>
+      <c r="AE99" s="36"/>
+      <c r="AF99" s="36"/>
       <c r="AG99" s="44"/>
       <c r="AH99" s="44"/>
       <c r="AI99" s="43"/>
@@ -7779,7 +7849,7 @@
     </row>
     <row r="100" spans="1:37">
       <c r="A100" s="8">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -7805,13 +7875,13 @@
       <c r="W100" s="10"/>
       <c r="X100" s="10"/>
       <c r="Y100" s="10"/>
-      <c r="Z100" s="35"/>
-      <c r="AA100" s="35"/>
-      <c r="AB100" s="35"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
       <c r="AC100" s="10"/>
-      <c r="AD100" s="35"/>
-      <c r="AE100" s="35"/>
-      <c r="AF100" s="35"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100" s="36"/>
+      <c r="AF100" s="36"/>
       <c r="AG100" s="44"/>
       <c r="AH100" s="44"/>
       <c r="AI100" s="43"/>
@@ -7819,7 +7889,7 @@
     </row>
     <row r="101" spans="1:37">
       <c r="A101" s="8">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -7845,13 +7915,13 @@
       <c r="W101" s="10"/>
       <c r="X101" s="10"/>
       <c r="Y101" s="10"/>
-      <c r="Z101" s="35"/>
-      <c r="AA101" s="35"/>
-      <c r="AB101" s="35"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
       <c r="AC101" s="10"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="35"/>
-      <c r="AF101" s="35"/>
+      <c r="AD101" s="36"/>
+      <c r="AE101" s="36"/>
+      <c r="AF101" s="36"/>
       <c r="AG101" s="44"/>
       <c r="AH101" s="44"/>
       <c r="AI101" s="43"/>
@@ -7859,7 +7929,7 @@
     </row>
     <row r="102" spans="1:37">
       <c r="A102" s="8">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7885,13 +7955,13 @@
       <c r="W102" s="10"/>
       <c r="X102" s="10"/>
       <c r="Y102" s="10"/>
-      <c r="Z102" s="35"/>
-      <c r="AA102" s="35"/>
-      <c r="AB102" s="35"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
       <c r="AC102" s="10"/>
-      <c r="AD102" s="35"/>
-      <c r="AE102" s="35"/>
-      <c r="AF102" s="35"/>
+      <c r="AD102" s="36"/>
+      <c r="AE102" s="36"/>
+      <c r="AF102" s="36"/>
       <c r="AG102" s="44"/>
       <c r="AH102" s="44"/>
       <c r="AI102" s="43"/>
@@ -7899,7 +7969,7 @@
     </row>
     <row r="103" spans="1:37">
       <c r="A103" s="8">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -7925,13 +7995,13 @@
       <c r="W103" s="10"/>
       <c r="X103" s="10"/>
       <c r="Y103" s="10"/>
-      <c r="Z103" s="35"/>
-      <c r="AA103" s="35"/>
-      <c r="AB103" s="35"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
       <c r="AC103" s="10"/>
-      <c r="AD103" s="35"/>
-      <c r="AE103" s="35"/>
-      <c r="AF103" s="35"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
       <c r="AG103" s="44"/>
       <c r="AH103" s="44"/>
       <c r="AI103" s="43"/>
@@ -7939,7 +8009,7 @@
     </row>
     <row r="104" spans="1:37">
       <c r="A104" s="8">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -7965,99 +8035,62 @@
       <c r="W104" s="10"/>
       <c r="X104" s="10"/>
       <c r="Y104" s="10"/>
-      <c r="Z104" s="35"/>
-      <c r="AA104" s="35"/>
-      <c r="AB104" s="35"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
       <c r="AC104" s="10"/>
-      <c r="AD104" s="35"/>
-      <c r="AE104" s="35"/>
-      <c r="AF104" s="35"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
       <c r="AG104" s="44"/>
       <c r="AH104" s="44"/>
       <c r="AI104" s="43"/>
       <c r="AK104" s="10"/>
     </row>
-    <row r="105" spans="1:37">
-      <c r="A105" s="8">
-        <v>44648</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
-      <c r="S105" s="10"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
-      <c r="X105" s="10"/>
-      <c r="Y105" s="10"/>
-      <c r="Z105" s="35"/>
-      <c r="AA105" s="35"/>
-      <c r="AB105" s="35"/>
-      <c r="AC105" s="10"/>
-      <c r="AD105" s="35"/>
-      <c r="AE105" s="35"/>
-      <c r="AF105" s="35"/>
-      <c r="AG105" s="44"/>
-      <c r="AH105" s="44"/>
-      <c r="AI105" s="43"/>
-      <c r="AK105" s="10"/>
-    </row>
-    <row r="106" spans="1:37">
-      <c r="A106" s="8">
-        <v>44649</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="35"/>
-      <c r="AA106" s="35"/>
-      <c r="AB106" s="35"/>
-      <c r="AC106" s="10"/>
-      <c r="AD106" s="35"/>
-      <c r="AE106" s="35"/>
-      <c r="AF106" s="35"/>
-      <c r="AG106" s="44"/>
-      <c r="AH106" s="44"/>
-      <c r="AI106" s="43"/>
-      <c r="AK106" s="10"/>
-    </row>
-    <row r="107" spans="1:36">
+    <row r="105" spans="1:36">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="AJ105" s="47"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="Y106" s="2"/>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8077,7 +8110,6 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="AJ107" s="47"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>
@@ -15806,48 +15838,6 @@
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
       <c r="Y475" s="2"/>
-    </row>
-    <row r="476" spans="1:25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="J476" s="2"/>
-      <c r="K476" s="46"/>
-      <c r="L476" s="2"/>
-      <c r="M476" s="2"/>
-      <c r="N476" s="2"/>
-      <c r="O476" s="2"/>
-      <c r="P476" s="2"/>
-      <c r="Q476" s="2"/>
-      <c r="R476" s="2"/>
-      <c r="S476" s="2"/>
-      <c r="T476" s="2"/>
-      <c r="Y476" s="2"/>
-    </row>
-    <row r="477" spans="1:25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
-      <c r="J477" s="2"/>
-      <c r="K477" s="46"/>
-      <c r="L477" s="2"/>
-      <c r="M477" s="2"/>
-      <c r="N477" s="2"/>
-      <c r="O477" s="2"/>
-      <c r="P477" s="2"/>
-      <c r="Q477" s="2"/>
-      <c r="R477" s="2"/>
-      <c r="S477" s="2"/>
-      <c r="T477" s="2"/>
-      <c r="Y477" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -244,9 +244,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -298,15 +298,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +328,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -329,14 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +381,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -389,15 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,27 +435,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,19 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,31 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,25 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,31 +643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,8 +737,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +747,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -767,47 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,156 +831,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,12 +971,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,7 +994,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,13 +1015,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,7 +1102,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1123,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1601,7 @@
             <v>0.560000000000002</v>
           </cell>
           <cell r="AD8">
-            <v>20.755000000001</v>
+            <v>20.7550000000001</v>
           </cell>
           <cell r="AE8">
             <v>72.07</v>
@@ -2483,22 +2483,40 @@
             <v>15.5</v>
           </cell>
           <cell r="S18">
-            <v>161.03402</v>
-          </cell>
-        </row>
-        <row r="18">
+            <v>0</v>
+          </cell>
+          <cell r="T18">
+            <v>44558</v>
+          </cell>
+          <cell r="U18">
+            <v>15.65</v>
+          </cell>
+          <cell r="V18">
+            <v>100</v>
+          </cell>
+          <cell r="W18">
+            <v>5</v>
+          </cell>
           <cell r="X18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
+            <v>1.565</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.313</v>
+          </cell>
           <cell r="Z18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AC18" t="e">
-            <v>#DIV/0!</v>
+            <v>1558.122</v>
+          </cell>
+          <cell r="AA18">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB18">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC18">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD18">
+            <v>-147.91202</v>
           </cell>
         </row>
         <row r="19">
@@ -2557,22 +2575,40 @@
             <v>15.5</v>
           </cell>
           <cell r="S19">
-            <v>348.06876</v>
-          </cell>
-        </row>
-        <row r="19">
+            <v>0</v>
+          </cell>
+          <cell r="T19">
+            <v>44558</v>
+          </cell>
+          <cell r="U19">
+            <v>15.65</v>
+          </cell>
+          <cell r="V19">
+            <v>200</v>
+          </cell>
+          <cell r="W19">
+            <v>5</v>
+          </cell>
           <cell r="X19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
+            <v>3.13</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.626</v>
+          </cell>
           <cell r="Z19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AC19" t="e">
-            <v>#DIV/0!</v>
+            <v>3121.244</v>
+          </cell>
+          <cell r="AA19">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB19">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD19">
+            <v>-321.82476</v>
           </cell>
         </row>
         <row r="20">
@@ -2631,7 +2667,7 @@
             <v>59.29</v>
           </cell>
           <cell r="S20">
-            <v>556.1295</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -3036,10 +3072,142 @@
           <cell r="S25">
             <v>1522.35484</v>
           </cell>
+          <cell r="T25">
+            <v>44558</v>
+          </cell>
+          <cell r="U25">
+            <v>31.39</v>
+          </cell>
+          <cell r="V25">
+            <v>300</v>
+          </cell>
+          <cell r="W25">
+            <v>5</v>
+          </cell>
+          <cell r="X25">
+            <v>9.417</v>
+          </cell>
+          <cell r="Y25">
+            <v>1.8834</v>
+          </cell>
+          <cell r="Z25">
+            <v>9400.6996</v>
+          </cell>
+          <cell r="AA25">
+            <v>31.59</v>
+          </cell>
+          <cell r="AB25">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC25">
+            <v>0.873417721518988</v>
+          </cell>
+          <cell r="AD25">
+            <v>527.02218</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
             <v>JG_0000022</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>JH_00038</v>
+          </cell>
+          <cell r="C27">
+            <v>603599</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>广信股份</v>
+          </cell>
+          <cell r="E27">
+            <v>44558</v>
+          </cell>
+          <cell r="F27">
+            <v>40.38</v>
+          </cell>
+          <cell r="G27">
+            <v>200</v>
+          </cell>
+          <cell r="H27">
+            <v>5</v>
+          </cell>
+          <cell r="I27">
+            <v>0.16152</v>
+          </cell>
+          <cell r="J27">
+            <v>8081.16152</v>
+          </cell>
+          <cell r="K27">
+            <v>41.06</v>
+          </cell>
+          <cell r="L27">
+            <v>38.43</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>15.12</v>
+          </cell>
+          <cell r="Q27">
+            <v>0.258555133079848</v>
+          </cell>
+          <cell r="R27">
+            <v>38</v>
+          </cell>
+          <cell r="S27">
+            <v>486.161520000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>JG_0000023</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C28">
+            <v>603995</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E28">
+            <v>44558</v>
+          </cell>
+          <cell r="F28">
+            <v>55.97</v>
+          </cell>
+          <cell r="G28">
+            <v>200</v>
+          </cell>
+          <cell r="H28">
+            <v>5</v>
+          </cell>
+          <cell r="I28">
+            <v>0.22388</v>
+          </cell>
+          <cell r="J28">
+            <v>11199.22388</v>
+          </cell>
+          <cell r="K28">
+            <v>59</v>
+          </cell>
+          <cell r="L28">
+            <v>54.81</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>21.87</v>
+          </cell>
+          <cell r="Q28">
+            <v>0.723150357995227</v>
+          </cell>
+          <cell r="R28">
+            <v>52</v>
+          </cell>
+          <cell r="S28">
+            <v>804.22388</v>
           </cell>
         </row>
       </sheetData>
@@ -3311,11 +3479,11 @@
   <dimension ref="A1:AK475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-JH_00022.xlsx
@@ -244,12 +244,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -299,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,11 +328,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,6 +347,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -382,8 +389,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,24 +428,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +571,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,151 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,6 +734,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -748,15 +763,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +782,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -783,21 +804,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,17 +823,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,85 +836,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,61 +923,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +997,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1012,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1090,7 +1090,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1126,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3482,11 +3482,11 @@
   <dimension ref="A1:AK475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK13" sqref="AK13:AK15"/>
+      <selection pane="bottomRight" activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3848,7 +3848,7 @@
         <v>33.78</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" ref="J6:J13" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J15" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="21">
@@ -3864,7 +3864,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="str">
-        <f t="shared" ref="U6:U13" si="1">IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U15" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="11" t="s">
@@ -3884,7 +3884,7 @@
       <c r="AA6" s="37"/>
       <c r="AB6" s="37"/>
       <c r="AC6" s="30">
-        <f t="shared" ref="AC6:AC13" si="3">D6-E6</f>
+        <f t="shared" ref="AC6:AC15" si="3">D6-E6</f>
         <v>5.73</v>
       </c>
       <c r="AD6" s="37"/>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" ref="K7:K13" si="4">(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K15" si="4">(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
       <c r="L7" s="22"/>
@@ -4608,11 +4608,11 @@
         <v>49.24</v>
       </c>
       <c r="J14" s="24">
-        <f>IF(B14&gt;(D14-(D14-E14)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K14" s="25">
-        <f>(B14-B13)/B13</f>
+        <f t="shared" si="4"/>
         <v>-0.0510506275560568</v>
       </c>
       <c r="L14" s="11"/>
@@ -4625,7 +4625,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11" t="str">
-        <f>IF(B14&lt;G14,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V14" s="11" t="s">
@@ -4640,7 +4640,7 @@
       <c r="AA14" s="37"/>
       <c r="AB14" s="37"/>
       <c r="AC14" s="24">
-        <f>D14-E14</f>
+        <f t="shared" si="3"/>
         <v>5.63</v>
       </c>
       <c r="AD14" s="37"/>
@@ -4695,11 +4695,11 @@
         <v>36.99</v>
       </c>
       <c r="J15" s="20">
-        <f>IF(B15&gt;(D15-(D15-E15)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K15" s="21">
-        <f>(B15-B14)/B14</f>
+        <f t="shared" si="4"/>
         <v>0.0658344479120225</v>
       </c>
       <c r="L15" s="11"/>
@@ -4712,7 +4712,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11" t="str">
-        <f>IF(B15&lt;G15,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V15" s="11" t="s">
@@ -4727,7 +4727,7 @@
       <c r="AA15" s="37"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="22">
-        <f>D15-E15</f>
+        <f t="shared" si="3"/>
         <v>4.42999999999999</v>
       </c>
       <c r="AD15" s="37"/>
